--- a/Otorgamiento/Mapeos_SOL_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_SOL_Otorgamiento_V1.xlsx
@@ -774,7 +774,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2241" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="366">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1715,12 +1715,6 @@
     <t>Validaciones Generales DB_SOLICITUD / 7. Búsqueda Tipo Operación</t>
   </si>
   <si>
-    <t>1. Búsqueda del correlativo</t>
-  </si>
-  <si>
-    <t>2. Búsqueda del id de la fuente</t>
-  </si>
-  <si>
     <t>Busqueda Tipo Relacion Clasificacion con Periodicidad Tasa Interes</t>
   </si>
   <si>
@@ -1860,6 +1854,24 @@
   </si>
   <si>
     <t>Validaciones Generales DB_OPERACIONES_UTILIZADAS / 12. Búsqueda Tipo Relación Contrato Solicitud</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_OPERACIONES_ESPECIALES / 1. Búsqueda del correlativo</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_OPERACIONES_ESPECIALES / 2. Búsqueda del id de la fuente</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_OPERACIONES_ESPECIALES / 3. Búsqueda Tipo Solicitud</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_OPERACIONES_ESPECIALES / 4. Búsqueda Plazo</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_OPERACIONES_ESPECIALES / 5. Búsqueda de la solicitud secundaria</t>
+  </si>
+  <si>
+    <t>Validaciones Generales DB_OPERACIONES_ESPECIALES / 6. Búsqueda Tipo Relación entre solicitudes</t>
   </si>
 </sst>
 </file>
@@ -2914,7 +2926,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -3147,6 +3159,7 @@
     <xf numFmtId="0" fontId="4" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3216,7 +3229,7 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="89">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -3698,7 +3711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3749,30 +3762,30 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="164"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="158" t="s">
+      <c r="I2" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="159"/>
-      <c r="K2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="161"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="167"/>
       <c r="H3" s="8"/>
       <c r="I3" s="38"/>
       <c r="J3" s="22"/>
@@ -3783,12 +3796,12 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="170"/>
       <c r="H4" s="6"/>
       <c r="I4" s="39"/>
       <c r="J4" s="22"/>
@@ -3799,12 +3812,12 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="167" t="s">
+      <c r="D5" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="170"/>
       <c r="H5" s="6"/>
       <c r="I5" s="40"/>
       <c r="J5" s="25"/>
@@ -3820,26 +3833,26 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="153"/>
-      <c r="K7" s="154"/>
-      <c r="L7" s="155"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="156"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="151"/>
-      <c r="R7" s="151"/>
-      <c r="S7" s="152"/>
+      <c r="N7" s="151"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="152"/>
+      <c r="S7" s="153"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -6172,30 +6185,30 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="162" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="164"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="158" t="s">
+      <c r="I2" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="159"/>
-      <c r="K2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="161"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="167"/>
       <c r="H3" s="8"/>
       <c r="I3" s="38"/>
       <c r="J3" s="22" t="s">
@@ -6208,12 +6221,12 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="170"/>
       <c r="H4" s="6"/>
       <c r="I4" s="39"/>
       <c r="J4" s="22" t="s">
@@ -6226,12 +6239,12 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="167" t="s">
+      <c r="D5" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="170"/>
       <c r="H5" s="6"/>
       <c r="I5" s="40"/>
       <c r="J5" s="25" t="s">
@@ -6249,30 +6262,30 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="153" t="s">
+      <c r="J7" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="154"/>
-      <c r="L7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="156"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="170" t="s">
+      <c r="N7" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="171"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="171"/>
-      <c r="R7" s="171"/>
-      <c r="S7" s="171"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="172"/>
+      <c r="R7" s="172"/>
+      <c r="S7" s="172"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -6352,7 +6365,7 @@
         <v>28</v>
       </c>
       <c r="L9" s="143" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M9" s="147"/>
       <c r="N9" s="73">
@@ -6486,7 +6499,7 @@
         <v>36</v>
       </c>
       <c r="L12" s="145" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M12" s="147"/>
       <c r="N12" s="74">
@@ -6706,7 +6719,7 @@
         <v>127</v>
       </c>
       <c r="L17" s="145" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="74">
@@ -6750,7 +6763,7 @@
         <v>128</v>
       </c>
       <c r="L18" s="145" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="M18" s="32"/>
       <c r="N18" s="74">
@@ -6794,7 +6807,7 @@
         <v>131</v>
       </c>
       <c r="L19" s="145" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M19" s="32"/>
       <c r="N19" s="74">
@@ -6838,7 +6851,7 @@
         <v>140</v>
       </c>
       <c r="L20" s="145" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M20" s="32"/>
       <c r="N20" s="74">
@@ -6882,7 +6895,7 @@
         <v>258</v>
       </c>
       <c r="L21" s="144" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M21" s="32"/>
       <c r="N21" s="74">
@@ -6926,7 +6939,7 @@
         <v>259</v>
       </c>
       <c r="L22" s="144" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M22" s="32"/>
       <c r="N22" s="74">
@@ -6970,7 +6983,7 @@
         <v>267</v>
       </c>
       <c r="L23" s="144" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M23" s="32"/>
       <c r="N23" s="74">
@@ -7011,10 +7024,10 @@
         <v>51</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L24" s="144" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M24" s="32"/>
       <c r="N24" s="74">
@@ -7058,7 +7071,7 @@
         <v>269</v>
       </c>
       <c r="L25" s="144" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M25" s="32"/>
       <c r="N25" s="74">
@@ -7102,7 +7115,7 @@
         <v>273</v>
       </c>
       <c r="L26" s="144" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M26" s="32"/>
       <c r="N26" s="74">
@@ -7146,7 +7159,7 @@
         <v>271</v>
       </c>
       <c r="L27" s="144" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M27" s="32"/>
       <c r="N27" s="74">
@@ -7190,7 +7203,7 @@
         <v>274</v>
       </c>
       <c r="L28" s="144" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="M28" s="32"/>
       <c r="N28" s="74">
@@ -7234,7 +7247,7 @@
         <v>276</v>
       </c>
       <c r="L29" s="144" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M29" s="32"/>
       <c r="N29" s="74">
@@ -7278,7 +7291,7 @@
         <v>277</v>
       </c>
       <c r="L30" s="144" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M30" s="32"/>
       <c r="N30" s="74">
@@ -7322,7 +7335,7 @@
         <v>279</v>
       </c>
       <c r="L31" s="144" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M31" s="32"/>
       <c r="N31" s="74">
@@ -7366,7 +7379,7 @@
         <v>280</v>
       </c>
       <c r="L32" s="144" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M32" s="32"/>
       <c r="N32" s="74">
@@ -7410,7 +7423,7 @@
         <v>282</v>
       </c>
       <c r="L33" s="144" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M33" s="32"/>
       <c r="N33" s="74">
@@ -7454,7 +7467,7 @@
         <v>283</v>
       </c>
       <c r="L34" s="146" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M34" s="32"/>
       <c r="N34" s="74">
@@ -9058,30 +9071,30 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="162" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="164"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="158" t="s">
+      <c r="I2" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="159"/>
-      <c r="K2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="161"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="165"/>
-      <c r="G3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="167"/>
       <c r="H3" s="8"/>
       <c r="I3" s="38"/>
       <c r="J3" s="22" t="s">
@@ -9094,12 +9107,12 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="170"/>
       <c r="H4" s="6"/>
       <c r="I4" s="39"/>
       <c r="J4" s="22" t="s">
@@ -9112,12 +9125,12 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="167" t="s">
+      <c r="D5" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
-      <c r="G5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="169"/>
+      <c r="G5" s="170"/>
       <c r="H5" s="6"/>
       <c r="I5" s="40"/>
       <c r="J5" s="25" t="s">
@@ -9135,30 +9148,30 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="157"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="153" t="s">
+      <c r="J7" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="154"/>
-      <c r="L7" s="155"/>
+      <c r="K7" s="155"/>
+      <c r="L7" s="156"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="150" t="s">
+      <c r="N7" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="151"/>
-      <c r="R7" s="151"/>
-      <c r="S7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="152"/>
+      <c r="S7" s="153"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -9238,7 +9251,7 @@
         <v>28</v>
       </c>
       <c r="L9" s="143" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M9" s="147"/>
       <c r="N9" s="84">
@@ -9372,7 +9385,7 @@
         <v>36</v>
       </c>
       <c r="L12" s="145" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M12" s="147"/>
       <c r="N12" s="85">
@@ -9592,7 +9605,7 @@
         <v>127</v>
       </c>
       <c r="L17" s="145" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="85">
@@ -9636,7 +9649,7 @@
         <v>128</v>
       </c>
       <c r="L18" s="145" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M18" s="32"/>
       <c r="N18" s="85">
@@ -9680,7 +9693,7 @@
         <v>131</v>
       </c>
       <c r="L19" s="145" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M19" s="32"/>
       <c r="N19" s="85">
@@ -9724,7 +9737,7 @@
         <v>140</v>
       </c>
       <c r="L20" s="145" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M20" s="32"/>
       <c r="N20" s="85">
@@ -9768,7 +9781,7 @@
         <v>258</v>
       </c>
       <c r="L21" s="145" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M21" s="32"/>
       <c r="N21" s="85">
@@ -9812,7 +9825,7 @@
         <v>259</v>
       </c>
       <c r="L22" s="145" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M22" s="32"/>
       <c r="N22" s="85">
@@ -9856,7 +9869,7 @@
         <v>267</v>
       </c>
       <c r="L23" s="145" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M23" s="32"/>
       <c r="N23" s="85">
@@ -9900,7 +9913,7 @@
         <v>272</v>
       </c>
       <c r="L24" s="145" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M24" s="32"/>
       <c r="N24" s="85">
@@ -9944,7 +9957,7 @@
         <v>269</v>
       </c>
       <c r="L25" s="145" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M25" s="32"/>
       <c r="N25" s="85">
@@ -9988,7 +10001,7 @@
         <v>273</v>
       </c>
       <c r="L26" s="145" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M26" s="32"/>
       <c r="N26" s="85">
@@ -10032,7 +10045,7 @@
         <v>271</v>
       </c>
       <c r="L27" s="145" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M27" s="32"/>
       <c r="N27" s="85">
@@ -10076,7 +10089,7 @@
         <v>274</v>
       </c>
       <c r="L28" s="148" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M28" s="32"/>
       <c r="N28" s="85">
@@ -11368,28 +11381,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="162" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="162"/>
-      <c r="F2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="164"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="158" t="s">
+      <c r="H2" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="159"/>
-      <c r="J2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="161"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="165" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
       <c r="G3" s="8"/>
       <c r="H3" s="38"/>
       <c r="I3" s="22"/>
@@ -11400,11 +11413,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="168"/>
-      <c r="F4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="170"/>
       <c r="G4" s="6"/>
       <c r="H4" s="39"/>
       <c r="I4" s="22"/>
@@ -11415,11 +11428,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="167" t="s">
+      <c r="D5" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="168"/>
-      <c r="F5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="170"/>
       <c r="G5" s="6"/>
       <c r="H5" s="40"/>
       <c r="I5" s="25"/>
@@ -11434,25 +11447,25 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="155"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="171"/>
-      <c r="O7" s="171"/>
-      <c r="P7" s="171"/>
-      <c r="Q7" s="171"/>
-      <c r="R7" s="171"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="172"/>
+      <c r="R7" s="172"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -11526,7 +11539,7 @@
         <v>28</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L9" s="35"/>
       <c r="M9" s="84">
@@ -11657,7 +11670,7 @@
         <v>36</v>
       </c>
       <c r="K12" s="37" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L12" s="35"/>
       <c r="M12" s="85">
@@ -11872,7 +11885,7 @@
         <v>127</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="85">
@@ -11915,7 +11928,7 @@
         <v>128</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L18" s="34"/>
       <c r="M18" s="85">
@@ -11958,7 +11971,7 @@
         <v>131</v>
       </c>
       <c r="K19" s="37" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="85">
@@ -12001,7 +12014,7 @@
         <v>140</v>
       </c>
       <c r="K20" s="37" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L20" s="34"/>
       <c r="M20" s="85">
@@ -12044,7 +12057,7 @@
         <v>258</v>
       </c>
       <c r="K21" s="37" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L21" s="34"/>
       <c r="M21" s="85">
@@ -12087,7 +12100,7 @@
         <v>259</v>
       </c>
       <c r="K22" s="37" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L22" s="34"/>
       <c r="M22" s="85">
@@ -12130,7 +12143,7 @@
         <v>267</v>
       </c>
       <c r="K23" s="37" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L23" s="34"/>
       <c r="M23" s="85">
@@ -12173,7 +12186,7 @@
         <v>272</v>
       </c>
       <c r="K24" s="37" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L24" s="34"/>
       <c r="M24" s="85">
@@ -12215,8 +12228,8 @@
       <c r="J25" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="K25" s="173" t="s">
-        <v>360</v>
+      <c r="K25" s="150" t="s">
+        <v>358</v>
       </c>
       <c r="L25" s="34"/>
       <c r="M25" s="85">
@@ -12259,7 +12272,7 @@
         <v>288</v>
       </c>
       <c r="K26" s="120" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L26" s="34"/>
       <c r="M26" s="85">
@@ -13453,8 +13466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13469,7 +13482,7 @@
     <col min="8" max="8" width="2" style="2" customWidth="1"/>
     <col min="9" max="9" width="4" style="2" customWidth="1"/>
     <col min="10" max="10" width="36.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="91.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" style="2" customWidth="1"/>
     <col min="13" max="13" width="3" style="2" customWidth="1"/>
     <col min="14" max="14" width="47" style="2" bestFit="1" customWidth="1"/>
@@ -13491,28 +13504,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="162" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="162"/>
-      <c r="F2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="164"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="158" t="s">
+      <c r="H2" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="159"/>
-      <c r="J2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="161"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="165" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="167"/>
       <c r="G3" s="8"/>
       <c r="H3" s="38"/>
       <c r="I3" s="22"/>
@@ -13523,11 +13536,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="167" t="s">
+      <c r="D4" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="168"/>
-      <c r="F4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="170"/>
       <c r="G4" s="6"/>
       <c r="H4" s="39"/>
       <c r="I4" s="22"/>
@@ -13538,11 +13551,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="167" t="s">
+      <c r="D5" s="168" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="168"/>
-      <c r="F5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="170"/>
       <c r="G5" s="6"/>
       <c r="H5" s="40"/>
       <c r="I5" s="25"/>
@@ -13557,25 +13570,25 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="156" t="s">
+      <c r="B7" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="155"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="151"/>
-      <c r="P7" s="151"/>
-      <c r="Q7" s="151"/>
-      <c r="R7" s="152"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="153"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -13646,10 +13659,10 @@
       <c r="J9" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="L9" s="35"/>
+      <c r="K9" s="143" t="s">
+        <v>360</v>
+      </c>
+      <c r="L9" s="147"/>
       <c r="M9" s="86">
         <v>19</v>
       </c>
@@ -13689,10 +13702,10 @@
       <c r="J10" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="35"/>
+      <c r="L10" s="147"/>
       <c r="M10" s="86">
         <v>27</v>
       </c>
@@ -13732,10 +13745,10 @@
       <c r="J11" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="L11" s="35"/>
+      <c r="L11" s="147"/>
       <c r="M11" s="86">
         <v>22</v>
       </c>
@@ -13775,10 +13788,10 @@
       <c r="J12" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="L12" s="35"/>
+      <c r="K12" s="145" t="s">
+        <v>361</v>
+      </c>
+      <c r="L12" s="147"/>
       <c r="M12" s="86">
         <v>1</v>
       </c>
@@ -13818,10 +13831,10 @@
       <c r="J13" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="145" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="34"/>
+      <c r="L13" s="32"/>
       <c r="M13" s="87">
         <v>24</v>
       </c>
@@ -13861,10 +13874,10 @@
       <c r="J14" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="34"/>
+      <c r="L14" s="32"/>
       <c r="M14" s="86">
         <v>20</v>
       </c>
@@ -13904,10 +13917,10 @@
       <c r="J15" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="K15" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="34"/>
+      <c r="L15" s="32"/>
       <c r="M15" s="86">
         <v>21</v>
       </c>
@@ -13947,10 +13960,10 @@
       <c r="J16" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K16" s="28" t="s">
+      <c r="K16" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="34"/>
+      <c r="L16" s="32"/>
       <c r="M16" s="86">
         <v>17</v>
       </c>
@@ -13990,8 +14003,10 @@
       <c r="J17" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="34"/>
+      <c r="K17" s="145" t="s">
+        <v>362</v>
+      </c>
+      <c r="L17" s="32"/>
       <c r="M17" s="86">
         <v>26</v>
       </c>
@@ -14031,8 +14046,10 @@
       <c r="J18" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="28"/>
-      <c r="L18" s="34"/>
+      <c r="K18" s="174" t="s">
+        <v>363</v>
+      </c>
+      <c r="L18" s="32"/>
       <c r="M18" s="86">
         <v>28</v>
       </c>
@@ -14072,8 +14089,10 @@
       <c r="J19" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="K19" s="28"/>
-      <c r="L19" s="34"/>
+      <c r="K19" s="145" t="s">
+        <v>364</v>
+      </c>
+      <c r="L19" s="32"/>
       <c r="M19" s="86">
         <v>23</v>
       </c>
@@ -14113,8 +14132,10 @@
       <c r="J20" s="56" t="s">
         <v>259</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="34"/>
+      <c r="K20" s="148" t="s">
+        <v>365</v>
+      </c>
+      <c r="L20" s="32"/>
       <c r="M20" s="86">
         <v>26</v>
       </c>

--- a/Otorgamiento/Mapeos_SOL_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_SOL_Otorgamiento_V1.xlsx
@@ -774,7 +774,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="366">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3160,6 +3160,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3229,7 +3230,6 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="89">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -3711,7 +3711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3762,30 +3762,30 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="165"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="159" t="s">
+      <c r="I2" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="160"/>
-      <c r="K2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="168"/>
       <c r="H3" s="8"/>
       <c r="I3" s="38"/>
       <c r="J3" s="22"/>
@@ -3796,12 +3796,12 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="6"/>
       <c r="I4" s="39"/>
       <c r="J4" s="22"/>
@@ -3812,12 +3812,12 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="168" t="s">
+      <c r="D5" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="6"/>
       <c r="I5" s="40"/>
       <c r="J5" s="25"/>
@@ -3833,26 +3833,26 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="154"/>
-      <c r="K7" s="155"/>
-      <c r="L7" s="156"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="157"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="151"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="152"/>
-      <c r="S7" s="153"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="153"/>
+      <c r="Q7" s="153"/>
+      <c r="R7" s="153"/>
+      <c r="S7" s="154"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -6185,30 +6185,30 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="163" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="165"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="159" t="s">
+      <c r="I2" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="160"/>
-      <c r="K2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="168"/>
       <c r="H3" s="8"/>
       <c r="I3" s="38"/>
       <c r="J3" s="22" t="s">
@@ -6221,12 +6221,12 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="6"/>
       <c r="I4" s="39"/>
       <c r="J4" s="22" t="s">
@@ -6239,12 +6239,12 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="168" t="s">
+      <c r="D5" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="6"/>
       <c r="I5" s="40"/>
       <c r="J5" s="25" t="s">
@@ -6262,30 +6262,30 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="154" t="s">
+      <c r="J7" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="155"/>
-      <c r="L7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="157"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="171" t="s">
+      <c r="N7" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="172"/>
-      <c r="R7" s="172"/>
-      <c r="S7" s="172"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -9071,30 +9071,30 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="163" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="163"/>
-      <c r="F2" s="163"/>
-      <c r="G2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="165"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="159" t="s">
+      <c r="I2" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="160"/>
-      <c r="K2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="168"/>
       <c r="H3" s="8"/>
       <c r="I3" s="38"/>
       <c r="J3" s="22" t="s">
@@ -9107,12 +9107,12 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="169"/>
-      <c r="F4" s="169"/>
-      <c r="G4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="6"/>
       <c r="I4" s="39"/>
       <c r="J4" s="22" t="s">
@@ -9125,12 +9125,12 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="168" t="s">
+      <c r="D5" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="169"/>
-      <c r="F5" s="169"/>
-      <c r="G5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="6"/>
       <c r="I5" s="40"/>
       <c r="J5" s="25" t="s">
@@ -9148,30 +9148,30 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="154" t="s">
+      <c r="J7" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="155"/>
-      <c r="L7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="157"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="151" t="s">
+      <c r="N7" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="152"/>
-      <c r="S7" s="153"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="153"/>
+      <c r="Q7" s="153"/>
+      <c r="R7" s="153"/>
+      <c r="S7" s="154"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -11381,28 +11381,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="163" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="163"/>
-      <c r="F2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="159" t="s">
+      <c r="H2" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="160"/>
-      <c r="J2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="162"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="166"/>
-      <c r="F3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="168"/>
       <c r="G3" s="8"/>
       <c r="H3" s="38"/>
       <c r="I3" s="22"/>
@@ -11413,11 +11413,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="169"/>
-      <c r="F4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="171"/>
       <c r="G4" s="6"/>
       <c r="H4" s="39"/>
       <c r="I4" s="22"/>
@@ -11428,11 +11428,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="168" t="s">
+      <c r="D5" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="169"/>
-      <c r="F5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="171"/>
       <c r="G5" s="6"/>
       <c r="H5" s="40"/>
       <c r="I5" s="25"/>
@@ -11447,25 +11447,25 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="156"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="157"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="171"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="172"/>
-      <c r="R7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -13466,8 +13466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -13504,28 +13504,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="162" t="s">
+      <c r="D2" s="163" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="163"/>
-      <c r="F2" s="164"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="159" t="s">
+      <c r="H2" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="160"/>
-      <c r="J2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="162"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="165" t="s">
+      <c r="D3" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="166"/>
-      <c r="F3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="168"/>
       <c r="G3" s="8"/>
       <c r="H3" s="38"/>
       <c r="I3" s="22"/>
@@ -13536,11 +13536,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="169"/>
-      <c r="F4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="171"/>
       <c r="G4" s="6"/>
       <c r="H4" s="39"/>
       <c r="I4" s="22"/>
@@ -13551,11 +13551,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="168" t="s">
+      <c r="D5" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="169"/>
-      <c r="F5" s="170"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="171"/>
       <c r="G5" s="6"/>
       <c r="H5" s="40"/>
       <c r="I5" s="25"/>
@@ -13570,25 +13570,25 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="156"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="157"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="152"/>
-      <c r="P7" s="152"/>
-      <c r="Q7" s="152"/>
-      <c r="R7" s="153"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="153"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="153"/>
+      <c r="Q7" s="153"/>
+      <c r="R7" s="154"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -13651,7 +13651,9 @@
         <v>182</v>
       </c>
       <c r="F9" s="47"/>
-      <c r="G9" s="61"/>
+      <c r="G9" s="61" t="s">
+        <v>216</v>
+      </c>
       <c r="H9" s="32"/>
       <c r="I9" s="81">
         <v>19</v>
@@ -14046,7 +14048,7 @@
       <c r="J18" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="174" t="s">
+      <c r="K18" s="151" t="s">
         <v>363</v>
       </c>
       <c r="L18" s="32"/>

--- a/Otorgamiento/Mapeos_SOL_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_SOL_Otorgamiento_V1.xlsx
@@ -15,6 +15,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="Asset_Name">[1]ReadMe!$C$1</definedName>
@@ -774,7 +775,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2246" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="394">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -1872,6 +1873,90 @@
   </si>
   <si>
     <t>Validaciones Generales DB_OPERACIONES_ESPECIALES / 6. Búsqueda Tipo Relación entre solicitudes</t>
+  </si>
+  <si>
+    <t>DESC_CAU_ARR</t>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
+  </si>
+  <si>
+    <t>PI_ANT</t>
+  </si>
+  <si>
+    <t>NUMERIC(18,10)</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>VLR_PE</t>
+  </si>
+  <si>
+    <t>NUMERIC(18,2)</t>
+  </si>
+  <si>
+    <t>FEC_VENC_PI</t>
+  </si>
+  <si>
+    <t>PROV_MRC</t>
+  </si>
+  <si>
+    <t>CAT_RSF_MRC</t>
+  </si>
+  <si>
+    <t>VARCHAR(2)</t>
+  </si>
+  <si>
+    <t>ALTER_DEF</t>
+  </si>
+  <si>
+    <t>SEG_MRC</t>
+  </si>
+  <si>
+    <t>PI_OTORG_ANT_ARR</t>
+  </si>
+  <si>
+    <t>PI_OTORG_DEF</t>
+  </si>
+  <si>
+    <t>PI_OTORG_MOD_REF</t>
+  </si>
+  <si>
+    <t>ID_CAUS</t>
+  </si>
+  <si>
+    <t>COMP_CART</t>
+  </si>
+  <si>
+    <t>DESP_NOM</t>
+  </si>
+  <si>
+    <t>CANT_APR</t>
+  </si>
+  <si>
+    <t>MOD_COB_TINT_CTE</t>
+  </si>
+  <si>
+    <t>CHAR(3)</t>
+  </si>
+  <si>
+    <t>VAL_CUOT</t>
+  </si>
+  <si>
+    <t>LIN_CRED</t>
+  </si>
+  <si>
+    <t>CHAR(8)</t>
+  </si>
+  <si>
+    <t>FORM_DESM</t>
+  </si>
+  <si>
+    <t>SLD_CRED</t>
+  </si>
+  <si>
+    <t>NUMERIC(14,2)</t>
   </si>
 </sst>
 </file>
@@ -2926,7 +3011,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -3230,6 +3315,9 @@
     <xf numFmtId="0" fontId="3" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="89">
     <cellStyle name="20% - Accent1" xfId="1"/>
@@ -3366,6 +3454,23 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Hoja2"/>
+      <sheetName val="Hoja3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3711,7 +3816,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3720,10 +3825,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B1:S70"/>
+  <dimension ref="B1:S93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView topLeftCell="I38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O53" sqref="O53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3742,7 +3847,7 @@
     <col min="12" max="12" width="86.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" style="2" customWidth="1"/>
     <col min="14" max="14" width="3" style="2" customWidth="1"/>
-    <col min="15" max="15" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="48.5703125" style="2" customWidth="1"/>
     <col min="16" max="16" width="35" style="2" customWidth="1"/>
     <col min="17" max="17" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="11.42578125" style="2"/>
@@ -5308,25 +5413,25 @@
       <c r="F42" s="30"/>
       <c r="G42" s="48"/>
       <c r="H42" s="49"/>
-      <c r="M42" s="123"/>
-      <c r="N42" s="97">
+      <c r="M42" s="32"/>
+      <c r="N42" s="108">
         <v>59</v>
       </c>
-      <c r="O42" s="22" t="s">
+      <c r="O42" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="P42" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q42" s="67" t="s">
-        <v>53</v>
+      <c r="P42" s="92" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q42" s="175" t="s">
+        <v>367</v>
       </c>
       <c r="R42" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="37"/>
-    </row>
-    <row r="43" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S42" s="93"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="44">
         <v>35</v>
       </c>
@@ -5342,20 +5447,20 @@
       <c r="F43" s="30"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="M43" s="124"/>
-      <c r="N43" s="128">
-        <v>56</v>
-      </c>
-      <c r="O43" s="92" t="s">
+      <c r="M43" s="32"/>
+      <c r="N43" s="108">
+        <v>59</v>
+      </c>
+      <c r="O43" s="67" t="s">
         <v>179</v>
       </c>
       <c r="P43" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q43" s="92" t="s">
-        <v>23</v>
-      </c>
-      <c r="R43" s="92" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q43" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R43" s="67" t="s">
         <v>20</v>
       </c>
       <c r="S43" s="93"/>
@@ -5376,23 +5481,23 @@
       <c r="F44" s="30"/>
       <c r="G44" s="48"/>
       <c r="H44" s="49"/>
-      <c r="M44" s="127"/>
-      <c r="N44" s="94">
-        <v>52</v>
-      </c>
-      <c r="O44" s="95" t="s">
-        <v>240</v>
-      </c>
-      <c r="P44" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q44" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="R44" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="S44" s="96"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="108">
+        <v>59</v>
+      </c>
+      <c r="O44" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P44" s="92" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q44" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R44" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S44" s="93"/>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="44">
@@ -5410,23 +5515,23 @@
       <c r="F45" s="30"/>
       <c r="G45" s="48"/>
       <c r="H45" s="49"/>
-      <c r="M45" s="123"/>
-      <c r="N45" s="97">
-        <v>70</v>
-      </c>
-      <c r="O45" s="90" t="s">
-        <v>240</v>
-      </c>
-      <c r="P45" s="90" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q45" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="R45" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="S45" s="28"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="108">
+        <v>59</v>
+      </c>
+      <c r="O45" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P45" s="92" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q45" s="175" t="s">
+        <v>372</v>
+      </c>
+      <c r="R45" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="93"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="44">
@@ -5444,23 +5549,23 @@
       <c r="F46" s="30"/>
       <c r="G46" s="48"/>
       <c r="H46" s="49"/>
-      <c r="M46" s="123"/>
-      <c r="N46" s="97">
-        <v>53</v>
-      </c>
-      <c r="O46" s="90" t="s">
-        <v>240</v>
-      </c>
-      <c r="P46" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q46" s="90" t="s">
+      <c r="M46" s="32"/>
+      <c r="N46" s="108">
+        <v>59</v>
+      </c>
+      <c r="O46" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P46" s="92" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q46" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="R46" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S46" s="28"/>
+      <c r="R46" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S46" s="93"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" s="44">
@@ -5478,23 +5583,23 @@
       <c r="F47" s="30"/>
       <c r="G47" s="48"/>
       <c r="H47" s="49"/>
-      <c r="M47" s="123"/>
-      <c r="N47" s="97">
-        <v>54</v>
-      </c>
-      <c r="O47" s="90" t="s">
-        <v>240</v>
-      </c>
-      <c r="P47" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q47" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="R47" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S47" s="28"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="108">
+        <v>59</v>
+      </c>
+      <c r="O47" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P47" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q47" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R47" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" s="93"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="44">
@@ -5512,23 +5617,23 @@
       <c r="F48" s="30"/>
       <c r="G48" s="48"/>
       <c r="H48" s="49"/>
-      <c r="M48" s="123"/>
-      <c r="N48" s="97">
-        <v>2</v>
-      </c>
-      <c r="O48" s="99" t="s">
-        <v>240</v>
-      </c>
-      <c r="P48" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q48" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="R48" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="S48" s="100"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="108">
+        <v>59</v>
+      </c>
+      <c r="O48" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P48" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q48" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R48" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="93"/>
     </row>
     <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="44">
@@ -5548,23 +5653,23 @@
       </c>
       <c r="G49" s="48"/>
       <c r="H49" s="49"/>
-      <c r="M49" s="123"/>
-      <c r="N49" s="97">
-        <v>47</v>
-      </c>
-      <c r="O49" s="90" t="s">
-        <v>240</v>
-      </c>
-      <c r="P49" s="90" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q49" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="R49" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S49" s="28"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="108">
+        <v>59</v>
+      </c>
+      <c r="O49" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P49" s="92" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q49" s="175" t="s">
+        <v>372</v>
+      </c>
+      <c r="R49" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="93"/>
     </row>
     <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B50" s="44">
@@ -5584,23 +5689,23 @@
       </c>
       <c r="G50" s="48"/>
       <c r="H50" s="49"/>
-      <c r="M50" s="123"/>
-      <c r="N50" s="97">
-        <v>71</v>
-      </c>
-      <c r="O50" s="90" t="s">
-        <v>240</v>
-      </c>
-      <c r="P50" s="90" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q50" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="R50" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S50" s="28"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="108">
+        <v>59</v>
+      </c>
+      <c r="O50" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P50" s="92" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q50" s="175" t="s">
+        <v>376</v>
+      </c>
+      <c r="R50" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S50" s="93"/>
     </row>
     <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B51" s="44">
@@ -5618,25 +5723,25 @@
       <c r="F51" s="30"/>
       <c r="G51" s="48"/>
       <c r="H51" s="49"/>
-      <c r="M51" s="123"/>
-      <c r="N51" s="97">
-        <v>76</v>
-      </c>
-      <c r="O51" s="90" t="s">
-        <v>240</v>
-      </c>
-      <c r="P51" s="90" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q51" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="R51" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S51" s="28"/>
-    </row>
-    <row r="52" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="32"/>
+      <c r="N51" s="108">
+        <v>59</v>
+      </c>
+      <c r="O51" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P51" s="92" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q51" s="175" t="s">
+        <v>184</v>
+      </c>
+      <c r="R51" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="93"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B52" s="50">
         <v>44</v>
       </c>
@@ -5654,23 +5759,23 @@
       </c>
       <c r="G52" s="52"/>
       <c r="H52" s="53"/>
-      <c r="M52" s="124"/>
-      <c r="N52" s="128">
-        <v>58</v>
-      </c>
-      <c r="O52" s="103" t="s">
-        <v>240</v>
-      </c>
-      <c r="P52" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q52" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="R52" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="S52" s="104"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="108">
+        <v>59</v>
+      </c>
+      <c r="O52" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P52" s="92" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q52" s="175" t="s">
+        <v>376</v>
+      </c>
+      <c r="R52" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" s="93"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" s="50">
@@ -5690,23 +5795,23 @@
       </c>
       <c r="G53" s="52"/>
       <c r="H53" s="53"/>
-      <c r="M53" s="127"/>
-      <c r="N53" s="94">
-        <v>52</v>
-      </c>
-      <c r="O53" s="95" t="s">
-        <v>244</v>
-      </c>
-      <c r="P53" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q53" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="R53" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="S53" s="96"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="108">
+        <v>59</v>
+      </c>
+      <c r="O53" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P53" s="92" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q53" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R53" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" s="93"/>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B54" s="50">
@@ -5724,23 +5829,23 @@
       <c r="F54" s="22"/>
       <c r="G54" s="52"/>
       <c r="H54" s="53"/>
-      <c r="M54" s="123"/>
-      <c r="N54" s="97">
-        <v>71</v>
-      </c>
-      <c r="O54" s="90" t="s">
-        <v>244</v>
-      </c>
-      <c r="P54" s="90" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q54" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="R54" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="S54" s="28"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="108">
+        <v>59</v>
+      </c>
+      <c r="O54" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P54" s="92" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q54" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R54" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" s="93"/>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B55" s="50">
@@ -5758,23 +5863,23 @@
       <c r="F55" s="22"/>
       <c r="G55" s="52"/>
       <c r="H55" s="53"/>
-      <c r="M55" s="123"/>
-      <c r="N55" s="97">
-        <v>53</v>
-      </c>
-      <c r="O55" s="90" t="s">
-        <v>244</v>
-      </c>
-      <c r="P55" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q55" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="R55" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S55" s="28"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="108">
+        <v>59</v>
+      </c>
+      <c r="O55" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P55" s="92" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q55" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R55" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S55" s="93"/>
     </row>
     <row r="56" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B56" s="50">
@@ -5792,23 +5897,23 @@
       <c r="F56" s="22"/>
       <c r="G56" s="52"/>
       <c r="H56" s="53"/>
-      <c r="M56" s="123"/>
-      <c r="N56" s="97">
-        <v>54</v>
-      </c>
-      <c r="O56" s="90" t="s">
-        <v>244</v>
-      </c>
-      <c r="P56" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q56" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="R56" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S56" s="28"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="108">
+        <v>56</v>
+      </c>
+      <c r="O56" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P56" s="92" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q56" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="R56" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="93"/>
     </row>
     <row r="57" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B57" s="50">
@@ -5828,23 +5933,23 @@
       </c>
       <c r="G57" s="52"/>
       <c r="H57" s="53"/>
-      <c r="M57" s="123"/>
-      <c r="N57" s="97">
-        <v>2</v>
-      </c>
-      <c r="O57" s="99" t="s">
-        <v>244</v>
-      </c>
-      <c r="P57" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q57" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="R57" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="S57" s="100"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="108">
+        <v>59</v>
+      </c>
+      <c r="O57" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P57" s="92" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q57" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="R57" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" s="93"/>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B58" s="50">
@@ -5862,23 +5967,23 @@
       <c r="F58" s="22"/>
       <c r="G58" s="52"/>
       <c r="H58" s="53"/>
-      <c r="M58" s="123"/>
-      <c r="N58" s="97">
+      <c r="M58" s="32"/>
+      <c r="N58" s="108">
         <v>59</v>
       </c>
-      <c r="O58" s="90" t="s">
-        <v>244</v>
-      </c>
-      <c r="P58" s="90" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q58" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="R58" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S58" s="28"/>
+      <c r="O58" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P58" s="92" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q58" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="R58" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S58" s="93"/>
     </row>
     <row r="59" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="55">
@@ -5896,232 +6001,669 @@
       <c r="F59" s="56"/>
       <c r="G59" s="57"/>
       <c r="H59" s="58"/>
-      <c r="M59" s="123"/>
-      <c r="N59" s="97">
-        <v>73</v>
-      </c>
-      <c r="O59" s="90" t="s">
-        <v>244</v>
-      </c>
-      <c r="P59" s="90" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q59" s="90" t="s">
+      <c r="M59" s="32"/>
+      <c r="N59" s="108">
+        <v>59</v>
+      </c>
+      <c r="O59" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P59" s="92" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q59" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="R59" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S59" s="28"/>
+      <c r="R59" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S59" s="93"/>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="M60" s="123"/>
-      <c r="N60" s="97">
-        <v>56</v>
-      </c>
-      <c r="O60" s="90" t="s">
-        <v>244</v>
-      </c>
-      <c r="P60" s="90" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q60" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="R60" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S60" s="28"/>
-    </row>
-    <row r="61" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M61" s="124"/>
-      <c r="N61" s="128">
-        <v>58</v>
-      </c>
-      <c r="O61" s="103" t="s">
-        <v>244</v>
-      </c>
-      <c r="P61" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q61" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="R61" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="S61" s="104"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="108">
+        <v>59</v>
+      </c>
+      <c r="O60" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P60" s="92" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q60" s="175" t="s">
+        <v>387</v>
+      </c>
+      <c r="R60" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S60" s="93"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="M61" s="32"/>
+      <c r="N61" s="108">
+        <v>59</v>
+      </c>
+      <c r="O61" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P61" s="92" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q61" s="175" t="s">
+        <v>53</v>
+      </c>
+      <c r="R61" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="93"/>
     </row>
     <row r="62" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="M62" s="127"/>
-      <c r="N62" s="94">
-        <v>52</v>
-      </c>
-      <c r="O62" s="95" t="s">
-        <v>248</v>
-      </c>
-      <c r="P62" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q62" s="95" t="s">
-        <v>96</v>
-      </c>
-      <c r="R62" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="S62" s="96"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="108">
+        <v>59</v>
+      </c>
+      <c r="O62" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P62" s="92" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q62" s="175" t="s">
+        <v>390</v>
+      </c>
+      <c r="R62" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="93"/>
     </row>
     <row r="63" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="M63" s="123"/>
-      <c r="N63" s="97">
-        <v>74</v>
-      </c>
-      <c r="O63" s="90" t="s">
-        <v>248</v>
-      </c>
-      <c r="P63" s="90" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q63" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="R63" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="S63" s="28"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="108">
+        <v>59</v>
+      </c>
+      <c r="O63" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P63" s="92" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q63" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="R63" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" s="93"/>
     </row>
     <row r="64" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="M64" s="123"/>
-      <c r="N64" s="97">
-        <v>53</v>
-      </c>
-      <c r="O64" s="90" t="s">
-        <v>248</v>
-      </c>
-      <c r="P64" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q64" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="R64" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S64" s="28"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="108">
+        <v>59</v>
+      </c>
+      <c r="O64" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="P64" s="92" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q64" s="175" t="s">
+        <v>393</v>
+      </c>
+      <c r="R64" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S64" s="93"/>
     </row>
     <row r="65" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M65" s="123"/>
       <c r="N65" s="97">
-        <v>54</v>
-      </c>
-      <c r="O65" s="90" t="s">
-        <v>248</v>
-      </c>
-      <c r="P65" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q65" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="R65" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S65" s="28"/>
-    </row>
-    <row r="66" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M66" s="123"/>
-      <c r="N66" s="97">
-        <v>2</v>
-      </c>
-      <c r="O66" s="99" t="s">
-        <v>248</v>
-      </c>
-      <c r="P66" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q66" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="R66" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="S66" s="100"/>
+        <v>59</v>
+      </c>
+      <c r="O65" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="P65" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q65" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="R65" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S65" s="37"/>
+    </row>
+    <row r="66" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M66" s="124"/>
+      <c r="N66" s="128">
+        <v>56</v>
+      </c>
+      <c r="O66" s="92" t="s">
+        <v>179</v>
+      </c>
+      <c r="P66" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q66" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="R66" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="93"/>
     </row>
     <row r="67" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M67" s="123"/>
-      <c r="N67" s="97">
-        <v>47</v>
-      </c>
-      <c r="O67" s="90" t="s">
-        <v>248</v>
-      </c>
-      <c r="P67" s="90" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q67" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="R67" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S67" s="28"/>
+      <c r="M67" s="127"/>
+      <c r="N67" s="94">
+        <v>52</v>
+      </c>
+      <c r="O67" s="95" t="s">
+        <v>240</v>
+      </c>
+      <c r="P67" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q67" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="R67" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="S67" s="96"/>
     </row>
     <row r="68" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M68" s="123"/>
       <c r="N68" s="97">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="O68" s="90" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="P68" s="90" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="Q68" s="90" t="s">
         <v>16</v>
       </c>
       <c r="R68" s="90" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S68" s="28"/>
     </row>
     <row r="69" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M69" s="123"/>
       <c r="N69" s="97">
+        <v>53</v>
+      </c>
+      <c r="O69" s="90" t="s">
+        <v>240</v>
+      </c>
+      <c r="P69" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q69" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="R69" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S69" s="28"/>
+    </row>
+    <row r="70" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M70" s="123"/>
+      <c r="N70" s="97">
+        <v>54</v>
+      </c>
+      <c r="O70" s="90" t="s">
+        <v>240</v>
+      </c>
+      <c r="P70" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q70" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="R70" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S70" s="28"/>
+    </row>
+    <row r="71" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M71" s="123"/>
+      <c r="N71" s="97">
+        <v>2</v>
+      </c>
+      <c r="O71" s="99" t="s">
+        <v>240</v>
+      </c>
+      <c r="P71" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q71" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="R71" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="S71" s="100"/>
+    </row>
+    <row r="72" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M72" s="123"/>
+      <c r="N72" s="97">
+        <v>47</v>
+      </c>
+      <c r="O72" s="90" t="s">
+        <v>240</v>
+      </c>
+      <c r="P72" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q72" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R72" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S72" s="28"/>
+    </row>
+    <row r="73" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M73" s="123"/>
+      <c r="N73" s="97">
+        <v>71</v>
+      </c>
+      <c r="O73" s="90" t="s">
+        <v>240</v>
+      </c>
+      <c r="P73" s="90" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q73" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="R73" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S73" s="28"/>
+    </row>
+    <row r="74" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M74" s="123"/>
+      <c r="N74" s="97">
+        <v>76</v>
+      </c>
+      <c r="O74" s="90" t="s">
+        <v>240</v>
+      </c>
+      <c r="P74" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q74" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="R74" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S74" s="28"/>
+    </row>
+    <row r="75" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M75" s="124"/>
+      <c r="N75" s="128">
+        <v>58</v>
+      </c>
+      <c r="O75" s="103" t="s">
+        <v>240</v>
+      </c>
+      <c r="P75" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q75" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="R75" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="S75" s="104"/>
+    </row>
+    <row r="76" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M76" s="127"/>
+      <c r="N76" s="94">
+        <v>52</v>
+      </c>
+      <c r="O76" s="95" t="s">
+        <v>244</v>
+      </c>
+      <c r="P76" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q76" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="R76" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="S76" s="96"/>
+    </row>
+    <row r="77" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M77" s="123"/>
+      <c r="N77" s="97">
+        <v>71</v>
+      </c>
+      <c r="O77" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="P77" s="90" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q77" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="R77" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="S77" s="28"/>
+    </row>
+    <row r="78" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M78" s="123"/>
+      <c r="N78" s="97">
+        <v>53</v>
+      </c>
+      <c r="O78" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="P78" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q78" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="R78" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S78" s="28"/>
+    </row>
+    <row r="79" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M79" s="123"/>
+      <c r="N79" s="97">
+        <v>54</v>
+      </c>
+      <c r="O79" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="P79" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q79" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="R79" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S79" s="28"/>
+    </row>
+    <row r="80" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M80" s="123"/>
+      <c r="N80" s="97">
+        <v>2</v>
+      </c>
+      <c r="O80" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="P80" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q80" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="R80" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="S80" s="100"/>
+    </row>
+    <row r="81" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M81" s="123"/>
+      <c r="N81" s="97">
+        <v>59</v>
+      </c>
+      <c r="O81" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="P81" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q81" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R81" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S81" s="28"/>
+    </row>
+    <row r="82" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M82" s="123"/>
+      <c r="N82" s="97">
+        <v>73</v>
+      </c>
+      <c r="O82" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="P82" s="90" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q82" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="R82" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S82" s="28"/>
+    </row>
+    <row r="83" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M83" s="123"/>
+      <c r="N83" s="97">
+        <v>56</v>
+      </c>
+      <c r="O83" s="90" t="s">
+        <v>244</v>
+      </c>
+      <c r="P83" s="90" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q83" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="R83" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S83" s="28"/>
+    </row>
+    <row r="84" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M84" s="124"/>
+      <c r="N84" s="128">
+        <v>58</v>
+      </c>
+      <c r="O84" s="103" t="s">
+        <v>244</v>
+      </c>
+      <c r="P84" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q84" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="R84" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="S84" s="104"/>
+    </row>
+    <row r="85" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M85" s="127"/>
+      <c r="N85" s="94">
+        <v>52</v>
+      </c>
+      <c r="O85" s="95" t="s">
+        <v>248</v>
+      </c>
+      <c r="P85" s="95" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q85" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="R85" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="S85" s="96"/>
+    </row>
+    <row r="86" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M86" s="123"/>
+      <c r="N86" s="97">
+        <v>74</v>
+      </c>
+      <c r="O86" s="90" t="s">
+        <v>248</v>
+      </c>
+      <c r="P86" s="90" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q86" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="R86" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="S86" s="28"/>
+    </row>
+    <row r="87" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M87" s="123"/>
+      <c r="N87" s="97">
+        <v>53</v>
+      </c>
+      <c r="O87" s="90" t="s">
+        <v>248</v>
+      </c>
+      <c r="P87" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q87" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="R87" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S87" s="28"/>
+    </row>
+    <row r="88" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M88" s="123"/>
+      <c r="N88" s="97">
+        <v>54</v>
+      </c>
+      <c r="O88" s="90" t="s">
+        <v>248</v>
+      </c>
+      <c r="P88" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q88" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="R88" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S88" s="28"/>
+    </row>
+    <row r="89" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M89" s="123"/>
+      <c r="N89" s="97">
+        <v>2</v>
+      </c>
+      <c r="O89" s="99" t="s">
+        <v>248</v>
+      </c>
+      <c r="P89" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q89" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="R89" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="S89" s="100"/>
+    </row>
+    <row r="90" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M90" s="123"/>
+      <c r="N90" s="97">
+        <v>47</v>
+      </c>
+      <c r="O90" s="90" t="s">
+        <v>248</v>
+      </c>
+      <c r="P90" s="90" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q90" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R90" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S90" s="28"/>
+    </row>
+    <row r="91" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M91" s="123"/>
+      <c r="N91" s="97">
+        <v>75</v>
+      </c>
+      <c r="O91" s="90" t="s">
+        <v>248</v>
+      </c>
+      <c r="P91" s="90" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q91" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="R91" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S91" s="28"/>
+    </row>
+    <row r="92" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M92" s="123"/>
+      <c r="N92" s="97">
         <v>77</v>
       </c>
-      <c r="O69" s="90" t="s">
+      <c r="O92" s="90" t="s">
         <v>248</v>
       </c>
-      <c r="P69" s="90" t="s">
+      <c r="P92" s="90" t="s">
         <v>239</v>
       </c>
-      <c r="Q69" s="90" t="s">
+      <c r="Q92" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="R69" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S69" s="28"/>
-    </row>
-    <row r="70" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M70" s="124"/>
-      <c r="N70" s="126">
+      <c r="R92" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S92" s="28"/>
+    </row>
+    <row r="93" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M93" s="124"/>
+      <c r="N93" s="126">
         <v>58</v>
       </c>
-      <c r="O70" s="101" t="s">
+      <c r="O93" s="101" t="s">
         <v>248</v>
       </c>
-      <c r="P70" s="101" t="s">
+      <c r="P93" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="Q70" s="101" t="s">
+      <c r="Q93" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="R70" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="S70" s="102"/>
+      <c r="R93" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="S93" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6143,10 +6685,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="B1:S107"/>
+  <dimension ref="B1:S130"/>
   <sheetViews>
-    <sheetView topLeftCell="L30" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView topLeftCell="J42" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58:N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6162,12 +6704,12 @@
     <col min="9" max="9" width="2" style="2" customWidth="1"/>
     <col min="10" max="10" width="4" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="64.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="115.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="120.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2" style="2" customWidth="1"/>
     <col min="14" max="14" width="3" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="54.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="35" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.7109375" style="2" customWidth="1"/>
     <col min="18" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
@@ -7775,1239 +8317,1676 @@
       <c r="F43" s="56"/>
       <c r="G43" s="57"/>
       <c r="H43" s="58"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="108">
-        <v>25</v>
-      </c>
-      <c r="O43" s="92" t="s">
+      <c r="M43" s="32"/>
+      <c r="N43" s="76">
+        <v>43</v>
+      </c>
+      <c r="O43" s="67" t="s">
         <v>180</v>
       </c>
       <c r="P43" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q43" s="92" t="s">
-        <v>23</v>
-      </c>
-      <c r="R43" s="92" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q43" s="175" t="s">
+        <v>367</v>
+      </c>
+      <c r="R43" s="67" t="s">
         <v>20</v>
       </c>
       <c r="S43" s="93"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="M44" s="98"/>
-      <c r="N44" s="64">
-        <v>36</v>
-      </c>
-      <c r="O44" s="95" t="s">
-        <v>260</v>
-      </c>
-      <c r="P44" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q44" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="R44" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="S44" s="96"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="76">
+        <v>43</v>
+      </c>
+      <c r="O44" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P44" s="92" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q44" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R44" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S44" s="93"/>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="M45" s="32"/>
-      <c r="N45" s="27">
-        <v>48</v>
-      </c>
-      <c r="O45" s="90" t="s">
-        <v>260</v>
-      </c>
-      <c r="P45" s="90" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q45" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="R45" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="S45" s="28"/>
+      <c r="N45" s="76">
+        <v>43</v>
+      </c>
+      <c r="O45" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P45" s="92" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q45" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R45" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="93"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="M46" s="32"/>
-      <c r="N46" s="27">
-        <v>49</v>
-      </c>
-      <c r="O46" s="90" t="s">
-        <v>260</v>
-      </c>
-      <c r="P46" s="90" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q46" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="R46" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="S46" s="28"/>
+      <c r="N46" s="76">
+        <v>43</v>
+      </c>
+      <c r="O46" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P46" s="92" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q46" s="175" t="s">
+        <v>372</v>
+      </c>
+      <c r="R46" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S46" s="93"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="M47" s="32"/>
-      <c r="N47" s="107">
-        <v>41</v>
-      </c>
-      <c r="O47" s="99" t="s">
-        <v>260</v>
-      </c>
-      <c r="P47" s="99" t="s">
+      <c r="N47" s="76">
         <v>43</v>
       </c>
-      <c r="Q47" s="99" t="s">
+      <c r="O47" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P47" s="92" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q47" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="R47" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="S47" s="100"/>
+      <c r="R47" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" s="93"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="M48" s="32"/>
-      <c r="N48" s="27">
+      <c r="N48" s="76">
         <v>43</v>
       </c>
-      <c r="O48" s="90" t="s">
-        <v>260</v>
-      </c>
-      <c r="P48" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q48" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="R48" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="S48" s="28"/>
+      <c r="O48" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P48" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q48" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R48" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="93"/>
     </row>
     <row r="49" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M49" s="32"/>
-      <c r="N49" s="27">
-        <v>39</v>
-      </c>
-      <c r="O49" s="90" t="s">
-        <v>260</v>
-      </c>
-      <c r="P49" s="90" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q49" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="R49" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S49" s="28"/>
+      <c r="N49" s="76">
+        <v>43</v>
+      </c>
+      <c r="O49" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P49" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q49" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R49" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="93"/>
     </row>
     <row r="50" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M50" s="32"/>
-      <c r="N50" s="27">
-        <v>37</v>
-      </c>
-      <c r="O50" s="90" t="s">
-        <v>260</v>
-      </c>
-      <c r="P50" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q50" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="R50" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S50" s="28"/>
+      <c r="N50" s="76">
+        <v>43</v>
+      </c>
+      <c r="O50" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P50" s="92" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q50" s="175" t="s">
+        <v>372</v>
+      </c>
+      <c r="R50" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S50" s="93"/>
     </row>
     <row r="51" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M51" s="32"/>
-      <c r="N51" s="27">
-        <v>38</v>
-      </c>
-      <c r="O51" s="90" t="s">
-        <v>260</v>
-      </c>
-      <c r="P51" s="90" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q51" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="R51" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S51" s="28"/>
+      <c r="N51" s="76">
+        <v>43</v>
+      </c>
+      <c r="O51" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P51" s="92" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q51" s="175" t="s">
+        <v>376</v>
+      </c>
+      <c r="R51" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="93"/>
     </row>
     <row r="52" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M52" s="32"/>
-      <c r="N52" s="27">
+      <c r="N52" s="76">
         <v>43</v>
       </c>
-      <c r="O52" s="90" t="s">
-        <v>260</v>
-      </c>
-      <c r="P52" s="90" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q52" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="R52" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S52" s="28"/>
-    </row>
-    <row r="53" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M53" s="33"/>
-      <c r="N53" s="106">
-        <v>42</v>
-      </c>
-      <c r="O53" s="103" t="s">
-        <v>260</v>
-      </c>
-      <c r="P53" s="103" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q53" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="R53" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="S53" s="104"/>
+      <c r="O52" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P52" s="92" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q52" s="175" t="s">
+        <v>184</v>
+      </c>
+      <c r="R52" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" s="93"/>
+    </row>
+    <row r="53" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M53" s="32"/>
+      <c r="N53" s="76">
+        <v>43</v>
+      </c>
+      <c r="O53" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P53" s="92" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q53" s="175" t="s">
+        <v>376</v>
+      </c>
+      <c r="R53" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" s="93"/>
     </row>
     <row r="54" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M54" s="98"/>
-      <c r="N54" s="64">
-        <v>50</v>
-      </c>
-      <c r="O54" s="95" t="s">
-        <v>266</v>
-      </c>
-      <c r="P54" s="95" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q54" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="R54" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="S54" s="96"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="76">
+        <v>43</v>
+      </c>
+      <c r="O54" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P54" s="92" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q54" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R54" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" s="93"/>
     </row>
     <row r="55" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M55" s="32"/>
-      <c r="N55" s="27">
-        <v>36</v>
-      </c>
-      <c r="O55" s="90" t="s">
-        <v>266</v>
-      </c>
-      <c r="P55" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q55" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="R55" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="S55" s="28"/>
+      <c r="N55" s="76">
+        <v>43</v>
+      </c>
+      <c r="O55" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P55" s="92" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q55" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R55" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S55" s="93"/>
     </row>
     <row r="56" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M56" s="32"/>
-      <c r="N56" s="27">
-        <v>51</v>
-      </c>
-      <c r="O56" s="90" t="s">
-        <v>266</v>
-      </c>
-      <c r="P56" s="90" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q56" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="R56" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="S56" s="28"/>
+      <c r="N56" s="76">
+        <v>43</v>
+      </c>
+      <c r="O56" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P56" s="92" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q56" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R56" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="93"/>
     </row>
     <row r="57" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M57" s="32"/>
-      <c r="N57" s="107">
-        <v>41</v>
-      </c>
-      <c r="O57" s="99" t="s">
-        <v>266</v>
-      </c>
-      <c r="P57" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q57" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="R57" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="S57" s="100"/>
+      <c r="N57" s="108">
+        <v>40</v>
+      </c>
+      <c r="O57" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P57" s="92" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q57" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="R57" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" s="93"/>
     </row>
     <row r="58" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M58" s="32"/>
-      <c r="N58" s="27">
+      <c r="N58" s="76">
         <v>43</v>
       </c>
-      <c r="O58" s="90" t="s">
-        <v>266</v>
-      </c>
-      <c r="P58" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q58" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="R58" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="S58" s="28"/>
+      <c r="O58" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P58" s="92" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q58" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="R58" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S58" s="93"/>
     </row>
     <row r="59" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M59" s="32"/>
-      <c r="N59" s="27">
-        <v>37</v>
-      </c>
-      <c r="O59" s="90" t="s">
-        <v>266</v>
-      </c>
-      <c r="P59" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q59" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="R59" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S59" s="28"/>
+      <c r="N59" s="76">
+        <v>43</v>
+      </c>
+      <c r="O59" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P59" s="92" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q59" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="R59" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S59" s="93"/>
     </row>
     <row r="60" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M60" s="32"/>
-      <c r="N60" s="27">
-        <v>38</v>
-      </c>
-      <c r="O60" s="90" t="s">
-        <v>266</v>
-      </c>
-      <c r="P60" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q60" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="R60" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S60" s="28"/>
+      <c r="N60" s="76">
+        <v>43</v>
+      </c>
+      <c r="O60" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P60" s="92" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q60" s="175" t="s">
+        <v>16</v>
+      </c>
+      <c r="R60" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S60" s="93"/>
     </row>
     <row r="61" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M61" s="32"/>
-      <c r="N61" s="27">
-        <v>39</v>
-      </c>
-      <c r="O61" s="90" t="s">
-        <v>266</v>
-      </c>
-      <c r="P61" s="90" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q61" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="R61" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S61" s="28"/>
-    </row>
-    <row r="62" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M62" s="33"/>
-      <c r="N62" s="106">
-        <v>42</v>
-      </c>
-      <c r="O62" s="103" t="s">
-        <v>266</v>
-      </c>
-      <c r="P62" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q62" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="R62" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="S62" s="104"/>
+      <c r="N61" s="76">
+        <v>43</v>
+      </c>
+      <c r="O61" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P61" s="92" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q61" s="175" t="s">
+        <v>387</v>
+      </c>
+      <c r="R61" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="93"/>
+    </row>
+    <row r="62" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M62" s="32"/>
+      <c r="N62" s="76">
+        <v>43</v>
+      </c>
+      <c r="O62" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P62" s="92" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q62" s="175" t="s">
+        <v>53</v>
+      </c>
+      <c r="R62" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="93"/>
     </row>
     <row r="63" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M63" s="98"/>
-      <c r="N63" s="64">
-        <v>52</v>
-      </c>
-      <c r="O63" s="95" t="s">
-        <v>268</v>
-      </c>
-      <c r="P63" s="95" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q63" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="R63" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="S63" s="96"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="76">
+        <v>43</v>
+      </c>
+      <c r="O63" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P63" s="92" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q63" s="175" t="s">
+        <v>390</v>
+      </c>
+      <c r="R63" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" s="93"/>
     </row>
     <row r="64" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M64" s="32"/>
-      <c r="N64" s="27">
-        <v>36</v>
-      </c>
-      <c r="O64" s="90" t="s">
-        <v>268</v>
-      </c>
-      <c r="P64" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q64" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="R64" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="S64" s="28"/>
+      <c r="N64" s="76">
+        <v>43</v>
+      </c>
+      <c r="O64" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P64" s="92" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q64" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="R64" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S64" s="93"/>
     </row>
     <row r="65" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M65" s="32"/>
-      <c r="N65" s="27">
-        <v>53</v>
-      </c>
-      <c r="O65" s="90" t="s">
-        <v>268</v>
-      </c>
-      <c r="P65" s="90" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q65" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="R65" s="90" t="s">
+      <c r="N65" s="108">
+        <v>43</v>
+      </c>
+      <c r="O65" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="P65" s="92" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q65" s="175" t="s">
+        <v>393</v>
+      </c>
+      <c r="R65" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S65" s="93"/>
+    </row>
+    <row r="66" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M66" s="33"/>
+      <c r="N66" s="108">
+        <v>25</v>
+      </c>
+      <c r="O66" s="92" t="s">
+        <v>180</v>
+      </c>
+      <c r="P66" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q66" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="R66" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="93"/>
+    </row>
+    <row r="67" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M67" s="98"/>
+      <c r="N67" s="64">
+        <v>36</v>
+      </c>
+      <c r="O67" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="P67" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q67" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="R67" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="S65" s="28"/>
-    </row>
-    <row r="66" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M66" s="32"/>
-      <c r="N66" s="107">
-        <v>41</v>
-      </c>
-      <c r="O66" s="99" t="s">
-        <v>268</v>
-      </c>
-      <c r="P66" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q66" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="R66" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="S66" s="100"/>
-    </row>
-    <row r="67" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M67" s="32"/>
-      <c r="N67" s="27">
-        <v>43</v>
-      </c>
-      <c r="O67" s="90" t="s">
-        <v>268</v>
-      </c>
-      <c r="P67" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q67" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="R67" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="S67" s="28"/>
+      <c r="S67" s="96"/>
     </row>
     <row r="68" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M68" s="32"/>
       <c r="N68" s="27">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="O68" s="90" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="P68" s="90" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="Q68" s="90" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R68" s="90" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S68" s="28"/>
     </row>
     <row r="69" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M69" s="32"/>
       <c r="N69" s="27">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="O69" s="90" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="P69" s="90" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="Q69" s="90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R69" s="90" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S69" s="28"/>
     </row>
     <row r="70" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M70" s="32"/>
-      <c r="N70" s="27">
+      <c r="N70" s="107">
+        <v>41</v>
+      </c>
+      <c r="O70" s="99" t="s">
+        <v>260</v>
+      </c>
+      <c r="P70" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q70" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="R70" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="S70" s="100"/>
+    </row>
+    <row r="71" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M71" s="32"/>
+      <c r="N71" s="27">
+        <v>43</v>
+      </c>
+      <c r="O71" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="P71" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q71" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R71" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="S71" s="28"/>
+    </row>
+    <row r="72" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M72" s="32"/>
+      <c r="N72" s="27">
         <v>39</v>
       </c>
-      <c r="O70" s="90" t="s">
-        <v>268</v>
-      </c>
-      <c r="P70" s="90" t="s">
+      <c r="O72" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="P72" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="Q70" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="R70" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S70" s="28"/>
-    </row>
-    <row r="71" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M71" s="33"/>
-      <c r="N71" s="106">
-        <v>42</v>
-      </c>
-      <c r="O71" s="103" t="s">
-        <v>268</v>
-      </c>
-      <c r="P71" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q71" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="R71" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="S71" s="104"/>
-    </row>
-    <row r="72" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M72" s="98"/>
-      <c r="N72" s="64">
-        <v>54</v>
-      </c>
-      <c r="O72" s="95" t="s">
-        <v>270</v>
-      </c>
-      <c r="P72" s="95" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q72" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="R72" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="S72" s="96"/>
+      <c r="Q72" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R72" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S72" s="28"/>
     </row>
     <row r="73" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M73" s="32"/>
       <c r="N73" s="27">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O73" s="90" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="P73" s="90" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="Q73" s="90" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R73" s="90" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S73" s="28"/>
     </row>
     <row r="74" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M74" s="32"/>
       <c r="N74" s="27">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="O74" s="90" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="P74" s="90" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Q74" s="90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R74" s="90" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S74" s="28"/>
     </row>
     <row r="75" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M75" s="32"/>
-      <c r="N75" s="107">
-        <v>41</v>
-      </c>
-      <c r="O75" s="99" t="s">
-        <v>270</v>
-      </c>
-      <c r="P75" s="99" t="s">
+      <c r="N75" s="27">
         <v>43</v>
       </c>
-      <c r="Q75" s="99" t="s">
+      <c r="O75" s="90" t="s">
+        <v>260</v>
+      </c>
+      <c r="P75" s="90" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q75" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="R75" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S75" s="28"/>
+    </row>
+    <row r="76" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M76" s="33"/>
+      <c r="N76" s="106">
+        <v>42</v>
+      </c>
+      <c r="O76" s="103" t="s">
+        <v>260</v>
+      </c>
+      <c r="P76" s="103" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q76" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="R75" s="99" t="s">
+      <c r="R76" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="S76" s="104"/>
+    </row>
+    <row r="77" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M77" s="98"/>
+      <c r="N77" s="64">
+        <v>50</v>
+      </c>
+      <c r="O77" s="95" t="s">
+        <v>266</v>
+      </c>
+      <c r="P77" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q77" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="R77" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="S75" s="100"/>
-    </row>
-    <row r="76" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M76" s="32"/>
-      <c r="N76" s="27">
-        <v>43</v>
-      </c>
-      <c r="O76" s="90" t="s">
-        <v>270</v>
-      </c>
-      <c r="P76" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q76" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="R76" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="S76" s="28"/>
-    </row>
-    <row r="77" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M77" s="32"/>
-      <c r="N77" s="27">
-        <v>39</v>
-      </c>
-      <c r="O77" s="90" t="s">
-        <v>270</v>
-      </c>
-      <c r="P77" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q77" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="R77" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S77" s="28"/>
+      <c r="S77" s="96"/>
     </row>
     <row r="78" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M78" s="32"/>
       <c r="N78" s="27">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O78" s="90" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P78" s="90" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="Q78" s="90" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R78" s="90" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S78" s="28"/>
     </row>
     <row r="79" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M79" s="32"/>
       <c r="N79" s="27">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="O79" s="90" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P79" s="90" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="Q79" s="90" t="s">
         <v>23</v>
       </c>
       <c r="R79" s="90" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S79" s="28"/>
     </row>
-    <row r="80" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M80" s="33"/>
-      <c r="N80" s="106">
-        <v>42</v>
-      </c>
-      <c r="O80" s="103" t="s">
-        <v>270</v>
-      </c>
-      <c r="P80" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q80" s="103" t="s">
+    <row r="80" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M80" s="32"/>
+      <c r="N80" s="107">
+        <v>41</v>
+      </c>
+      <c r="O80" s="99" t="s">
+        <v>266</v>
+      </c>
+      <c r="P80" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q80" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="R80" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="S80" s="104"/>
+      <c r="R80" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="S80" s="100"/>
     </row>
     <row r="81" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M81" s="98"/>
-      <c r="N81" s="64">
-        <v>56</v>
-      </c>
-      <c r="O81" s="95" t="s">
-        <v>275</v>
-      </c>
-      <c r="P81" s="95" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q81" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="R81" s="95" t="s">
+      <c r="M81" s="32"/>
+      <c r="N81" s="27">
+        <v>43</v>
+      </c>
+      <c r="O81" s="90" t="s">
+        <v>266</v>
+      </c>
+      <c r="P81" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q81" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R81" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="S81" s="96"/>
+      <c r="S81" s="28"/>
     </row>
     <row r="82" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M82" s="32"/>
       <c r="N82" s="27">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O82" s="90" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="P82" s="90" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="Q82" s="90" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R82" s="90" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S82" s="28"/>
     </row>
     <row r="83" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M83" s="32"/>
       <c r="N83" s="27">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="O83" s="90" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="P83" s="90" t="s">
-        <v>265</v>
+        <v>21</v>
       </c>
       <c r="Q83" s="90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R83" s="90" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S83" s="28"/>
     </row>
     <row r="84" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M84" s="32"/>
-      <c r="N84" s="107">
-        <v>41</v>
-      </c>
-      <c r="O84" s="99" t="s">
-        <v>275</v>
-      </c>
-      <c r="P84" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q84" s="99" t="s">
+      <c r="N84" s="27">
+        <v>39</v>
+      </c>
+      <c r="O84" s="90" t="s">
+        <v>266</v>
+      </c>
+      <c r="P84" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q84" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R84" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S84" s="28"/>
+    </row>
+    <row r="85" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M85" s="33"/>
+      <c r="N85" s="106">
+        <v>42</v>
+      </c>
+      <c r="O85" s="103" t="s">
+        <v>266</v>
+      </c>
+      <c r="P85" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q85" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="R84" s="99" t="s">
+      <c r="R85" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="S85" s="104"/>
+    </row>
+    <row r="86" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M86" s="98"/>
+      <c r="N86" s="64">
+        <v>52</v>
+      </c>
+      <c r="O86" s="95" t="s">
+        <v>268</v>
+      </c>
+      <c r="P86" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q86" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="R86" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="S84" s="100"/>
-    </row>
-    <row r="85" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M85" s="32"/>
-      <c r="N85" s="27">
-        <v>43</v>
-      </c>
-      <c r="O85" s="90" t="s">
-        <v>275</v>
-      </c>
-      <c r="P85" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q85" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="R85" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="S85" s="28"/>
-    </row>
-    <row r="86" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M86" s="32"/>
-      <c r="N86" s="27">
-        <v>39</v>
-      </c>
-      <c r="O86" s="90" t="s">
-        <v>275</v>
-      </c>
-      <c r="P86" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q86" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="R86" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S86" s="28"/>
+      <c r="S86" s="96"/>
     </row>
     <row r="87" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M87" s="32"/>
       <c r="N87" s="27">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O87" s="90" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P87" s="90" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="Q87" s="90" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R87" s="90" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S87" s="28"/>
     </row>
     <row r="88" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M88" s="32"/>
       <c r="N88" s="27">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="O88" s="90" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P88" s="90" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="Q88" s="90" t="s">
         <v>23</v>
       </c>
       <c r="R88" s="90" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S88" s="28"/>
     </row>
-    <row r="89" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M89" s="33"/>
-      <c r="N89" s="106">
-        <v>42</v>
-      </c>
-      <c r="O89" s="103" t="s">
-        <v>275</v>
-      </c>
-      <c r="P89" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q89" s="103" t="s">
+    <row r="89" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M89" s="32"/>
+      <c r="N89" s="107">
+        <v>41</v>
+      </c>
+      <c r="O89" s="99" t="s">
+        <v>268</v>
+      </c>
+      <c r="P89" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q89" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="R89" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="S89" s="104"/>
+      <c r="R89" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="S89" s="100"/>
     </row>
     <row r="90" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M90" s="98"/>
-      <c r="N90" s="64">
-        <v>58</v>
-      </c>
-      <c r="O90" s="95" t="s">
-        <v>278</v>
-      </c>
-      <c r="P90" s="95" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q90" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="R90" s="95" t="s">
+      <c r="M90" s="32"/>
+      <c r="N90" s="27">
+        <v>43</v>
+      </c>
+      <c r="O90" s="90" t="s">
+        <v>268</v>
+      </c>
+      <c r="P90" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q90" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R90" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="S90" s="96"/>
+      <c r="S90" s="28"/>
     </row>
     <row r="91" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M91" s="32"/>
       <c r="N91" s="27">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O91" s="90" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="P91" s="90" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="Q91" s="90" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R91" s="90" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S91" s="28"/>
     </row>
     <row r="92" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M92" s="32"/>
       <c r="N92" s="27">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="O92" s="90" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="P92" s="90" t="s">
-        <v>265</v>
+        <v>21</v>
       </c>
       <c r="Q92" s="90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R92" s="90" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S92" s="28"/>
     </row>
     <row r="93" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M93" s="32"/>
-      <c r="N93" s="107">
-        <v>41</v>
-      </c>
-      <c r="O93" s="99" t="s">
-        <v>278</v>
-      </c>
-      <c r="P93" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q93" s="99" t="s">
+      <c r="N93" s="27">
+        <v>39</v>
+      </c>
+      <c r="O93" s="90" t="s">
+        <v>268</v>
+      </c>
+      <c r="P93" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q93" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R93" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S93" s="28"/>
+    </row>
+    <row r="94" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M94" s="33"/>
+      <c r="N94" s="106">
+        <v>42</v>
+      </c>
+      <c r="O94" s="103" t="s">
+        <v>268</v>
+      </c>
+      <c r="P94" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q94" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="R93" s="99" t="s">
+      <c r="R94" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="S94" s="104"/>
+    </row>
+    <row r="95" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M95" s="98"/>
+      <c r="N95" s="64">
+        <v>54</v>
+      </c>
+      <c r="O95" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="P95" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q95" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="R95" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="S93" s="100"/>
-    </row>
-    <row r="94" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M94" s="32"/>
-      <c r="N94" s="27">
-        <v>43</v>
-      </c>
-      <c r="O94" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="P94" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q94" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="R94" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="S94" s="28"/>
-    </row>
-    <row r="95" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M95" s="32"/>
-      <c r="N95" s="27">
-        <v>39</v>
-      </c>
-      <c r="O95" s="90" t="s">
-        <v>278</v>
-      </c>
-      <c r="P95" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q95" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="R95" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S95" s="28"/>
+      <c r="S95" s="96"/>
     </row>
     <row r="96" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M96" s="32"/>
       <c r="N96" s="27">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O96" s="90" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="P96" s="90" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="Q96" s="90" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R96" s="90" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S96" s="28"/>
     </row>
     <row r="97" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M97" s="32"/>
       <c r="N97" s="27">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="O97" s="90" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="P97" s="90" t="s">
-        <v>172</v>
+        <v>265</v>
       </c>
       <c r="Q97" s="90" t="s">
         <v>23</v>
       </c>
       <c r="R97" s="90" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S97" s="28"/>
     </row>
-    <row r="98" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M98" s="33"/>
-      <c r="N98" s="106">
-        <v>42</v>
-      </c>
-      <c r="O98" s="103" t="s">
-        <v>278</v>
-      </c>
-      <c r="P98" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q98" s="103" t="s">
+    <row r="98" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M98" s="32"/>
+      <c r="N98" s="107">
+        <v>41</v>
+      </c>
+      <c r="O98" s="99" t="s">
+        <v>270</v>
+      </c>
+      <c r="P98" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q98" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="R98" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="S98" s="104"/>
+      <c r="R98" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="S98" s="100"/>
     </row>
     <row r="99" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M99" s="98"/>
-      <c r="N99" s="64">
-        <v>60</v>
-      </c>
-      <c r="O99" s="95" t="s">
-        <v>281</v>
-      </c>
-      <c r="P99" s="95" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q99" s="95" t="s">
-        <v>23</v>
-      </c>
-      <c r="R99" s="95" t="s">
+      <c r="M99" s="32"/>
+      <c r="N99" s="27">
+        <v>43</v>
+      </c>
+      <c r="O99" s="90" t="s">
+        <v>270</v>
+      </c>
+      <c r="P99" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q99" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R99" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="S99" s="96"/>
+      <c r="S99" s="28"/>
     </row>
     <row r="100" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M100" s="32"/>
       <c r="N100" s="27">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="O100" s="90" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="P100" s="90" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="Q100" s="90" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R100" s="90" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S100" s="28"/>
     </row>
     <row r="101" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M101" s="32"/>
       <c r="N101" s="27">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="O101" s="90" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="P101" s="90" t="s">
-        <v>265</v>
+        <v>21</v>
       </c>
       <c r="Q101" s="90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R101" s="90" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="S101" s="28"/>
     </row>
     <row r="102" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M102" s="32"/>
-      <c r="N102" s="107">
-        <v>41</v>
-      </c>
-      <c r="O102" s="99" t="s">
-        <v>281</v>
-      </c>
-      <c r="P102" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q102" s="99" t="s">
+      <c r="N102" s="27">
+        <v>38</v>
+      </c>
+      <c r="O102" s="90" t="s">
+        <v>270</v>
+      </c>
+      <c r="P102" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q102" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R102" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S102" s="28"/>
+    </row>
+    <row r="103" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M103" s="33"/>
+      <c r="N103" s="106">
+        <v>42</v>
+      </c>
+      <c r="O103" s="103" t="s">
+        <v>270</v>
+      </c>
+      <c r="P103" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q103" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="R102" s="99" t="s">
+      <c r="R103" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="S103" s="104"/>
+    </row>
+    <row r="104" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M104" s="98"/>
+      <c r="N104" s="64">
+        <v>56</v>
+      </c>
+      <c r="O104" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="P104" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q104" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="R104" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="S102" s="100"/>
-    </row>
-    <row r="103" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M103" s="32"/>
-      <c r="N103" s="27">
-        <v>43</v>
-      </c>
-      <c r="O103" s="90" t="s">
-        <v>281</v>
-      </c>
-      <c r="P103" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q103" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="R103" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="S103" s="28"/>
-    </row>
-    <row r="104" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M104" s="32"/>
-      <c r="N104" s="27">
-        <v>39</v>
-      </c>
-      <c r="O104" s="90" t="s">
-        <v>281</v>
-      </c>
-      <c r="P104" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q104" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="R104" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S104" s="28"/>
+      <c r="S104" s="96"/>
     </row>
     <row r="105" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M105" s="32"/>
       <c r="N105" s="27">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O105" s="90" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="P105" s="90" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="Q105" s="90" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R105" s="90" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S105" s="28"/>
     </row>
     <row r="106" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M106" s="32"/>
       <c r="N106" s="27">
+        <v>57</v>
+      </c>
+      <c r="O106" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="P106" s="90" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q106" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R106" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="S106" s="28"/>
+    </row>
+    <row r="107" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M107" s="32"/>
+      <c r="N107" s="107">
+        <v>41</v>
+      </c>
+      <c r="O107" s="99" t="s">
+        <v>275</v>
+      </c>
+      <c r="P107" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q107" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="R107" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="S107" s="100"/>
+    </row>
+    <row r="108" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M108" s="32"/>
+      <c r="N108" s="27">
+        <v>43</v>
+      </c>
+      <c r="O108" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="P108" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q108" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R108" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="S108" s="28"/>
+    </row>
+    <row r="109" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M109" s="32"/>
+      <c r="N109" s="27">
+        <v>39</v>
+      </c>
+      <c r="O109" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="P109" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q109" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="R109" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S109" s="28"/>
+    </row>
+    <row r="110" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M110" s="32"/>
+      <c r="N110" s="27">
+        <v>37</v>
+      </c>
+      <c r="O110" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="P110" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q110" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="R110" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S110" s="28"/>
+    </row>
+    <row r="111" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M111" s="32"/>
+      <c r="N111" s="27">
         <v>38</v>
       </c>
-      <c r="O106" s="90" t="s">
+      <c r="O111" s="90" t="s">
+        <v>275</v>
+      </c>
+      <c r="P111" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q111" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R111" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S111" s="28"/>
+    </row>
+    <row r="112" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M112" s="33"/>
+      <c r="N112" s="106">
+        <v>42</v>
+      </c>
+      <c r="O112" s="103" t="s">
+        <v>275</v>
+      </c>
+      <c r="P112" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q112" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="R112" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="S112" s="104"/>
+    </row>
+    <row r="113" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M113" s="98"/>
+      <c r="N113" s="64">
+        <v>58</v>
+      </c>
+      <c r="O113" s="95" t="s">
+        <v>278</v>
+      </c>
+      <c r="P113" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q113" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="R113" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="S113" s="96"/>
+    </row>
+    <row r="114" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M114" s="32"/>
+      <c r="N114" s="27">
+        <v>36</v>
+      </c>
+      <c r="O114" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="P114" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q114" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="R114" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="S114" s="28"/>
+    </row>
+    <row r="115" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M115" s="32"/>
+      <c r="N115" s="27">
+        <v>59</v>
+      </c>
+      <c r="O115" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="P115" s="90" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q115" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R115" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="S115" s="28"/>
+    </row>
+    <row r="116" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M116" s="32"/>
+      <c r="N116" s="107">
+        <v>41</v>
+      </c>
+      <c r="O116" s="99" t="s">
+        <v>278</v>
+      </c>
+      <c r="P116" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q116" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="R116" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="S116" s="100"/>
+    </row>
+    <row r="117" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M117" s="32"/>
+      <c r="N117" s="27">
+        <v>43</v>
+      </c>
+      <c r="O117" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="P117" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q117" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R117" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="S117" s="28"/>
+    </row>
+    <row r="118" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M118" s="32"/>
+      <c r="N118" s="27">
+        <v>39</v>
+      </c>
+      <c r="O118" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="P118" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q118" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="R118" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S118" s="28"/>
+    </row>
+    <row r="119" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M119" s="32"/>
+      <c r="N119" s="27">
+        <v>37</v>
+      </c>
+      <c r="O119" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="P119" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q119" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="R119" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S119" s="28"/>
+    </row>
+    <row r="120" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M120" s="32"/>
+      <c r="N120" s="27">
+        <v>38</v>
+      </c>
+      <c r="O120" s="90" t="s">
+        <v>278</v>
+      </c>
+      <c r="P120" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q120" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R120" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S120" s="28"/>
+    </row>
+    <row r="121" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M121" s="33"/>
+      <c r="N121" s="106">
+        <v>42</v>
+      </c>
+      <c r="O121" s="103" t="s">
+        <v>278</v>
+      </c>
+      <c r="P121" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q121" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="R121" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="S121" s="104"/>
+    </row>
+    <row r="122" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M122" s="98"/>
+      <c r="N122" s="64">
+        <v>60</v>
+      </c>
+      <c r="O122" s="95" t="s">
         <v>281</v>
       </c>
-      <c r="P106" s="90" t="s">
+      <c r="P122" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q122" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="R122" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="S122" s="96"/>
+    </row>
+    <row r="123" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M123" s="32"/>
+      <c r="N123" s="27">
+        <v>36</v>
+      </c>
+      <c r="O123" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="P123" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q123" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="R123" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="S123" s="28"/>
+    </row>
+    <row r="124" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M124" s="32"/>
+      <c r="N124" s="27">
+        <v>61</v>
+      </c>
+      <c r="O124" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="P124" s="90" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q124" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R124" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="S124" s="28"/>
+    </row>
+    <row r="125" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M125" s="32"/>
+      <c r="N125" s="107">
+        <v>41</v>
+      </c>
+      <c r="O125" s="99" t="s">
+        <v>281</v>
+      </c>
+      <c r="P125" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q125" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="R125" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="S125" s="100"/>
+    </row>
+    <row r="126" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M126" s="32"/>
+      <c r="N126" s="27">
+        <v>43</v>
+      </c>
+      <c r="O126" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="P126" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q126" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R126" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="S126" s="28"/>
+    </row>
+    <row r="127" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M127" s="32"/>
+      <c r="N127" s="27">
+        <v>39</v>
+      </c>
+      <c r="O127" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="P127" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q127" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="R127" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S127" s="28"/>
+    </row>
+    <row r="128" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M128" s="32"/>
+      <c r="N128" s="27">
+        <v>37</v>
+      </c>
+      <c r="O128" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="P128" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q128" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="R128" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S128" s="28"/>
+    </row>
+    <row r="129" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M129" s="32"/>
+      <c r="N129" s="27">
+        <v>38</v>
+      </c>
+      <c r="O129" s="90" t="s">
+        <v>281</v>
+      </c>
+      <c r="P129" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="Q106" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="R106" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="S106" s="28"/>
-    </row>
-    <row r="107" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M107" s="33"/>
-      <c r="N107" s="106">
+      <c r="Q129" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="R129" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="S129" s="28"/>
+    </row>
+    <row r="130" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M130" s="33"/>
+      <c r="N130" s="106">
         <v>42</v>
       </c>
-      <c r="O107" s="103" t="s">
+      <c r="O130" s="103" t="s">
         <v>281</v>
       </c>
-      <c r="P107" s="103" t="s">
+      <c r="P130" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="Q107" s="103" t="s">
+      <c r="Q130" s="103" t="s">
         <v>19</v>
       </c>
-      <c r="R107" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="S107" s="104"/>
+      <c r="R130" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="S130" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9029,10 +10008,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="B1:S80"/>
+  <dimension ref="B1:S103"/>
   <sheetViews>
-    <sheetView topLeftCell="F10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView topLeftCell="J43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10466,22 +11445,22 @@
       <c r="G39" s="48"/>
       <c r="H39" s="49"/>
       <c r="M39" s="32"/>
-      <c r="N39" s="44">
+      <c r="N39" s="97">
         <v>43</v>
       </c>
       <c r="O39" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="P39" s="67" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q39" s="67" t="s">
-        <v>124</v>
+      <c r="P39" s="92" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q39" s="175" t="s">
+        <v>367</v>
       </c>
       <c r="R39" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="S39" s="68"/>
+      <c r="S39" s="93"/>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B40" s="44">
@@ -10500,22 +11479,22 @@
       <c r="G40" s="48"/>
       <c r="H40" s="49"/>
       <c r="M40" s="32"/>
-      <c r="N40" s="44">
+      <c r="N40" s="97">
         <v>43</v>
       </c>
       <c r="O40" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="P40" s="67" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q40" s="67" t="s">
-        <v>19</v>
+      <c r="P40" s="92" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q40" s="175" t="s">
+        <v>369</v>
       </c>
       <c r="R40" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="S40" s="68"/>
+      <c r="S40" s="93"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="50">
@@ -10534,22 +11513,22 @@
       <c r="G41" s="52"/>
       <c r="H41" s="53"/>
       <c r="M41" s="32"/>
-      <c r="N41" s="133">
-        <v>42</v>
-      </c>
-      <c r="O41" s="71" t="s">
+      <c r="N41" s="97">
+        <v>43</v>
+      </c>
+      <c r="O41" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="P41" s="71" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q41" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="R41" s="71" t="s">
-        <v>20</v>
-      </c>
-      <c r="S41" s="72"/>
+      <c r="P41" s="92" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q41" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R41" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S41" s="93"/>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="50">
@@ -10568,22 +11547,22 @@
       <c r="G42" s="52"/>
       <c r="H42" s="53"/>
       <c r="M42" s="32"/>
-      <c r="N42" s="50">
-        <v>27</v>
-      </c>
-      <c r="O42" s="22" t="s">
+      <c r="N42" s="97">
+        <v>43</v>
+      </c>
+      <c r="O42" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="P42" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q42" s="67" t="s">
-        <v>53</v>
+      <c r="P42" s="92" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q42" s="175" t="s">
+        <v>372</v>
       </c>
       <c r="R42" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="S42" s="37"/>
+      <c r="S42" s="93"/>
     </row>
     <row r="43" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="55">
@@ -10601,726 +11580,1163 @@
       <c r="F43" s="56"/>
       <c r="G43" s="57"/>
       <c r="H43" s="58"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="55">
-        <v>11</v>
-      </c>
-      <c r="O43" s="56" t="s">
+      <c r="M43" s="32"/>
+      <c r="N43" s="97">
+        <v>43</v>
+      </c>
+      <c r="O43" s="67" t="s">
         <v>201</v>
       </c>
-      <c r="P43" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q43" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="R43" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="S43" s="120"/>
+      <c r="P43" s="92" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q43" s="175" t="s">
+        <v>19</v>
+      </c>
+      <c r="R43" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S43" s="93"/>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="M44" s="98"/>
-      <c r="N44" s="134">
-        <v>36</v>
-      </c>
-      <c r="O44" s="135" t="s">
-        <v>261</v>
-      </c>
-      <c r="P44" s="135" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q44" s="135" t="s">
-        <v>16</v>
-      </c>
-      <c r="R44" s="135" t="s">
-        <v>17</v>
-      </c>
-      <c r="S44" s="136"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="97">
+        <v>43</v>
+      </c>
+      <c r="O44" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P44" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q44" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R44" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S44" s="93"/>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="M45" s="32"/>
-      <c r="N45" s="27">
-        <v>50</v>
-      </c>
-      <c r="O45" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="P45" s="30" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q45" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="R45" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S45" s="28"/>
+      <c r="N45" s="97">
+        <v>43</v>
+      </c>
+      <c r="O45" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P45" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q45" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R45" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S45" s="93"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="M46" s="32"/>
-      <c r="N46" s="27">
-        <v>51</v>
-      </c>
-      <c r="O46" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="P46" s="30" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q46" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="R46" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S46" s="28"/>
+      <c r="N46" s="97">
+        <v>43</v>
+      </c>
+      <c r="O46" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P46" s="92" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q46" s="175" t="s">
+        <v>372</v>
+      </c>
+      <c r="R46" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S46" s="93"/>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="M47" s="32"/>
-      <c r="N47" s="109">
-        <v>41</v>
-      </c>
-      <c r="O47" s="83" t="s">
-        <v>261</v>
-      </c>
-      <c r="P47" s="83" t="s">
+      <c r="N47" s="97">
         <v>43</v>
       </c>
-      <c r="Q47" s="83" t="s">
-        <v>19</v>
-      </c>
-      <c r="R47" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="S47" s="110"/>
+      <c r="O47" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P47" s="92" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q47" s="175" t="s">
+        <v>376</v>
+      </c>
+      <c r="R47" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S47" s="93"/>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="M48" s="32"/>
-      <c r="N48" s="27">
+      <c r="N48" s="97">
         <v>43</v>
       </c>
-      <c r="O48" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="P48" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q48" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="R48" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S48" s="28"/>
+      <c r="O48" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P48" s="92" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q48" s="175" t="s">
+        <v>184</v>
+      </c>
+      <c r="R48" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S48" s="93"/>
     </row>
     <row r="49" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M49" s="32"/>
-      <c r="N49" s="27">
-        <v>39</v>
-      </c>
-      <c r="O49" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="P49" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q49" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="R49" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="S49" s="28"/>
+      <c r="N49" s="97">
+        <v>43</v>
+      </c>
+      <c r="O49" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P49" s="92" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q49" s="175" t="s">
+        <v>376</v>
+      </c>
+      <c r="R49" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S49" s="93"/>
     </row>
     <row r="50" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M50" s="32"/>
-      <c r="N50" s="27">
-        <v>37</v>
-      </c>
-      <c r="O50" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="P50" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q50" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="R50" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="S50" s="28"/>
+      <c r="N50" s="97">
+        <v>43</v>
+      </c>
+      <c r="O50" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P50" s="92" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q50" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R50" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S50" s="93"/>
     </row>
     <row r="51" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M51" s="32"/>
-      <c r="N51" s="27">
-        <v>38</v>
-      </c>
-      <c r="O51" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="P51" s="30" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q51" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="R51" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="S51" s="28"/>
+      <c r="N51" s="97">
+        <v>43</v>
+      </c>
+      <c r="O51" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P51" s="92" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q51" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R51" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S51" s="93"/>
     </row>
     <row r="52" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M52" s="32"/>
-      <c r="N52" s="27">
+      <c r="N52" s="97">
         <v>43</v>
       </c>
-      <c r="O52" s="30" t="s">
-        <v>261</v>
-      </c>
-      <c r="P52" s="30" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q52" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="R52" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="S52" s="28"/>
-    </row>
-    <row r="53" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M53" s="33"/>
-      <c r="N53" s="114">
-        <v>42</v>
-      </c>
-      <c r="O53" s="115" t="s">
-        <v>261</v>
-      </c>
-      <c r="P53" s="115" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q53" s="115" t="s">
-        <v>19</v>
-      </c>
-      <c r="R53" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="S53" s="116"/>
+      <c r="O52" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P52" s="92" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q52" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="R52" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S52" s="93"/>
+    </row>
+    <row r="53" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M53" s="32"/>
+      <c r="N53" s="108">
+        <v>40</v>
+      </c>
+      <c r="O53" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P53" s="92" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q53" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="R53" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S53" s="93"/>
     </row>
     <row r="54" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M54" s="98"/>
-      <c r="N54" s="118">
-        <v>52</v>
-      </c>
-      <c r="O54" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="P54" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q54" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R54" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="S54" s="129"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="97">
+        <v>43</v>
+      </c>
+      <c r="O54" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P54" s="92" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q54" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="R54" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S54" s="93"/>
     </row>
     <row r="55" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M55" s="32"/>
-      <c r="N55" s="50">
-        <v>36</v>
-      </c>
-      <c r="O55" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="P55" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q55" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="R55" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S55" s="37"/>
+      <c r="N55" s="97">
+        <v>43</v>
+      </c>
+      <c r="O55" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P55" s="92" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q55" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="R55" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S55" s="93"/>
     </row>
     <row r="56" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M56" s="32"/>
-      <c r="N56" s="50">
-        <v>53</v>
-      </c>
-      <c r="O56" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="P56" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q56" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="R56" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S56" s="37"/>
+      <c r="N56" s="97">
+        <v>43</v>
+      </c>
+      <c r="O56" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P56" s="92" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q56" s="175" t="s">
+        <v>16</v>
+      </c>
+      <c r="R56" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S56" s="93"/>
     </row>
     <row r="57" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M57" s="32"/>
-      <c r="N57" s="130">
-        <v>41</v>
-      </c>
-      <c r="O57" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="P57" s="82" t="s">
+      <c r="N57" s="97">
         <v>43</v>
       </c>
-      <c r="Q57" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="R57" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="S57" s="37"/>
+      <c r="O57" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P57" s="92" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q57" s="175" t="s">
+        <v>387</v>
+      </c>
+      <c r="R57" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S57" s="93"/>
     </row>
     <row r="58" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M58" s="32"/>
-      <c r="N58" s="50">
+      <c r="N58" s="97">
         <v>43</v>
       </c>
-      <c r="O58" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="P58" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q58" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="R58" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S58" s="37"/>
+      <c r="O58" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P58" s="92" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q58" s="175" t="s">
+        <v>53</v>
+      </c>
+      <c r="R58" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S58" s="93"/>
     </row>
     <row r="59" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M59" s="32"/>
-      <c r="N59" s="50">
-        <v>37</v>
-      </c>
-      <c r="O59" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="P59" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q59" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="R59" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="S59" s="37"/>
+      <c r="N59" s="97">
+        <v>43</v>
+      </c>
+      <c r="O59" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P59" s="92" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q59" s="175" t="s">
+        <v>390</v>
+      </c>
+      <c r="R59" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S59" s="93"/>
     </row>
     <row r="60" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M60" s="32"/>
-      <c r="N60" s="50">
-        <v>38</v>
-      </c>
-      <c r="O60" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="P60" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q60" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="R60" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="S60" s="37"/>
+      <c r="N60" s="97">
+        <v>43</v>
+      </c>
+      <c r="O60" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P60" s="92" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q60" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="R60" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S60" s="93"/>
     </row>
     <row r="61" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M61" s="32"/>
-      <c r="N61" s="50">
-        <v>39</v>
-      </c>
-      <c r="O61" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="P61" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q61" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="R61" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="S61" s="37"/>
-    </row>
-    <row r="62" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M62" s="33"/>
-      <c r="N62" s="131">
-        <v>42</v>
-      </c>
-      <c r="O62" s="117" t="s">
-        <v>266</v>
-      </c>
-      <c r="P62" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q62" s="117" t="s">
+      <c r="N61" s="97">
+        <v>43</v>
+      </c>
+      <c r="O61" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P61" s="92" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q61" s="175" t="s">
+        <v>393</v>
+      </c>
+      <c r="R61" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S61" s="93"/>
+    </row>
+    <row r="62" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M62" s="32"/>
+      <c r="N62" s="44">
+        <v>43</v>
+      </c>
+      <c r="O62" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P62" s="67" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q62" s="67" t="s">
+        <v>124</v>
+      </c>
+      <c r="R62" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S62" s="68"/>
+    </row>
+    <row r="63" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M63" s="32"/>
+      <c r="N63" s="44">
+        <v>43</v>
+      </c>
+      <c r="O63" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="P63" s="67" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q63" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="R62" s="117" t="s">
-        <v>20</v>
-      </c>
-      <c r="S62" s="93"/>
-    </row>
-    <row r="63" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M63" s="98"/>
-      <c r="N63" s="118">
-        <v>54</v>
-      </c>
-      <c r="O63" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="P63" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q63" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R63" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="S63" s="129"/>
+      <c r="R63" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S63" s="68"/>
     </row>
     <row r="64" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M64" s="32"/>
-      <c r="N64" s="50">
-        <v>36</v>
-      </c>
-      <c r="O64" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="P64" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q64" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="R64" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S64" s="37"/>
+      <c r="N64" s="133">
+        <v>42</v>
+      </c>
+      <c r="O64" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="P64" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q64" s="71" t="s">
+        <v>19</v>
+      </c>
+      <c r="R64" s="71" t="s">
+        <v>20</v>
+      </c>
+      <c r="S64" s="72"/>
     </row>
     <row r="65" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M65" s="32"/>
       <c r="N65" s="50">
-        <v>55</v>
-      </c>
-      <c r="O65" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="P65" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q65" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="R65" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="O65" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="P65" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q65" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="R65" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="S65" s="37"/>
+    </row>
+    <row r="66" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M66" s="33"/>
+      <c r="N66" s="55">
+        <v>11</v>
+      </c>
+      <c r="O66" s="56" t="s">
+        <v>201</v>
+      </c>
+      <c r="P66" s="56" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q66" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="R66" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="S66" s="120"/>
+    </row>
+    <row r="67" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M67" s="98"/>
+      <c r="N67" s="134">
+        <v>36</v>
+      </c>
+      <c r="O67" s="135" t="s">
+        <v>261</v>
+      </c>
+      <c r="P67" s="135" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q67" s="135" t="s">
+        <v>16</v>
+      </c>
+      <c r="R67" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="S65" s="37"/>
-    </row>
-    <row r="66" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M66" s="32"/>
-      <c r="N66" s="130">
-        <v>41</v>
-      </c>
-      <c r="O66" s="82" t="s">
-        <v>268</v>
-      </c>
-      <c r="P66" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q66" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="R66" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="S66" s="37"/>
-    </row>
-    <row r="67" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M67" s="32"/>
-      <c r="N67" s="50">
-        <v>43</v>
-      </c>
-      <c r="O67" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="P67" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q67" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="R67" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S67" s="37"/>
+      <c r="S67" s="136"/>
     </row>
     <row r="68" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M68" s="32"/>
-      <c r="N68" s="50">
-        <v>37</v>
+      <c r="N68" s="27">
+        <v>50</v>
       </c>
       <c r="O68" s="30" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="P68" s="30" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="Q68" s="30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="R68" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="S68" s="37"/>
+        <v>17</v>
+      </c>
+      <c r="S68" s="28"/>
     </row>
     <row r="69" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M69" s="32"/>
-      <c r="N69" s="50">
-        <v>38</v>
+      <c r="N69" s="27">
+        <v>51</v>
       </c>
       <c r="O69" s="30" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="P69" s="30" t="s">
-        <v>21</v>
+        <v>253</v>
       </c>
       <c r="Q69" s="30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R69" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="S69" s="37"/>
+        <v>17</v>
+      </c>
+      <c r="S69" s="28"/>
     </row>
     <row r="70" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M70" s="32"/>
-      <c r="N70" s="50">
+      <c r="N70" s="109">
+        <v>41</v>
+      </c>
+      <c r="O70" s="83" t="s">
+        <v>261</v>
+      </c>
+      <c r="P70" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q70" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="R70" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="S70" s="110"/>
+    </row>
+    <row r="71" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M71" s="32"/>
+      <c r="N71" s="27">
+        <v>43</v>
+      </c>
+      <c r="O71" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="P71" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q71" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="R71" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S71" s="28"/>
+    </row>
+    <row r="72" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M72" s="32"/>
+      <c r="N72" s="27">
         <v>39</v>
       </c>
-      <c r="O70" s="30" t="s">
-        <v>268</v>
-      </c>
-      <c r="P70" s="30" t="s">
+      <c r="O72" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="P72" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="Q70" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="R70" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="S70" s="37"/>
-    </row>
-    <row r="71" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M71" s="33"/>
-      <c r="N71" s="131">
-        <v>42</v>
-      </c>
-      <c r="O71" s="117" t="s">
-        <v>268</v>
-      </c>
-      <c r="P71" s="117" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q71" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="R71" s="117" t="s">
-        <v>20</v>
-      </c>
-      <c r="S71" s="93"/>
-    </row>
-    <row r="72" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M72" s="98"/>
-      <c r="N72" s="118">
-        <v>56</v>
-      </c>
-      <c r="O72" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="P72" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q72" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="R72" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="S72" s="129"/>
+      <c r="Q72" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="R72" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="S72" s="28"/>
     </row>
     <row r="73" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M73" s="32"/>
-      <c r="N73" s="50">
-        <v>36</v>
+      <c r="N73" s="27">
+        <v>37</v>
       </c>
       <c r="O73" s="30" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="P73" s="30" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="Q73" s="30" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R73" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S73" s="37"/>
+        <v>20</v>
+      </c>
+      <c r="S73" s="28"/>
     </row>
     <row r="74" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M74" s="32"/>
-      <c r="N74" s="50">
-        <v>57</v>
+      <c r="N74" s="27">
+        <v>38</v>
       </c>
       <c r="O74" s="30" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="P74" s="30" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="Q74" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R74" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S74" s="37"/>
+        <v>20</v>
+      </c>
+      <c r="S74" s="28"/>
     </row>
     <row r="75" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M75" s="32"/>
-      <c r="N75" s="130">
-        <v>41</v>
-      </c>
-      <c r="O75" s="82" t="s">
-        <v>270</v>
-      </c>
-      <c r="P75" s="82" t="s">
+      <c r="N75" s="27">
         <v>43</v>
       </c>
-      <c r="Q75" s="82" t="s">
+      <c r="O75" s="30" t="s">
+        <v>261</v>
+      </c>
+      <c r="P75" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q75" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="R75" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="S75" s="28"/>
+    </row>
+    <row r="76" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M76" s="33"/>
+      <c r="N76" s="114">
+        <v>42</v>
+      </c>
+      <c r="O76" s="115" t="s">
+        <v>261</v>
+      </c>
+      <c r="P76" s="115" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q76" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="R75" s="82" t="s">
+      <c r="R76" s="115" t="s">
+        <v>20</v>
+      </c>
+      <c r="S76" s="116"/>
+    </row>
+    <row r="77" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M77" s="98"/>
+      <c r="N77" s="118">
+        <v>52</v>
+      </c>
+      <c r="O77" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="P77" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q77" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="R77" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="S75" s="37"/>
-    </row>
-    <row r="76" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M76" s="32"/>
-      <c r="N76" s="50">
-        <v>43</v>
-      </c>
-      <c r="O76" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="P76" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q76" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="R76" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="S76" s="37"/>
-    </row>
-    <row r="77" spans="13:19" x14ac:dyDescent="0.2">
-      <c r="M77" s="32"/>
-      <c r="N77" s="50">
-        <v>37</v>
-      </c>
-      <c r="O77" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="P77" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q77" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="R77" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="S77" s="37"/>
+      <c r="S77" s="129"/>
     </row>
     <row r="78" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M78" s="32"/>
       <c r="N78" s="50">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O78" s="30" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="P78" s="30" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="Q78" s="30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R78" s="30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="S78" s="37"/>
     </row>
     <row r="79" spans="13:19" x14ac:dyDescent="0.2">
       <c r="M79" s="32"/>
       <c r="N79" s="50">
+        <v>53</v>
+      </c>
+      <c r="O79" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="P79" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q79" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="R79" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S79" s="37"/>
+    </row>
+    <row r="80" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M80" s="32"/>
+      <c r="N80" s="130">
+        <v>41</v>
+      </c>
+      <c r="O80" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="P80" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q80" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R80" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="S80" s="37"/>
+    </row>
+    <row r="81" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M81" s="32"/>
+      <c r="N81" s="50">
+        <v>43</v>
+      </c>
+      <c r="O81" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="P81" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q81" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="R81" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S81" s="37"/>
+    </row>
+    <row r="82" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M82" s="32"/>
+      <c r="N82" s="50">
+        <v>37</v>
+      </c>
+      <c r="O82" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="P82" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q82" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="R82" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="S82" s="37"/>
+    </row>
+    <row r="83" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M83" s="32"/>
+      <c r="N83" s="50">
+        <v>38</v>
+      </c>
+      <c r="O83" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="P83" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q83" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="R83" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="S83" s="37"/>
+    </row>
+    <row r="84" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M84" s="32"/>
+      <c r="N84" s="50">
         <v>39</v>
       </c>
-      <c r="O79" s="30" t="s">
+      <c r="O84" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="P84" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q84" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="R84" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="S84" s="37"/>
+    </row>
+    <row r="85" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M85" s="33"/>
+      <c r="N85" s="131">
+        <v>42</v>
+      </c>
+      <c r="O85" s="117" t="s">
+        <v>266</v>
+      </c>
+      <c r="P85" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q85" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="R85" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="S85" s="93"/>
+    </row>
+    <row r="86" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M86" s="98"/>
+      <c r="N86" s="118">
+        <v>54</v>
+      </c>
+      <c r="O86" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="P86" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q86" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="R86" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="S86" s="129"/>
+    </row>
+    <row r="87" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M87" s="32"/>
+      <c r="N87" s="50">
+        <v>36</v>
+      </c>
+      <c r="O87" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="P87" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q87" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="R87" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S87" s="37"/>
+    </row>
+    <row r="88" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M88" s="32"/>
+      <c r="N88" s="50">
+        <v>55</v>
+      </c>
+      <c r="O88" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="P88" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q88" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="R88" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S88" s="37"/>
+    </row>
+    <row r="89" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M89" s="32"/>
+      <c r="N89" s="130">
+        <v>41</v>
+      </c>
+      <c r="O89" s="82" t="s">
+        <v>268</v>
+      </c>
+      <c r="P89" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q89" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R89" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="S89" s="37"/>
+    </row>
+    <row r="90" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M90" s="32"/>
+      <c r="N90" s="50">
+        <v>43</v>
+      </c>
+      <c r="O90" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="P90" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q90" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="R90" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S90" s="37"/>
+    </row>
+    <row r="91" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M91" s="32"/>
+      <c r="N91" s="50">
+        <v>37</v>
+      </c>
+      <c r="O91" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="P91" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q91" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="R91" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="S91" s="37"/>
+    </row>
+    <row r="92" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M92" s="32"/>
+      <c r="N92" s="50">
+        <v>38</v>
+      </c>
+      <c r="O92" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="P92" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q92" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="R92" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="S92" s="37"/>
+    </row>
+    <row r="93" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M93" s="32"/>
+      <c r="N93" s="50">
+        <v>39</v>
+      </c>
+      <c r="O93" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="P93" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q93" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="R93" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="S93" s="37"/>
+    </row>
+    <row r="94" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M94" s="33"/>
+      <c r="N94" s="131">
+        <v>42</v>
+      </c>
+      <c r="O94" s="117" t="s">
+        <v>268</v>
+      </c>
+      <c r="P94" s="117" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q94" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="R94" s="117" t="s">
+        <v>20</v>
+      </c>
+      <c r="S94" s="93"/>
+    </row>
+    <row r="95" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M95" s="98"/>
+      <c r="N95" s="118">
+        <v>56</v>
+      </c>
+      <c r="O95" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="P79" s="30" t="s">
+      <c r="P95" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q95" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="R95" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="S95" s="129"/>
+    </row>
+    <row r="96" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M96" s="32"/>
+      <c r="N96" s="50">
+        <v>36</v>
+      </c>
+      <c r="O96" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="P96" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q96" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="R96" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S96" s="37"/>
+    </row>
+    <row r="97" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M97" s="32"/>
+      <c r="N97" s="50">
+        <v>57</v>
+      </c>
+      <c r="O97" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="P97" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q97" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="R97" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S97" s="37"/>
+    </row>
+    <row r="98" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M98" s="32"/>
+      <c r="N98" s="130">
+        <v>41</v>
+      </c>
+      <c r="O98" s="82" t="s">
+        <v>270</v>
+      </c>
+      <c r="P98" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q98" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="R98" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="S98" s="37"/>
+    </row>
+    <row r="99" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M99" s="32"/>
+      <c r="N99" s="50">
+        <v>43</v>
+      </c>
+      <c r="O99" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="P99" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q99" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="R99" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="S99" s="37"/>
+    </row>
+    <row r="100" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M100" s="32"/>
+      <c r="N100" s="50">
+        <v>37</v>
+      </c>
+      <c r="O100" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="P100" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q100" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="R100" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="S100" s="37"/>
+    </row>
+    <row r="101" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M101" s="32"/>
+      <c r="N101" s="50">
+        <v>38</v>
+      </c>
+      <c r="O101" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="P101" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q101" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="R101" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="S101" s="37"/>
+    </row>
+    <row r="102" spans="13:19" x14ac:dyDescent="0.2">
+      <c r="M102" s="32"/>
+      <c r="N102" s="50">
+        <v>39</v>
+      </c>
+      <c r="O102" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="P102" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="Q79" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="R79" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="S79" s="37"/>
-    </row>
-    <row r="80" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="M80" s="33"/>
-      <c r="N80" s="132">
+      <c r="Q102" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="R102" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="S102" s="37"/>
+    </row>
+    <row r="103" spans="13:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="M103" s="33"/>
+      <c r="N103" s="132">
         <v>42</v>
       </c>
-      <c r="O80" s="112" t="s">
+      <c r="O103" s="112" t="s">
         <v>270</v>
       </c>
-      <c r="P80" s="112" t="s">
+      <c r="P103" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="Q80" s="112" t="s">
+      <c r="Q103" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="R80" s="112" t="s">
-        <v>20</v>
-      </c>
-      <c r="S80" s="120"/>
+      <c r="R103" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="S103" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11341,10 +12757,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R69"/>
+  <dimension ref="B1:R92"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11361,7 +12777,7 @@
     <col min="10" max="10" width="56.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="111.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2" style="2" customWidth="1"/>
-    <col min="13" max="13" width="3" style="2" customWidth="1"/>
+    <col min="13" max="13" width="3.85546875" style="2" customWidth="1"/>
     <col min="14" max="14" width="51.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="35" style="2" customWidth="1"/>
     <col min="16" max="16" width="14.140625" style="2" bestFit="1" customWidth="1"/>
@@ -12804,23 +14220,23 @@
       <c r="G42" s="53"/>
       <c r="L42" s="32"/>
       <c r="M42" s="85">
-        <v>28</v>
-      </c>
-      <c r="N42" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="N42" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="O42" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="P42" s="67" t="s">
-        <v>53</v>
+      <c r="O42" s="92" t="s">
+        <v>366</v>
+      </c>
+      <c r="P42" s="175" t="s">
+        <v>367</v>
       </c>
       <c r="Q42" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="37"/>
-    </row>
-    <row r="43" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R42" s="93"/>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B43" s="50">
         <v>35</v>
       </c>
@@ -12835,20 +14251,20 @@
       </c>
       <c r="F43" s="52"/>
       <c r="G43" s="53"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="111">
-        <v>24</v>
-      </c>
-      <c r="N43" s="92" t="s">
+      <c r="L43" s="32"/>
+      <c r="M43" s="85">
+        <v>50</v>
+      </c>
+      <c r="N43" s="67" t="s">
         <v>217</v>
       </c>
       <c r="O43" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="P43" s="92" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q43" s="92" t="s">
+        <v>368</v>
+      </c>
+      <c r="P43" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q43" s="67" t="s">
         <v>20</v>
       </c>
       <c r="R43" s="93"/>
@@ -12868,23 +14284,23 @@
       </c>
       <c r="F44" s="52"/>
       <c r="G44" s="53"/>
-      <c r="L44" s="98"/>
-      <c r="M44" s="64">
-        <v>43</v>
-      </c>
-      <c r="N44" s="46" t="s">
-        <v>262</v>
-      </c>
-      <c r="O44" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="P44" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q44" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="R44" s="96"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="85">
+        <v>50</v>
+      </c>
+      <c r="N44" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O44" s="92" t="s">
+        <v>370</v>
+      </c>
+      <c r="P44" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q44" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44" s="93"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B45" s="50">
@@ -12902,22 +14318,22 @@
       <c r="F45" s="52"/>
       <c r="G45" s="53"/>
       <c r="L45" s="32"/>
-      <c r="M45" s="27">
-        <v>55</v>
-      </c>
-      <c r="N45" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="O45" s="90" t="s">
-        <v>252</v>
-      </c>
-      <c r="P45" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q45" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="R45" s="28"/>
+      <c r="M45" s="85">
+        <v>50</v>
+      </c>
+      <c r="N45" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O45" s="92" t="s">
+        <v>371</v>
+      </c>
+      <c r="P45" s="175" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q45" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="93"/>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B46" s="50">
@@ -12935,22 +14351,22 @@
       <c r="F46" s="52"/>
       <c r="G46" s="53"/>
       <c r="L46" s="32"/>
-      <c r="M46" s="27">
-        <v>56</v>
-      </c>
-      <c r="N46" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="O46" s="90" t="s">
-        <v>253</v>
-      </c>
-      <c r="P46" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q46" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="R46" s="28"/>
+      <c r="M46" s="85">
+        <v>50</v>
+      </c>
+      <c r="N46" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O46" s="92" t="s">
+        <v>373</v>
+      </c>
+      <c r="P46" s="175" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q46" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R46" s="93"/>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B47" s="50">
@@ -12968,22 +14384,22 @@
       <c r="F47" s="52"/>
       <c r="G47" s="53"/>
       <c r="L47" s="32"/>
-      <c r="M47" s="107">
-        <v>48</v>
-      </c>
-      <c r="N47" s="82" t="s">
-        <v>262</v>
-      </c>
-      <c r="O47" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="P47" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q47" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="R47" s="100"/>
+      <c r="M47" s="85">
+        <v>50</v>
+      </c>
+      <c r="N47" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O47" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="P47" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q47" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="93"/>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B48" s="50">
@@ -13001,22 +14417,22 @@
       <c r="F48" s="52"/>
       <c r="G48" s="53"/>
       <c r="L48" s="32"/>
-      <c r="M48" s="27">
+      <c r="M48" s="85">
         <v>50</v>
       </c>
-      <c r="N48" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="O48" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="P48" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q48" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="R48" s="28"/>
+      <c r="N48" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O48" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="P48" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q48" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="93"/>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B49" s="50">
@@ -13034,22 +14450,22 @@
       <c r="F49" s="52"/>
       <c r="G49" s="53"/>
       <c r="L49" s="32"/>
-      <c r="M49" s="27">
-        <v>46</v>
-      </c>
-      <c r="N49" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="O49" s="90" t="s">
-        <v>172</v>
-      </c>
-      <c r="P49" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q49" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="R49" s="28"/>
+      <c r="M49" s="85">
+        <v>50</v>
+      </c>
+      <c r="N49" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O49" s="92" t="s">
+        <v>374</v>
+      </c>
+      <c r="P49" s="175" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q49" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="93"/>
     </row>
     <row r="50" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B50" s="55">
@@ -13067,383 +14483,820 @@
       <c r="F50" s="57"/>
       <c r="G50" s="58"/>
       <c r="L50" s="32"/>
-      <c r="M50" s="27">
-        <v>44</v>
-      </c>
-      <c r="N50" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="O50" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="P50" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q50" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="R50" s="28"/>
+      <c r="M50" s="85">
+        <v>50</v>
+      </c>
+      <c r="N50" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O50" s="92" t="s">
+        <v>375</v>
+      </c>
+      <c r="P50" s="175" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q50" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="93"/>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L51" s="32"/>
-      <c r="M51" s="27">
-        <v>45</v>
-      </c>
-      <c r="N51" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="O51" s="90" t="s">
-        <v>255</v>
-      </c>
-      <c r="P51" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q51" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" s="28"/>
+      <c r="M51" s="85">
+        <v>50</v>
+      </c>
+      <c r="N51" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O51" s="92" t="s">
+        <v>377</v>
+      </c>
+      <c r="P51" s="175" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q51" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="93"/>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L52" s="32"/>
-      <c r="M52" s="27">
+      <c r="M52" s="85">
         <v>50</v>
       </c>
-      <c r="N52" s="30" t="s">
-        <v>262</v>
-      </c>
-      <c r="O52" s="90" t="s">
-        <v>256</v>
-      </c>
-      <c r="P52" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q52" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="R52" s="28"/>
-    </row>
-    <row r="53" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L53" s="33"/>
-      <c r="M53" s="106">
-        <v>49</v>
-      </c>
-      <c r="N53" s="117" t="s">
-        <v>262</v>
-      </c>
-      <c r="O53" s="103" t="s">
-        <v>257</v>
-      </c>
-      <c r="P53" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q53" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="R53" s="104"/>
+      <c r="N52" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O52" s="92" t="s">
+        <v>378</v>
+      </c>
+      <c r="P52" s="175" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q52" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="93"/>
+    </row>
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L53" s="32"/>
+      <c r="M53" s="85">
+        <v>50</v>
+      </c>
+      <c r="N53" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O53" s="92" t="s">
+        <v>379</v>
+      </c>
+      <c r="P53" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q53" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R53" s="93"/>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L54" s="98"/>
-      <c r="M54" s="118">
-        <v>57</v>
-      </c>
-      <c r="N54" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="O54" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="P54" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q54" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="R54" s="96"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="85">
+        <v>50</v>
+      </c>
+      <c r="N54" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O54" s="92" t="s">
+        <v>380</v>
+      </c>
+      <c r="P54" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q54" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="93"/>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L55" s="32"/>
-      <c r="M55" s="50">
-        <v>43</v>
-      </c>
-      <c r="N55" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="O55" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="P55" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q55" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R55" s="28"/>
+      <c r="M55" s="85">
+        <v>50</v>
+      </c>
+      <c r="N55" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O55" s="92" t="s">
+        <v>381</v>
+      </c>
+      <c r="P55" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q55" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" s="93"/>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L56" s="32"/>
-      <c r="M56" s="50">
-        <v>58</v>
-      </c>
-      <c r="N56" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="O56" s="30" t="s">
-        <v>265</v>
-      </c>
-      <c r="P56" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q56" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R56" s="28"/>
+      <c r="M56" s="108">
+        <v>47</v>
+      </c>
+      <c r="N56" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O56" s="92" t="s">
+        <v>382</v>
+      </c>
+      <c r="P56" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q56" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="93"/>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L57" s="32"/>
-      <c r="M57" s="130">
-        <v>48</v>
-      </c>
-      <c r="N57" s="82" t="s">
-        <v>266</v>
-      </c>
-      <c r="O57" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="P57" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q57" s="82" t="s">
-        <v>17</v>
-      </c>
-      <c r="R57" s="28"/>
+      <c r="M57" s="85">
+        <v>50</v>
+      </c>
+      <c r="N57" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O57" s="92" t="s">
+        <v>383</v>
+      </c>
+      <c r="P57" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q57" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="93"/>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L58" s="32"/>
-      <c r="M58" s="50">
+      <c r="M58" s="85">
         <v>50</v>
       </c>
-      <c r="N58" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="O58" s="30" t="s">
-        <v>254</v>
-      </c>
-      <c r="P58" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q58" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="R58" s="28"/>
+      <c r="N58" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O58" s="92" t="s">
+        <v>384</v>
+      </c>
+      <c r="P58" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q58" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="93"/>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L59" s="32"/>
-      <c r="M59" s="50">
-        <v>44</v>
-      </c>
-      <c r="N59" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="O59" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="P59" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q59" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="R59" s="28"/>
+      <c r="M59" s="85">
+        <v>50</v>
+      </c>
+      <c r="N59" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O59" s="92" t="s">
+        <v>385</v>
+      </c>
+      <c r="P59" s="175" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q59" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R59" s="93"/>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L60" s="32"/>
-      <c r="M60" s="50">
-        <v>45</v>
-      </c>
-      <c r="N60" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="O60" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="P60" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q60" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="R60" s="28"/>
+      <c r="M60" s="85">
+        <v>50</v>
+      </c>
+      <c r="N60" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O60" s="92" t="s">
+        <v>386</v>
+      </c>
+      <c r="P60" s="175" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q60" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="93"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L61" s="32"/>
-      <c r="M61" s="50">
-        <v>46</v>
-      </c>
-      <c r="N61" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="O61" s="30" t="s">
-        <v>172</v>
-      </c>
-      <c r="P61" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q61" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="R61" s="28"/>
-    </row>
-    <row r="62" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L62" s="33"/>
-      <c r="M62" s="132">
-        <v>49</v>
-      </c>
-      <c r="N62" s="112" t="s">
-        <v>266</v>
-      </c>
-      <c r="O62" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="P62" s="112" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q62" s="112" t="s">
-        <v>20</v>
-      </c>
-      <c r="R62" s="29"/>
+      <c r="M61" s="85">
+        <v>50</v>
+      </c>
+      <c r="N61" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O61" s="92" t="s">
+        <v>388</v>
+      </c>
+      <c r="P61" s="175" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q61" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="93"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="L62" s="32"/>
+      <c r="M62" s="85">
+        <v>50</v>
+      </c>
+      <c r="N62" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O62" s="92" t="s">
+        <v>389</v>
+      </c>
+      <c r="P62" s="175" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q62" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="93"/>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="L63" s="98"/>
-      <c r="M63" s="64">
-        <v>59</v>
-      </c>
-      <c r="N63" s="95" t="s">
-        <v>286</v>
-      </c>
-      <c r="O63" s="95" t="s">
-        <v>284</v>
-      </c>
-      <c r="P63" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q63" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="R63" s="96"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="85">
+        <v>50</v>
+      </c>
+      <c r="N63" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O63" s="92" t="s">
+        <v>391</v>
+      </c>
+      <c r="P63" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q63" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="93"/>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
       <c r="L64" s="32"/>
-      <c r="M64" s="27">
-        <v>43</v>
-      </c>
-      <c r="N64" s="90" t="s">
-        <v>286</v>
-      </c>
-      <c r="O64" s="90" t="s">
-        <v>52</v>
-      </c>
-      <c r="P64" s="90" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q64" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="R64" s="28"/>
+      <c r="M64" s="85">
+        <v>50</v>
+      </c>
+      <c r="N64" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="O64" s="92" t="s">
+        <v>392</v>
+      </c>
+      <c r="P64" s="175" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q64" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R64" s="93"/>
     </row>
     <row r="65" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L65" s="32"/>
-      <c r="M65" s="27">
-        <v>44</v>
-      </c>
-      <c r="N65" s="90" t="s">
-        <v>286</v>
-      </c>
-      <c r="O65" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="P65" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q65" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="R65" s="28"/>
-    </row>
-    <row r="66" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L66" s="32"/>
-      <c r="M66" s="27">
-        <v>45</v>
-      </c>
-      <c r="N66" s="90" t="s">
-        <v>286</v>
-      </c>
-      <c r="O66" s="90" t="s">
-        <v>21</v>
-      </c>
-      <c r="P66" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q66" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="R66" s="28"/>
+      <c r="M65" s="85">
+        <v>28</v>
+      </c>
+      <c r="N65" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="O65" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="P65" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q65" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="37"/>
+    </row>
+    <row r="66" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L66" s="33"/>
+      <c r="M66" s="111">
+        <v>24</v>
+      </c>
+      <c r="N66" s="92" t="s">
+        <v>217</v>
+      </c>
+      <c r="O66" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="P66" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q66" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="R66" s="93"/>
     </row>
     <row r="67" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L67" s="32"/>
-      <c r="M67" s="107">
-        <v>48</v>
-      </c>
-      <c r="N67" s="99" t="s">
-        <v>286</v>
-      </c>
-      <c r="O67" s="99" t="s">
+      <c r="L67" s="98"/>
+      <c r="M67" s="64">
         <v>43</v>
       </c>
-      <c r="P67" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q67" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="R67" s="100"/>
+      <c r="N67" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="O67" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="P67" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q67" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="R67" s="96"/>
     </row>
     <row r="68" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L68" s="32"/>
       <c r="M68" s="27">
-        <v>60</v>
-      </c>
-      <c r="N68" s="90" t="s">
-        <v>286</v>
+        <v>55</v>
+      </c>
+      <c r="N68" s="30" t="s">
+        <v>262</v>
       </c>
       <c r="O68" s="90" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="P68" s="90" t="s">
         <v>16</v>
       </c>
       <c r="Q68" s="90" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="R68" s="28"/>
     </row>
-    <row r="69" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L69" s="33"/>
-      <c r="M69" s="105">
+    <row r="69" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L69" s="32"/>
+      <c r="M69" s="27">
+        <v>56</v>
+      </c>
+      <c r="N69" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="O69" s="90" t="s">
+        <v>253</v>
+      </c>
+      <c r="P69" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q69" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="R69" s="28"/>
+    </row>
+    <row r="70" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L70" s="32"/>
+      <c r="M70" s="107">
+        <v>48</v>
+      </c>
+      <c r="N70" s="82" t="s">
+        <v>262</v>
+      </c>
+      <c r="O70" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="P70" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q70" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="R70" s="100"/>
+    </row>
+    <row r="71" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L71" s="32"/>
+      <c r="M71" s="27">
+        <v>50</v>
+      </c>
+      <c r="N71" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="O71" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="P71" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q71" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="R71" s="28"/>
+    </row>
+    <row r="72" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L72" s="32"/>
+      <c r="M72" s="27">
+        <v>46</v>
+      </c>
+      <c r="N72" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="O72" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="P72" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q72" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="R72" s="28"/>
+    </row>
+    <row r="73" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L73" s="32"/>
+      <c r="M73" s="27">
+        <v>44</v>
+      </c>
+      <c r="N73" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="O73" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="P73" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q73" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" s="28"/>
+    </row>
+    <row r="74" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L74" s="32"/>
+      <c r="M74" s="27">
+        <v>45</v>
+      </c>
+      <c r="N74" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="O74" s="90" t="s">
+        <v>255</v>
+      </c>
+      <c r="P74" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q74" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="R74" s="28"/>
+    </row>
+    <row r="75" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L75" s="32"/>
+      <c r="M75" s="27">
+        <v>50</v>
+      </c>
+      <c r="N75" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="O75" s="90" t="s">
+        <v>256</v>
+      </c>
+      <c r="P75" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q75" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="R75" s="28"/>
+    </row>
+    <row r="76" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L76" s="33"/>
+      <c r="M76" s="106">
         <v>49</v>
       </c>
-      <c r="N69" s="101" t="s">
+      <c r="N76" s="117" t="s">
+        <v>262</v>
+      </c>
+      <c r="O76" s="103" t="s">
+        <v>257</v>
+      </c>
+      <c r="P76" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q76" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" s="104"/>
+    </row>
+    <row r="77" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L77" s="98"/>
+      <c r="M77" s="118">
+        <v>57</v>
+      </c>
+      <c r="N77" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="O77" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="P77" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q77" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="R77" s="96"/>
+    </row>
+    <row r="78" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L78" s="32"/>
+      <c r="M78" s="50">
+        <v>43</v>
+      </c>
+      <c r="N78" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="O78" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q78" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R78" s="28"/>
+    </row>
+    <row r="79" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L79" s="32"/>
+      <c r="M79" s="50">
+        <v>58</v>
+      </c>
+      <c r="N79" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="O79" s="30" t="s">
+        <v>265</v>
+      </c>
+      <c r="P79" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q79" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R79" s="28"/>
+    </row>
+    <row r="80" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L80" s="32"/>
+      <c r="M80" s="130">
+        <v>48</v>
+      </c>
+      <c r="N80" s="82" t="s">
+        <v>266</v>
+      </c>
+      <c r="O80" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="P80" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q80" s="82" t="s">
+        <v>17</v>
+      </c>
+      <c r="R80" s="28"/>
+    </row>
+    <row r="81" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L81" s="32"/>
+      <c r="M81" s="50">
+        <v>50</v>
+      </c>
+      <c r="N81" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="O81" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="P81" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q81" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="R81" s="28"/>
+    </row>
+    <row r="82" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L82" s="32"/>
+      <c r="M82" s="50">
+        <v>44</v>
+      </c>
+      <c r="N82" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="O82" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="P82" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q82" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="R82" s="28"/>
+    </row>
+    <row r="83" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L83" s="32"/>
+      <c r="M83" s="50">
+        <v>45</v>
+      </c>
+      <c r="N83" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="O83" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="P83" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q83" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="R83" s="28"/>
+    </row>
+    <row r="84" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L84" s="32"/>
+      <c r="M84" s="50">
+        <v>46</v>
+      </c>
+      <c r="N84" s="30" t="s">
+        <v>266</v>
+      </c>
+      <c r="O84" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="P84" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q84" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="R84" s="28"/>
+    </row>
+    <row r="85" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L85" s="33"/>
+      <c r="M85" s="132">
+        <v>49</v>
+      </c>
+      <c r="N85" s="112" t="s">
+        <v>266</v>
+      </c>
+      <c r="O85" s="112" t="s">
+        <v>24</v>
+      </c>
+      <c r="P85" s="112" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q85" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="R85" s="29"/>
+    </row>
+    <row r="86" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L86" s="98"/>
+      <c r="M86" s="64">
+        <v>59</v>
+      </c>
+      <c r="N86" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="O69" s="101" t="s">
+      <c r="O86" s="95" t="s">
+        <v>284</v>
+      </c>
+      <c r="P86" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q86" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="R86" s="96"/>
+    </row>
+    <row r="87" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L87" s="32"/>
+      <c r="M87" s="27">
+        <v>43</v>
+      </c>
+      <c r="N87" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="O87" s="90" t="s">
+        <v>52</v>
+      </c>
+      <c r="P87" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q87" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="R87" s="28"/>
+    </row>
+    <row r="88" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L88" s="32"/>
+      <c r="M88" s="27">
+        <v>44</v>
+      </c>
+      <c r="N88" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="O88" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="P88" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q88" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="R88" s="28"/>
+    </row>
+    <row r="89" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L89" s="32"/>
+      <c r="M89" s="27">
+        <v>45</v>
+      </c>
+      <c r="N89" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="O89" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="P89" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q89" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="R89" s="28"/>
+    </row>
+    <row r="90" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L90" s="32"/>
+      <c r="M90" s="107">
+        <v>48</v>
+      </c>
+      <c r="N90" s="99" t="s">
+        <v>286</v>
+      </c>
+      <c r="O90" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="P90" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q90" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="R90" s="100"/>
+    </row>
+    <row r="91" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L91" s="32"/>
+      <c r="M91" s="27">
+        <v>60</v>
+      </c>
+      <c r="N91" s="90" t="s">
+        <v>286</v>
+      </c>
+      <c r="O91" s="90" t="s">
+        <v>285</v>
+      </c>
+      <c r="P91" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q91" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="R91" s="28"/>
+    </row>
+    <row r="92" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L92" s="33"/>
+      <c r="M92" s="105">
+        <v>49</v>
+      </c>
+      <c r="N92" s="101" t="s">
+        <v>286</v>
+      </c>
+      <c r="O92" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="P69" s="101" t="s">
+      <c r="P92" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="Q69" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="R69" s="102"/>
+      <c r="Q92" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="R92" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -13464,10 +15317,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R53"/>
+  <dimension ref="B1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="I40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14643,228 +16496,665 @@
       <c r="M42" s="86">
         <v>26</v>
       </c>
-      <c r="N42" s="22" t="s">
+      <c r="N42" s="67" t="s">
         <v>218</v>
       </c>
-      <c r="O42" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="P42" s="67" t="s">
-        <v>53</v>
+      <c r="O42" s="92" t="s">
+        <v>366</v>
+      </c>
+      <c r="P42" s="175" t="s">
+        <v>367</v>
       </c>
       <c r="Q42" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="R42" s="22"/>
-    </row>
-    <row r="43" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L43" s="33"/>
-      <c r="M43" s="113">
-        <v>23</v>
-      </c>
-      <c r="N43" s="92" t="s">
+      <c r="R42" s="93"/>
+    </row>
+    <row r="43" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L43" s="32"/>
+      <c r="M43" s="86">
+        <v>26</v>
+      </c>
+      <c r="N43" s="67" t="s">
         <v>218</v>
       </c>
       <c r="O43" s="92" t="s">
-        <v>177</v>
-      </c>
-      <c r="P43" s="92" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q43" s="92" t="s">
-        <v>20</v>
-      </c>
-      <c r="R43" s="92"/>
+        <v>368</v>
+      </c>
+      <c r="P43" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q43" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R43" s="93"/>
     </row>
     <row r="44" spans="12:18" x14ac:dyDescent="0.2">
-      <c r="L44" s="98"/>
-      <c r="M44" s="64">
-        <v>19</v>
-      </c>
-      <c r="N44" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="O44" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="P44" s="95" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q44" s="95" t="s">
-        <v>17</v>
-      </c>
-      <c r="R44" s="96"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="86">
+        <v>26</v>
+      </c>
+      <c r="N44" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O44" s="92" t="s">
+        <v>370</v>
+      </c>
+      <c r="P44" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q44" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R44" s="93"/>
     </row>
     <row r="45" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L45" s="32"/>
-      <c r="M45" s="27">
-        <v>29</v>
-      </c>
-      <c r="N45" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="O45" s="90" t="s">
-        <v>252</v>
-      </c>
-      <c r="P45" s="90" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q45" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="R45" s="28"/>
+      <c r="M45" s="86">
+        <v>26</v>
+      </c>
+      <c r="N45" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O45" s="92" t="s">
+        <v>371</v>
+      </c>
+      <c r="P45" s="175" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q45" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R45" s="93"/>
     </row>
     <row r="46" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L46" s="32"/>
-      <c r="M46" s="27">
-        <v>30</v>
-      </c>
-      <c r="N46" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="O46" s="90" t="s">
-        <v>253</v>
-      </c>
-      <c r="P46" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q46" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="R46" s="28"/>
+      <c r="M46" s="86">
+        <v>26</v>
+      </c>
+      <c r="N46" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O46" s="92" t="s">
+        <v>373</v>
+      </c>
+      <c r="P46" s="175" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q46" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R46" s="93"/>
     </row>
     <row r="47" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L47" s="32"/>
-      <c r="M47" s="107">
-        <v>24</v>
-      </c>
-      <c r="N47" s="82" t="s">
-        <v>263</v>
-      </c>
-      <c r="O47" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="P47" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q47" s="99" t="s">
-        <v>17</v>
-      </c>
-      <c r="R47" s="100"/>
+      <c r="M47" s="86">
+        <v>26</v>
+      </c>
+      <c r="N47" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O47" s="92" t="s">
+        <v>86</v>
+      </c>
+      <c r="P47" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q47" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R47" s="93"/>
     </row>
     <row r="48" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L48" s="32"/>
-      <c r="M48" s="27">
+      <c r="M48" s="86">
         <v>26</v>
       </c>
-      <c r="N48" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="O48" s="90" t="s">
-        <v>254</v>
-      </c>
-      <c r="P48" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q48" s="90" t="s">
-        <v>17</v>
-      </c>
-      <c r="R48" s="28"/>
+      <c r="N48" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O48" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="P48" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q48" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R48" s="93"/>
     </row>
     <row r="49" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L49" s="32"/>
-      <c r="M49" s="27">
-        <v>22</v>
-      </c>
-      <c r="N49" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="O49" s="90" t="s">
-        <v>172</v>
-      </c>
-      <c r="P49" s="90" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q49" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="R49" s="28"/>
+      <c r="M49" s="86">
+        <v>26</v>
+      </c>
+      <c r="N49" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O49" s="92" t="s">
+        <v>374</v>
+      </c>
+      <c r="P49" s="175" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q49" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R49" s="93"/>
     </row>
     <row r="50" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L50" s="32"/>
-      <c r="M50" s="27">
-        <v>20</v>
-      </c>
-      <c r="N50" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="O50" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="P50" s="90" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q50" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="R50" s="28"/>
+      <c r="M50" s="86">
+        <v>26</v>
+      </c>
+      <c r="N50" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O50" s="92" t="s">
+        <v>375</v>
+      </c>
+      <c r="P50" s="175" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q50" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R50" s="93"/>
     </row>
     <row r="51" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L51" s="32"/>
-      <c r="M51" s="27">
-        <v>21</v>
-      </c>
-      <c r="N51" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="O51" s="90" t="s">
-        <v>255</v>
-      </c>
-      <c r="P51" s="90" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q51" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="R51" s="28"/>
+      <c r="M51" s="86">
+        <v>26</v>
+      </c>
+      <c r="N51" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O51" s="92" t="s">
+        <v>377</v>
+      </c>
+      <c r="P51" s="175" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q51" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R51" s="93"/>
     </row>
     <row r="52" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L52" s="32"/>
-      <c r="M52" s="27">
+      <c r="M52" s="86">
         <v>26</v>
       </c>
-      <c r="N52" s="30" t="s">
+      <c r="N52" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O52" s="92" t="s">
+        <v>378</v>
+      </c>
+      <c r="P52" s="175" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q52" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R52" s="93"/>
+    </row>
+    <row r="53" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L53" s="32"/>
+      <c r="M53" s="86">
+        <v>26</v>
+      </c>
+      <c r="N53" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O53" s="92" t="s">
+        <v>379</v>
+      </c>
+      <c r="P53" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q53" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R53" s="93"/>
+    </row>
+    <row r="54" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L54" s="32"/>
+      <c r="M54" s="86">
+        <v>26</v>
+      </c>
+      <c r="N54" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O54" s="92" t="s">
+        <v>380</v>
+      </c>
+      <c r="P54" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q54" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R54" s="93"/>
+    </row>
+    <row r="55" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L55" s="32"/>
+      <c r="M55" s="86">
+        <v>26</v>
+      </c>
+      <c r="N55" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O55" s="92" t="s">
+        <v>381</v>
+      </c>
+      <c r="P55" s="175" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q55" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R55" s="93"/>
+    </row>
+    <row r="56" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L56" s="32"/>
+      <c r="M56" s="108">
+        <v>23</v>
+      </c>
+      <c r="N56" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O56" s="92" t="s">
+        <v>382</v>
+      </c>
+      <c r="P56" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q56" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="93"/>
+    </row>
+    <row r="57" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L57" s="32"/>
+      <c r="M57" s="86">
+        <v>26</v>
+      </c>
+      <c r="N57" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O57" s="92" t="s">
+        <v>383</v>
+      </c>
+      <c r="P57" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q57" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R57" s="93"/>
+    </row>
+    <row r="58" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L58" s="32"/>
+      <c r="M58" s="86">
+        <v>26</v>
+      </c>
+      <c r="N58" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O58" s="92" t="s">
+        <v>384</v>
+      </c>
+      <c r="P58" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q58" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="93"/>
+    </row>
+    <row r="59" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L59" s="32"/>
+      <c r="M59" s="86">
+        <v>26</v>
+      </c>
+      <c r="N59" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O59" s="92" t="s">
+        <v>385</v>
+      </c>
+      <c r="P59" s="175" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q59" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R59" s="93"/>
+    </row>
+    <row r="60" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L60" s="32"/>
+      <c r="M60" s="86">
+        <v>26</v>
+      </c>
+      <c r="N60" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O60" s="92" t="s">
+        <v>386</v>
+      </c>
+      <c r="P60" s="175" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q60" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="93"/>
+    </row>
+    <row r="61" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L61" s="32"/>
+      <c r="M61" s="86">
+        <v>26</v>
+      </c>
+      <c r="N61" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O61" s="92" t="s">
+        <v>388</v>
+      </c>
+      <c r="P61" s="175" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q61" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R61" s="93"/>
+    </row>
+    <row r="62" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L62" s="32"/>
+      <c r="M62" s="86">
+        <v>26</v>
+      </c>
+      <c r="N62" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O62" s="92" t="s">
+        <v>389</v>
+      </c>
+      <c r="P62" s="175" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q62" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R62" s="93"/>
+    </row>
+    <row r="63" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L63" s="32"/>
+      <c r="M63" s="86">
+        <v>26</v>
+      </c>
+      <c r="N63" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O63" s="92" t="s">
+        <v>391</v>
+      </c>
+      <c r="P63" s="175" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q63" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="93"/>
+    </row>
+    <row r="64" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L64" s="32"/>
+      <c r="M64" s="86">
+        <v>26</v>
+      </c>
+      <c r="N64" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="O64" s="92" t="s">
+        <v>392</v>
+      </c>
+      <c r="P64" s="175" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q64" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R64" s="93"/>
+    </row>
+    <row r="65" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L65" s="32"/>
+      <c r="M65" s="86">
+        <v>26</v>
+      </c>
+      <c r="N65" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="O65" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="P65" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q65" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="R65" s="22"/>
+    </row>
+    <row r="66" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L66" s="33"/>
+      <c r="M66" s="113">
+        <v>23</v>
+      </c>
+      <c r="N66" s="92" t="s">
+        <v>218</v>
+      </c>
+      <c r="O66" s="92" t="s">
+        <v>177</v>
+      </c>
+      <c r="P66" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q66" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="R66" s="92"/>
+    </row>
+    <row r="67" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L67" s="98"/>
+      <c r="M67" s="64">
+        <v>19</v>
+      </c>
+      <c r="N67" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="O52" s="90" t="s">
+      <c r="O67" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="P67" s="95" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q67" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="R67" s="96"/>
+    </row>
+    <row r="68" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L68" s="32"/>
+      <c r="M68" s="27">
+        <v>29</v>
+      </c>
+      <c r="N68" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="O68" s="90" t="s">
+        <v>252</v>
+      </c>
+      <c r="P68" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q68" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="R68" s="28"/>
+    </row>
+    <row r="69" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L69" s="32"/>
+      <c r="M69" s="27">
+        <v>30</v>
+      </c>
+      <c r="N69" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="O69" s="90" t="s">
+        <v>253</v>
+      </c>
+      <c r="P69" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q69" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="R69" s="28"/>
+    </row>
+    <row r="70" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L70" s="32"/>
+      <c r="M70" s="107">
+        <v>24</v>
+      </c>
+      <c r="N70" s="82" t="s">
+        <v>263</v>
+      </c>
+      <c r="O70" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="P70" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q70" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="R70" s="100"/>
+    </row>
+    <row r="71" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L71" s="32"/>
+      <c r="M71" s="27">
+        <v>26</v>
+      </c>
+      <c r="N71" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="O71" s="90" t="s">
+        <v>254</v>
+      </c>
+      <c r="P71" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q71" s="90" t="s">
+        <v>17</v>
+      </c>
+      <c r="R71" s="28"/>
+    </row>
+    <row r="72" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L72" s="32"/>
+      <c r="M72" s="27">
+        <v>22</v>
+      </c>
+      <c r="N72" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="O72" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="P72" s="90" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q72" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="R72" s="28"/>
+    </row>
+    <row r="73" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L73" s="32"/>
+      <c r="M73" s="27">
+        <v>20</v>
+      </c>
+      <c r="N73" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="O73" s="90" t="s">
+        <v>18</v>
+      </c>
+      <c r="P73" s="90" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q73" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="R73" s="28"/>
+    </row>
+    <row r="74" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L74" s="32"/>
+      <c r="M74" s="27">
+        <v>21</v>
+      </c>
+      <c r="N74" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="O74" s="90" t="s">
+        <v>255</v>
+      </c>
+      <c r="P74" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q74" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="R74" s="28"/>
+    </row>
+    <row r="75" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L75" s="32"/>
+      <c r="M75" s="27">
+        <v>26</v>
+      </c>
+      <c r="N75" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="O75" s="90" t="s">
         <v>256</v>
       </c>
-      <c r="P52" s="90" t="s">
+      <c r="P75" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="Q52" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="R52" s="28"/>
-    </row>
-    <row r="53" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L53" s="33"/>
-      <c r="M53" s="105">
+      <c r="Q75" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="R75" s="28"/>
+    </row>
+    <row r="76" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L76" s="33"/>
+      <c r="M76" s="105">
         <v>25</v>
       </c>
-      <c r="N53" s="112" t="s">
+      <c r="N76" s="112" t="s">
         <v>263</v>
       </c>
-      <c r="O53" s="101" t="s">
+      <c r="O76" s="101" t="s">
         <v>257</v>
       </c>
-      <c r="P53" s="101" t="s">
+      <c r="P76" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="Q53" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="R53" s="102"/>
+      <c r="Q76" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="R76" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Otorgamiento/Mapeos_SOL_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_SOL_Otorgamiento_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="735" windowWidth="9225" windowHeight="4290" tabRatio="790" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="285" yWindow="735" windowWidth="9225" windowHeight="4290" tabRatio="790"/>
   </bookViews>
   <sheets>
     <sheet name="DB_SOLICITUD" sheetId="8" r:id="rId1"/>
@@ -15,7 +15,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
-    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="Asset_Name">[1]ReadMe!$C$1</definedName>
@@ -3246,6 +3245,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3314,9 +3316,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="89">
@@ -3454,23 +3453,6 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Hoja1"/>
-      <sheetName val="Hoja2"/>
-      <sheetName val="Hoja3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3816,7 +3798,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3827,8 +3809,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:S93"/>
   <sheetViews>
-    <sheetView topLeftCell="I38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O53" sqref="O53"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3837,7 +3819,7 @@
     <col min="2" max="2" width="3" style="1" customWidth="1"/>
     <col min="3" max="3" width="40" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="6" style="3" bestFit="1" customWidth="1"/>
@@ -3867,30 +3849,30 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="163" t="s">
+      <c r="D2" s="164" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="166"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="160" t="s">
+      <c r="I2" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="161"/>
-      <c r="K2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="163"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="169"/>
       <c r="H3" s="8"/>
       <c r="I3" s="38"/>
       <c r="J3" s="22"/>
@@ -3901,12 +3883,12 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="169" t="s">
+      <c r="D4" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="172"/>
       <c r="H4" s="6"/>
       <c r="I4" s="39"/>
       <c r="J4" s="22"/>
@@ -3917,12 +3899,12 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="169" t="s">
+      <c r="D5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="172"/>
       <c r="H5" s="6"/>
       <c r="I5" s="40"/>
       <c r="J5" s="25"/>
@@ -3938,26 +3920,26 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="155"/>
-      <c r="K7" s="156"/>
-      <c r="L7" s="157"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="158"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="152"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="154"/>
+      <c r="N7" s="153"/>
+      <c r="O7" s="154"/>
+      <c r="P7" s="154"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="154"/>
+      <c r="S7" s="155"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -5423,7 +5405,7 @@
       <c r="P42" s="92" t="s">
         <v>366</v>
       </c>
-      <c r="Q42" s="175" t="s">
+      <c r="Q42" s="152" t="s">
         <v>367</v>
       </c>
       <c r="R42" s="67" t="s">
@@ -5457,7 +5439,7 @@
       <c r="P43" s="92" t="s">
         <v>368</v>
       </c>
-      <c r="Q43" s="175" t="s">
+      <c r="Q43" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R43" s="67" t="s">
@@ -5491,7 +5473,7 @@
       <c r="P44" s="92" t="s">
         <v>370</v>
       </c>
-      <c r="Q44" s="175" t="s">
+      <c r="Q44" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R44" s="67" t="s">
@@ -5525,7 +5507,7 @@
       <c r="P45" s="92" t="s">
         <v>371</v>
       </c>
-      <c r="Q45" s="175" t="s">
+      <c r="Q45" s="152" t="s">
         <v>372</v>
       </c>
       <c r="R45" s="67" t="s">
@@ -5559,7 +5541,7 @@
       <c r="P46" s="92" t="s">
         <v>373</v>
       </c>
-      <c r="Q46" s="175" t="s">
+      <c r="Q46" s="152" t="s">
         <v>19</v>
       </c>
       <c r="R46" s="67" t="s">
@@ -5593,7 +5575,7 @@
       <c r="P47" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="Q47" s="175" t="s">
+      <c r="Q47" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R47" s="67" t="s">
@@ -5627,7 +5609,7 @@
       <c r="P48" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="Q48" s="175" t="s">
+      <c r="Q48" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R48" s="67" t="s">
@@ -5663,7 +5645,7 @@
       <c r="P49" s="92" t="s">
         <v>374</v>
       </c>
-      <c r="Q49" s="175" t="s">
+      <c r="Q49" s="152" t="s">
         <v>372</v>
       </c>
       <c r="R49" s="67" t="s">
@@ -5699,7 +5681,7 @@
       <c r="P50" s="92" t="s">
         <v>375</v>
       </c>
-      <c r="Q50" s="175" t="s">
+      <c r="Q50" s="152" t="s">
         <v>376</v>
       </c>
       <c r="R50" s="67" t="s">
@@ -5733,7 +5715,7 @@
       <c r="P51" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="Q51" s="175" t="s">
+      <c r="Q51" s="152" t="s">
         <v>184</v>
       </c>
       <c r="R51" s="67" t="s">
@@ -5769,7 +5751,7 @@
       <c r="P52" s="92" t="s">
         <v>378</v>
       </c>
-      <c r="Q52" s="175" t="s">
+      <c r="Q52" s="152" t="s">
         <v>376</v>
       </c>
       <c r="R52" s="67" t="s">
@@ -5805,7 +5787,7 @@
       <c r="P53" s="92" t="s">
         <v>379</v>
       </c>
-      <c r="Q53" s="175" t="s">
+      <c r="Q53" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R53" s="67" t="s">
@@ -5839,7 +5821,7 @@
       <c r="P54" s="92" t="s">
         <v>380</v>
       </c>
-      <c r="Q54" s="175" t="s">
+      <c r="Q54" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R54" s="67" t="s">
@@ -5873,7 +5855,7 @@
       <c r="P55" s="92" t="s">
         <v>381</v>
       </c>
-      <c r="Q55" s="175" t="s">
+      <c r="Q55" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R55" s="67" t="s">
@@ -5907,7 +5889,7 @@
       <c r="P56" s="92" t="s">
         <v>382</v>
       </c>
-      <c r="Q56" s="175" t="s">
+      <c r="Q56" s="152" t="s">
         <v>23</v>
       </c>
       <c r="R56" s="67" t="s">
@@ -5943,7 +5925,7 @@
       <c r="P57" s="92" t="s">
         <v>383</v>
       </c>
-      <c r="Q57" s="175" t="s">
+      <c r="Q57" s="152" t="s">
         <v>23</v>
       </c>
       <c r="R57" s="67" t="s">
@@ -5977,7 +5959,7 @@
       <c r="P58" s="92" t="s">
         <v>384</v>
       </c>
-      <c r="Q58" s="175" t="s">
+      <c r="Q58" s="152" t="s">
         <v>23</v>
       </c>
       <c r="R58" s="67" t="s">
@@ -6011,7 +5993,7 @@
       <c r="P59" s="92" t="s">
         <v>385</v>
       </c>
-      <c r="Q59" s="175" t="s">
+      <c r="Q59" s="152" t="s">
         <v>16</v>
       </c>
       <c r="R59" s="67" t="s">
@@ -6030,7 +6012,7 @@
       <c r="P60" s="92" t="s">
         <v>386</v>
       </c>
-      <c r="Q60" s="175" t="s">
+      <c r="Q60" s="152" t="s">
         <v>387</v>
       </c>
       <c r="R60" s="67" t="s">
@@ -6049,7 +6031,7 @@
       <c r="P61" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="Q61" s="175" t="s">
+      <c r="Q61" s="152" t="s">
         <v>53</v>
       </c>
       <c r="R61" s="67" t="s">
@@ -6068,7 +6050,7 @@
       <c r="P62" s="92" t="s">
         <v>389</v>
       </c>
-      <c r="Q62" s="175" t="s">
+      <c r="Q62" s="152" t="s">
         <v>390</v>
       </c>
       <c r="R62" s="67" t="s">
@@ -6087,7 +6069,7 @@
       <c r="P63" s="92" t="s">
         <v>391</v>
       </c>
-      <c r="Q63" s="175" t="s">
+      <c r="Q63" s="152" t="s">
         <v>23</v>
       </c>
       <c r="R63" s="67" t="s">
@@ -6106,7 +6088,7 @@
       <c r="P64" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="Q64" s="175" t="s">
+      <c r="Q64" s="152" t="s">
         <v>393</v>
       </c>
       <c r="R64" s="67" t="s">
@@ -6727,30 +6709,30 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="163" t="s">
+      <c r="D2" s="164" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="166"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="160" t="s">
+      <c r="I2" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="161"/>
-      <c r="K2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="163"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="169"/>
       <c r="H3" s="8"/>
       <c r="I3" s="38"/>
       <c r="J3" s="22" t="s">
@@ -6763,12 +6745,12 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="169" t="s">
+      <c r="D4" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="172"/>
       <c r="H4" s="6"/>
       <c r="I4" s="39"/>
       <c r="J4" s="22" t="s">
@@ -6781,12 +6763,12 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="169" t="s">
+      <c r="D5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="172"/>
       <c r="H5" s="6"/>
       <c r="I5" s="40"/>
       <c r="J5" s="25" t="s">
@@ -6804,30 +6786,30 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="155" t="s">
+      <c r="J7" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="156"/>
-      <c r="L7" s="157"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="158"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="172" t="s">
+      <c r="N7" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="174"/>
+      <c r="S7" s="174"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -8327,7 +8309,7 @@
       <c r="P43" s="92" t="s">
         <v>366</v>
       </c>
-      <c r="Q43" s="175" t="s">
+      <c r="Q43" s="152" t="s">
         <v>367</v>
       </c>
       <c r="R43" s="67" t="s">
@@ -8346,7 +8328,7 @@
       <c r="P44" s="92" t="s">
         <v>368</v>
       </c>
-      <c r="Q44" s="175" t="s">
+      <c r="Q44" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R44" s="67" t="s">
@@ -8365,7 +8347,7 @@
       <c r="P45" s="92" t="s">
         <v>370</v>
       </c>
-      <c r="Q45" s="175" t="s">
+      <c r="Q45" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R45" s="67" t="s">
@@ -8384,7 +8366,7 @@
       <c r="P46" s="92" t="s">
         <v>371</v>
       </c>
-      <c r="Q46" s="175" t="s">
+      <c r="Q46" s="152" t="s">
         <v>372</v>
       </c>
       <c r="R46" s="67" t="s">
@@ -8403,7 +8385,7 @@
       <c r="P47" s="92" t="s">
         <v>373</v>
       </c>
-      <c r="Q47" s="175" t="s">
+      <c r="Q47" s="152" t="s">
         <v>19</v>
       </c>
       <c r="R47" s="67" t="s">
@@ -8422,7 +8404,7 @@
       <c r="P48" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="Q48" s="175" t="s">
+      <c r="Q48" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R48" s="67" t="s">
@@ -8441,7 +8423,7 @@
       <c r="P49" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="Q49" s="175" t="s">
+      <c r="Q49" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R49" s="67" t="s">
@@ -8460,7 +8442,7 @@
       <c r="P50" s="92" t="s">
         <v>374</v>
       </c>
-      <c r="Q50" s="175" t="s">
+      <c r="Q50" s="152" t="s">
         <v>372</v>
       </c>
       <c r="R50" s="67" t="s">
@@ -8479,7 +8461,7 @@
       <c r="P51" s="92" t="s">
         <v>375</v>
       </c>
-      <c r="Q51" s="175" t="s">
+      <c r="Q51" s="152" t="s">
         <v>376</v>
       </c>
       <c r="R51" s="67" t="s">
@@ -8498,7 +8480,7 @@
       <c r="P52" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="Q52" s="175" t="s">
+      <c r="Q52" s="152" t="s">
         <v>184</v>
       </c>
       <c r="R52" s="67" t="s">
@@ -8517,7 +8499,7 @@
       <c r="P53" s="92" t="s">
         <v>378</v>
       </c>
-      <c r="Q53" s="175" t="s">
+      <c r="Q53" s="152" t="s">
         <v>376</v>
       </c>
       <c r="R53" s="67" t="s">
@@ -8536,7 +8518,7 @@
       <c r="P54" s="92" t="s">
         <v>379</v>
       </c>
-      <c r="Q54" s="175" t="s">
+      <c r="Q54" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R54" s="67" t="s">
@@ -8555,7 +8537,7 @@
       <c r="P55" s="92" t="s">
         <v>380</v>
       </c>
-      <c r="Q55" s="175" t="s">
+      <c r="Q55" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R55" s="67" t="s">
@@ -8574,7 +8556,7 @@
       <c r="P56" s="92" t="s">
         <v>381</v>
       </c>
-      <c r="Q56" s="175" t="s">
+      <c r="Q56" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R56" s="67" t="s">
@@ -8593,7 +8575,7 @@
       <c r="P57" s="92" t="s">
         <v>382</v>
       </c>
-      <c r="Q57" s="175" t="s">
+      <c r="Q57" s="152" t="s">
         <v>23</v>
       </c>
       <c r="R57" s="67" t="s">
@@ -8612,7 +8594,7 @@
       <c r="P58" s="92" t="s">
         <v>383</v>
       </c>
-      <c r="Q58" s="175" t="s">
+      <c r="Q58" s="152" t="s">
         <v>23</v>
       </c>
       <c r="R58" s="67" t="s">
@@ -8631,7 +8613,7 @@
       <c r="P59" s="92" t="s">
         <v>384</v>
       </c>
-      <c r="Q59" s="175" t="s">
+      <c r="Q59" s="152" t="s">
         <v>23</v>
       </c>
       <c r="R59" s="67" t="s">
@@ -8650,7 +8632,7 @@
       <c r="P60" s="92" t="s">
         <v>385</v>
       </c>
-      <c r="Q60" s="175" t="s">
+      <c r="Q60" s="152" t="s">
         <v>16</v>
       </c>
       <c r="R60" s="67" t="s">
@@ -8669,7 +8651,7 @@
       <c r="P61" s="92" t="s">
         <v>386</v>
       </c>
-      <c r="Q61" s="175" t="s">
+      <c r="Q61" s="152" t="s">
         <v>387</v>
       </c>
       <c r="R61" s="67" t="s">
@@ -8688,7 +8670,7 @@
       <c r="P62" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="Q62" s="175" t="s">
+      <c r="Q62" s="152" t="s">
         <v>53</v>
       </c>
       <c r="R62" s="67" t="s">
@@ -8707,7 +8689,7 @@
       <c r="P63" s="92" t="s">
         <v>389</v>
       </c>
-      <c r="Q63" s="175" t="s">
+      <c r="Q63" s="152" t="s">
         <v>390</v>
       </c>
       <c r="R63" s="67" t="s">
@@ -8726,7 +8708,7 @@
       <c r="P64" s="92" t="s">
         <v>391</v>
       </c>
-      <c r="Q64" s="175" t="s">
+      <c r="Q64" s="152" t="s">
         <v>23</v>
       </c>
       <c r="R64" s="67" t="s">
@@ -8745,7 +8727,7 @@
       <c r="P65" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="Q65" s="175" t="s">
+      <c r="Q65" s="152" t="s">
         <v>393</v>
       </c>
       <c r="R65" s="67" t="s">
@@ -10050,30 +10032,30 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="163" t="s">
+      <c r="D2" s="164" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="166"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="160" t="s">
+      <c r="I2" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="161"/>
-      <c r="K2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="163"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="167" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="169"/>
       <c r="H3" s="8"/>
       <c r="I3" s="38"/>
       <c r="J3" s="22" t="s">
@@ -10086,12 +10068,12 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="169" t="s">
+      <c r="D4" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
+      <c r="G4" s="172"/>
       <c r="H4" s="6"/>
       <c r="I4" s="39"/>
       <c r="J4" s="22" t="s">
@@ -10104,12 +10086,12 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="169" t="s">
+      <c r="D5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="172"/>
       <c r="H5" s="6"/>
       <c r="I5" s="40"/>
       <c r="J5" s="25" t="s">
@@ -10127,30 +10109,30 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="155" t="s">
+      <c r="J7" s="156" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="156"/>
-      <c r="L7" s="157"/>
+      <c r="K7" s="157"/>
+      <c r="L7" s="158"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="152" t="s">
+      <c r="N7" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="154"/>
+      <c r="O7" s="154"/>
+      <c r="P7" s="154"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="154"/>
+      <c r="S7" s="155"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -11454,7 +11436,7 @@
       <c r="P39" s="92" t="s">
         <v>366</v>
       </c>
-      <c r="Q39" s="175" t="s">
+      <c r="Q39" s="152" t="s">
         <v>367</v>
       </c>
       <c r="R39" s="67" t="s">
@@ -11488,7 +11470,7 @@
       <c r="P40" s="92" t="s">
         <v>368</v>
       </c>
-      <c r="Q40" s="175" t="s">
+      <c r="Q40" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R40" s="67" t="s">
@@ -11522,7 +11504,7 @@
       <c r="P41" s="92" t="s">
         <v>370</v>
       </c>
-      <c r="Q41" s="175" t="s">
+      <c r="Q41" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R41" s="67" t="s">
@@ -11556,7 +11538,7 @@
       <c r="P42" s="92" t="s">
         <v>371</v>
       </c>
-      <c r="Q42" s="175" t="s">
+      <c r="Q42" s="152" t="s">
         <v>372</v>
       </c>
       <c r="R42" s="67" t="s">
@@ -11590,7 +11572,7 @@
       <c r="P43" s="92" t="s">
         <v>373</v>
       </c>
-      <c r="Q43" s="175" t="s">
+      <c r="Q43" s="152" t="s">
         <v>19</v>
       </c>
       <c r="R43" s="67" t="s">
@@ -11609,7 +11591,7 @@
       <c r="P44" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="Q44" s="175" t="s">
+      <c r="Q44" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R44" s="67" t="s">
@@ -11628,7 +11610,7 @@
       <c r="P45" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="Q45" s="175" t="s">
+      <c r="Q45" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R45" s="67" t="s">
@@ -11647,7 +11629,7 @@
       <c r="P46" s="92" t="s">
         <v>374</v>
       </c>
-      <c r="Q46" s="175" t="s">
+      <c r="Q46" s="152" t="s">
         <v>372</v>
       </c>
       <c r="R46" s="67" t="s">
@@ -11666,7 +11648,7 @@
       <c r="P47" s="92" t="s">
         <v>375</v>
       </c>
-      <c r="Q47" s="175" t="s">
+      <c r="Q47" s="152" t="s">
         <v>376</v>
       </c>
       <c r="R47" s="67" t="s">
@@ -11685,7 +11667,7 @@
       <c r="P48" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="Q48" s="175" t="s">
+      <c r="Q48" s="152" t="s">
         <v>184</v>
       </c>
       <c r="R48" s="67" t="s">
@@ -11704,7 +11686,7 @@
       <c r="P49" s="92" t="s">
         <v>378</v>
       </c>
-      <c r="Q49" s="175" t="s">
+      <c r="Q49" s="152" t="s">
         <v>376</v>
       </c>
       <c r="R49" s="67" t="s">
@@ -11723,7 +11705,7 @@
       <c r="P50" s="92" t="s">
         <v>379</v>
       </c>
-      <c r="Q50" s="175" t="s">
+      <c r="Q50" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R50" s="67" t="s">
@@ -11742,7 +11724,7 @@
       <c r="P51" s="92" t="s">
         <v>380</v>
       </c>
-      <c r="Q51" s="175" t="s">
+      <c r="Q51" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R51" s="67" t="s">
@@ -11761,7 +11743,7 @@
       <c r="P52" s="92" t="s">
         <v>381</v>
       </c>
-      <c r="Q52" s="175" t="s">
+      <c r="Q52" s="152" t="s">
         <v>369</v>
       </c>
       <c r="R52" s="67" t="s">
@@ -11780,7 +11762,7 @@
       <c r="P53" s="92" t="s">
         <v>382</v>
       </c>
-      <c r="Q53" s="175" t="s">
+      <c r="Q53" s="152" t="s">
         <v>23</v>
       </c>
       <c r="R53" s="67" t="s">
@@ -11799,7 +11781,7 @@
       <c r="P54" s="92" t="s">
         <v>383</v>
       </c>
-      <c r="Q54" s="175" t="s">
+      <c r="Q54" s="152" t="s">
         <v>23</v>
       </c>
       <c r="R54" s="67" t="s">
@@ -11818,7 +11800,7 @@
       <c r="P55" s="92" t="s">
         <v>384</v>
       </c>
-      <c r="Q55" s="175" t="s">
+      <c r="Q55" s="152" t="s">
         <v>23</v>
       </c>
       <c r="R55" s="67" t="s">
@@ -11837,7 +11819,7 @@
       <c r="P56" s="92" t="s">
         <v>385</v>
       </c>
-      <c r="Q56" s="175" t="s">
+      <c r="Q56" s="152" t="s">
         <v>16</v>
       </c>
       <c r="R56" s="67" t="s">
@@ -11856,7 +11838,7 @@
       <c r="P57" s="92" t="s">
         <v>386</v>
       </c>
-      <c r="Q57" s="175" t="s">
+      <c r="Q57" s="152" t="s">
         <v>387</v>
       </c>
       <c r="R57" s="67" t="s">
@@ -11875,7 +11857,7 @@
       <c r="P58" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="Q58" s="175" t="s">
+      <c r="Q58" s="152" t="s">
         <v>53</v>
       </c>
       <c r="R58" s="67" t="s">
@@ -11894,7 +11876,7 @@
       <c r="P59" s="92" t="s">
         <v>389</v>
       </c>
-      <c r="Q59" s="175" t="s">
+      <c r="Q59" s="152" t="s">
         <v>390</v>
       </c>
       <c r="R59" s="67" t="s">
@@ -11913,7 +11895,7 @@
       <c r="P60" s="92" t="s">
         <v>391</v>
       </c>
-      <c r="Q60" s="175" t="s">
+      <c r="Q60" s="152" t="s">
         <v>23</v>
       </c>
       <c r="R60" s="67" t="s">
@@ -11932,7 +11914,7 @@
       <c r="P61" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="Q61" s="175" t="s">
+      <c r="Q61" s="152" t="s">
         <v>393</v>
       </c>
       <c r="R61" s="67" t="s">
@@ -12797,28 +12779,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="163" t="s">
+      <c r="D2" s="164" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="164"/>
-      <c r="F2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="160" t="s">
+      <c r="H2" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="161"/>
-      <c r="J2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="163"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="167" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="167"/>
-      <c r="F3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="169"/>
       <c r="G3" s="8"/>
       <c r="H3" s="38"/>
       <c r="I3" s="22"/>
@@ -12829,11 +12811,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="169" t="s">
+      <c r="D4" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="170"/>
-      <c r="F4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="172"/>
       <c r="G4" s="6"/>
       <c r="H4" s="39"/>
       <c r="I4" s="22"/>
@@ -12844,11 +12826,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="169" t="s">
+      <c r="D5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="172"/>
       <c r="G5" s="6"/>
       <c r="H5" s="40"/>
       <c r="I5" s="25"/>
@@ -12863,25 +12845,25 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="157"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="158"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="173"/>
-      <c r="Q7" s="173"/>
-      <c r="R7" s="173"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="174"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="174"/>
+      <c r="R7" s="174"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -14228,7 +14210,7 @@
       <c r="O42" s="92" t="s">
         <v>366</v>
       </c>
-      <c r="P42" s="175" t="s">
+      <c r="P42" s="152" t="s">
         <v>367</v>
       </c>
       <c r="Q42" s="67" t="s">
@@ -14261,7 +14243,7 @@
       <c r="O43" s="92" t="s">
         <v>368</v>
       </c>
-      <c r="P43" s="175" t="s">
+      <c r="P43" s="152" t="s">
         <v>369</v>
       </c>
       <c r="Q43" s="67" t="s">
@@ -14294,7 +14276,7 @@
       <c r="O44" s="92" t="s">
         <v>370</v>
       </c>
-      <c r="P44" s="175" t="s">
+      <c r="P44" s="152" t="s">
         <v>369</v>
       </c>
       <c r="Q44" s="67" t="s">
@@ -14327,7 +14309,7 @@
       <c r="O45" s="92" t="s">
         <v>371</v>
       </c>
-      <c r="P45" s="175" t="s">
+      <c r="P45" s="152" t="s">
         <v>372</v>
       </c>
       <c r="Q45" s="67" t="s">
@@ -14360,7 +14342,7 @@
       <c r="O46" s="92" t="s">
         <v>373</v>
       </c>
-      <c r="P46" s="175" t="s">
+      <c r="P46" s="152" t="s">
         <v>19</v>
       </c>
       <c r="Q46" s="67" t="s">
@@ -14393,7 +14375,7 @@
       <c r="O47" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="P47" s="175" t="s">
+      <c r="P47" s="152" t="s">
         <v>369</v>
       </c>
       <c r="Q47" s="67" t="s">
@@ -14426,7 +14408,7 @@
       <c r="O48" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="P48" s="175" t="s">
+      <c r="P48" s="152" t="s">
         <v>369</v>
       </c>
       <c r="Q48" s="67" t="s">
@@ -14459,7 +14441,7 @@
       <c r="O49" s="92" t="s">
         <v>374</v>
       </c>
-      <c r="P49" s="175" t="s">
+      <c r="P49" s="152" t="s">
         <v>372</v>
       </c>
       <c r="Q49" s="67" t="s">
@@ -14492,7 +14474,7 @@
       <c r="O50" s="92" t="s">
         <v>375</v>
       </c>
-      <c r="P50" s="175" t="s">
+      <c r="P50" s="152" t="s">
         <v>376</v>
       </c>
       <c r="Q50" s="67" t="s">
@@ -14511,7 +14493,7 @@
       <c r="O51" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="P51" s="175" t="s">
+      <c r="P51" s="152" t="s">
         <v>184</v>
       </c>
       <c r="Q51" s="67" t="s">
@@ -14530,7 +14512,7 @@
       <c r="O52" s="92" t="s">
         <v>378</v>
       </c>
-      <c r="P52" s="175" t="s">
+      <c r="P52" s="152" t="s">
         <v>376</v>
       </c>
       <c r="Q52" s="67" t="s">
@@ -14549,7 +14531,7 @@
       <c r="O53" s="92" t="s">
         <v>379</v>
       </c>
-      <c r="P53" s="175" t="s">
+      <c r="P53" s="152" t="s">
         <v>369</v>
       </c>
       <c r="Q53" s="67" t="s">
@@ -14568,7 +14550,7 @@
       <c r="O54" s="92" t="s">
         <v>380</v>
       </c>
-      <c r="P54" s="175" t="s">
+      <c r="P54" s="152" t="s">
         <v>369</v>
       </c>
       <c r="Q54" s="67" t="s">
@@ -14587,7 +14569,7 @@
       <c r="O55" s="92" t="s">
         <v>381</v>
       </c>
-      <c r="P55" s="175" t="s">
+      <c r="P55" s="152" t="s">
         <v>369</v>
       </c>
       <c r="Q55" s="67" t="s">
@@ -14606,7 +14588,7 @@
       <c r="O56" s="92" t="s">
         <v>382</v>
       </c>
-      <c r="P56" s="175" t="s">
+      <c r="P56" s="152" t="s">
         <v>23</v>
       </c>
       <c r="Q56" s="67" t="s">
@@ -14625,7 +14607,7 @@
       <c r="O57" s="92" t="s">
         <v>383</v>
       </c>
-      <c r="P57" s="175" t="s">
+      <c r="P57" s="152" t="s">
         <v>23</v>
       </c>
       <c r="Q57" s="67" t="s">
@@ -14644,7 +14626,7 @@
       <c r="O58" s="92" t="s">
         <v>384</v>
       </c>
-      <c r="P58" s="175" t="s">
+      <c r="P58" s="152" t="s">
         <v>23</v>
       </c>
       <c r="Q58" s="67" t="s">
@@ -14663,7 +14645,7 @@
       <c r="O59" s="92" t="s">
         <v>385</v>
       </c>
-      <c r="P59" s="175" t="s">
+      <c r="P59" s="152" t="s">
         <v>16</v>
       </c>
       <c r="Q59" s="67" t="s">
@@ -14682,7 +14664,7 @@
       <c r="O60" s="92" t="s">
         <v>386</v>
       </c>
-      <c r="P60" s="175" t="s">
+      <c r="P60" s="152" t="s">
         <v>387</v>
       </c>
       <c r="Q60" s="67" t="s">
@@ -14701,7 +14683,7 @@
       <c r="O61" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="P61" s="175" t="s">
+      <c r="P61" s="152" t="s">
         <v>53</v>
       </c>
       <c r="Q61" s="67" t="s">
@@ -14720,7 +14702,7 @@
       <c r="O62" s="92" t="s">
         <v>389</v>
       </c>
-      <c r="P62" s="175" t="s">
+      <c r="P62" s="152" t="s">
         <v>390</v>
       </c>
       <c r="Q62" s="67" t="s">
@@ -14739,7 +14721,7 @@
       <c r="O63" s="92" t="s">
         <v>391</v>
       </c>
-      <c r="P63" s="175" t="s">
+      <c r="P63" s="152" t="s">
         <v>23</v>
       </c>
       <c r="Q63" s="67" t="s">
@@ -14758,7 +14740,7 @@
       <c r="O64" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="P64" s="175" t="s">
+      <c r="P64" s="152" t="s">
         <v>393</v>
       </c>
       <c r="Q64" s="67" t="s">
@@ -15319,8 +15301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -15357,28 +15339,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="163" t="s">
+      <c r="D2" s="164" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="164"/>
-      <c r="F2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="166"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="160" t="s">
+      <c r="H2" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="161"/>
-      <c r="J2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="163"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="166" t="s">
+      <c r="D3" s="167" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="167"/>
-      <c r="F3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="169"/>
       <c r="G3" s="8"/>
       <c r="H3" s="38"/>
       <c r="I3" s="22"/>
@@ -15389,11 +15371,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="169" t="s">
+      <c r="D4" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="170"/>
-      <c r="F4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="172"/>
       <c r="G4" s="6"/>
       <c r="H4" s="39"/>
       <c r="I4" s="22"/>
@@ -15404,11 +15386,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="169" t="s">
+      <c r="D5" s="170" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="170"/>
-      <c r="F5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="172"/>
       <c r="G5" s="6"/>
       <c r="H5" s="40"/>
       <c r="I5" s="25"/>
@@ -15423,25 +15405,25 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
+      <c r="C7" s="160"/>
+      <c r="D7" s="160"/>
+      <c r="E7" s="160"/>
+      <c r="F7" s="160"/>
+      <c r="G7" s="160"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="155"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="157"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="157"/>
+      <c r="K7" s="158"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="174"/>
-      <c r="N7" s="153"/>
-      <c r="O7" s="153"/>
-      <c r="P7" s="153"/>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="154"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="154"/>
+      <c r="O7" s="154"/>
+      <c r="P7" s="154"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="155"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -16502,7 +16484,7 @@
       <c r="O42" s="92" t="s">
         <v>366</v>
       </c>
-      <c r="P42" s="175" t="s">
+      <c r="P42" s="152" t="s">
         <v>367</v>
       </c>
       <c r="Q42" s="67" t="s">
@@ -16521,7 +16503,7 @@
       <c r="O43" s="92" t="s">
         <v>368</v>
       </c>
-      <c r="P43" s="175" t="s">
+      <c r="P43" s="152" t="s">
         <v>369</v>
       </c>
       <c r="Q43" s="67" t="s">
@@ -16540,7 +16522,7 @@
       <c r="O44" s="92" t="s">
         <v>370</v>
       </c>
-      <c r="P44" s="175" t="s">
+      <c r="P44" s="152" t="s">
         <v>369</v>
       </c>
       <c r="Q44" s="67" t="s">
@@ -16559,7 +16541,7 @@
       <c r="O45" s="92" t="s">
         <v>371</v>
       </c>
-      <c r="P45" s="175" t="s">
+      <c r="P45" s="152" t="s">
         <v>372</v>
       </c>
       <c r="Q45" s="67" t="s">
@@ -16578,7 +16560,7 @@
       <c r="O46" s="92" t="s">
         <v>373</v>
       </c>
-      <c r="P46" s="175" t="s">
+      <c r="P46" s="152" t="s">
         <v>19</v>
       </c>
       <c r="Q46" s="67" t="s">
@@ -16597,7 +16579,7 @@
       <c r="O47" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="P47" s="175" t="s">
+      <c r="P47" s="152" t="s">
         <v>369</v>
       </c>
       <c r="Q47" s="67" t="s">
@@ -16616,7 +16598,7 @@
       <c r="O48" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="P48" s="175" t="s">
+      <c r="P48" s="152" t="s">
         <v>369</v>
       </c>
       <c r="Q48" s="67" t="s">
@@ -16635,7 +16617,7 @@
       <c r="O49" s="92" t="s">
         <v>374</v>
       </c>
-      <c r="P49" s="175" t="s">
+      <c r="P49" s="152" t="s">
         <v>372</v>
       </c>
       <c r="Q49" s="67" t="s">
@@ -16654,7 +16636,7 @@
       <c r="O50" s="92" t="s">
         <v>375</v>
       </c>
-      <c r="P50" s="175" t="s">
+      <c r="P50" s="152" t="s">
         <v>376</v>
       </c>
       <c r="Q50" s="67" t="s">
@@ -16673,7 +16655,7 @@
       <c r="O51" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="P51" s="175" t="s">
+      <c r="P51" s="152" t="s">
         <v>184</v>
       </c>
       <c r="Q51" s="67" t="s">
@@ -16692,7 +16674,7 @@
       <c r="O52" s="92" t="s">
         <v>378</v>
       </c>
-      <c r="P52" s="175" t="s">
+      <c r="P52" s="152" t="s">
         <v>376</v>
       </c>
       <c r="Q52" s="67" t="s">
@@ -16711,7 +16693,7 @@
       <c r="O53" s="92" t="s">
         <v>379</v>
       </c>
-      <c r="P53" s="175" t="s">
+      <c r="P53" s="152" t="s">
         <v>369</v>
       </c>
       <c r="Q53" s="67" t="s">
@@ -16730,7 +16712,7 @@
       <c r="O54" s="92" t="s">
         <v>380</v>
       </c>
-      <c r="P54" s="175" t="s">
+      <c r="P54" s="152" t="s">
         <v>369</v>
       </c>
       <c r="Q54" s="67" t="s">
@@ -16749,7 +16731,7 @@
       <c r="O55" s="92" t="s">
         <v>381</v>
       </c>
-      <c r="P55" s="175" t="s">
+      <c r="P55" s="152" t="s">
         <v>369</v>
       </c>
       <c r="Q55" s="67" t="s">
@@ -16768,7 +16750,7 @@
       <c r="O56" s="92" t="s">
         <v>382</v>
       </c>
-      <c r="P56" s="175" t="s">
+      <c r="P56" s="152" t="s">
         <v>23</v>
       </c>
       <c r="Q56" s="67" t="s">
@@ -16787,7 +16769,7 @@
       <c r="O57" s="92" t="s">
         <v>383</v>
       </c>
-      <c r="P57" s="175" t="s">
+      <c r="P57" s="152" t="s">
         <v>23</v>
       </c>
       <c r="Q57" s="67" t="s">
@@ -16806,7 +16788,7 @@
       <c r="O58" s="92" t="s">
         <v>384</v>
       </c>
-      <c r="P58" s="175" t="s">
+      <c r="P58" s="152" t="s">
         <v>23</v>
       </c>
       <c r="Q58" s="67" t="s">
@@ -16825,7 +16807,7 @@
       <c r="O59" s="92" t="s">
         <v>385</v>
       </c>
-      <c r="P59" s="175" t="s">
+      <c r="P59" s="152" t="s">
         <v>16</v>
       </c>
       <c r="Q59" s="67" t="s">
@@ -16844,7 +16826,7 @@
       <c r="O60" s="92" t="s">
         <v>386</v>
       </c>
-      <c r="P60" s="175" t="s">
+      <c r="P60" s="152" t="s">
         <v>387</v>
       </c>
       <c r="Q60" s="67" t="s">
@@ -16863,7 +16845,7 @@
       <c r="O61" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="P61" s="175" t="s">
+      <c r="P61" s="152" t="s">
         <v>53</v>
       </c>
       <c r="Q61" s="67" t="s">
@@ -16882,7 +16864,7 @@
       <c r="O62" s="92" t="s">
         <v>389</v>
       </c>
-      <c r="P62" s="175" t="s">
+      <c r="P62" s="152" t="s">
         <v>390</v>
       </c>
       <c r="Q62" s="67" t="s">
@@ -16901,7 +16883,7 @@
       <c r="O63" s="92" t="s">
         <v>391</v>
       </c>
-      <c r="P63" s="175" t="s">
+      <c r="P63" s="152" t="s">
         <v>23</v>
       </c>
       <c r="Q63" s="67" t="s">
@@ -16920,7 +16902,7 @@
       <c r="O64" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="P64" s="175" t="s">
+      <c r="P64" s="152" t="s">
         <v>393</v>
       </c>
       <c r="Q64" s="67" t="s">

--- a/Otorgamiento/Mapeos_SOL_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_SOL_Otorgamiento_V1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="735" windowWidth="9225" windowHeight="4290" tabRatio="790"/>
+    <workbookView xWindow="285" yWindow="735" windowWidth="9225" windowHeight="4290" tabRatio="790" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DB_SOLICITUD" sheetId="8" r:id="rId1"/>
@@ -774,7 +774,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="394">
   <si>
     <t>Datos Destino</t>
   </si>
@@ -3010,7 +3010,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
@@ -3243,7 +3243,6 @@
     <xf numFmtId="0" fontId="4" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3798,7 +3797,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3809,7 +3808,7 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="B1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -3849,30 +3848,30 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="164" t="s">
+      <c r="D2" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="166"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="165"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="161" t="s">
+      <c r="I2" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="162"/>
-      <c r="K2" s="163"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="167" t="s">
+      <c r="D3" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="169"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="168"/>
       <c r="H3" s="8"/>
       <c r="I3" s="38"/>
       <c r="J3" s="22"/>
@@ -3883,12 +3882,12 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="170" t="s">
+      <c r="D4" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="172"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="6"/>
       <c r="I4" s="39"/>
       <c r="J4" s="22"/>
@@ -3899,12 +3898,12 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="170" t="s">
+      <c r="D5" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="6"/>
       <c r="I5" s="40"/>
       <c r="J5" s="25"/>
@@ -3920,26 +3919,26 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="156"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="158"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="157"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="153"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154"/>
-      <c r="S7" s="155"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="153"/>
+      <c r="Q7" s="153"/>
+      <c r="R7" s="153"/>
+      <c r="S7" s="154"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -5405,7 +5404,7 @@
       <c r="P42" s="92" t="s">
         <v>366</v>
       </c>
-      <c r="Q42" s="152" t="s">
+      <c r="Q42" s="151" t="s">
         <v>367</v>
       </c>
       <c r="R42" s="67" t="s">
@@ -5439,7 +5438,7 @@
       <c r="P43" s="92" t="s">
         <v>368</v>
       </c>
-      <c r="Q43" s="152" t="s">
+      <c r="Q43" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R43" s="67" t="s">
@@ -5473,7 +5472,7 @@
       <c r="P44" s="92" t="s">
         <v>370</v>
       </c>
-      <c r="Q44" s="152" t="s">
+      <c r="Q44" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R44" s="67" t="s">
@@ -5507,7 +5506,7 @@
       <c r="P45" s="92" t="s">
         <v>371</v>
       </c>
-      <c r="Q45" s="152" t="s">
+      <c r="Q45" s="151" t="s">
         <v>372</v>
       </c>
       <c r="R45" s="67" t="s">
@@ -5541,7 +5540,7 @@
       <c r="P46" s="92" t="s">
         <v>373</v>
       </c>
-      <c r="Q46" s="152" t="s">
+      <c r="Q46" s="151" t="s">
         <v>19</v>
       </c>
       <c r="R46" s="67" t="s">
@@ -5575,7 +5574,7 @@
       <c r="P47" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="Q47" s="152" t="s">
+      <c r="Q47" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R47" s="67" t="s">
@@ -5609,7 +5608,7 @@
       <c r="P48" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="Q48" s="152" t="s">
+      <c r="Q48" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R48" s="67" t="s">
@@ -5645,7 +5644,7 @@
       <c r="P49" s="92" t="s">
         <v>374</v>
       </c>
-      <c r="Q49" s="152" t="s">
+      <c r="Q49" s="151" t="s">
         <v>372</v>
       </c>
       <c r="R49" s="67" t="s">
@@ -5681,7 +5680,7 @@
       <c r="P50" s="92" t="s">
         <v>375</v>
       </c>
-      <c r="Q50" s="152" t="s">
+      <c r="Q50" s="151" t="s">
         <v>376</v>
       </c>
       <c r="R50" s="67" t="s">
@@ -5715,7 +5714,7 @@
       <c r="P51" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="Q51" s="152" t="s">
+      <c r="Q51" s="151" t="s">
         <v>184</v>
       </c>
       <c r="R51" s="67" t="s">
@@ -5751,7 +5750,7 @@
       <c r="P52" s="92" t="s">
         <v>378</v>
       </c>
-      <c r="Q52" s="152" t="s">
+      <c r="Q52" s="151" t="s">
         <v>376</v>
       </c>
       <c r="R52" s="67" t="s">
@@ -5787,7 +5786,7 @@
       <c r="P53" s="92" t="s">
         <v>379</v>
       </c>
-      <c r="Q53" s="152" t="s">
+      <c r="Q53" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R53" s="67" t="s">
@@ -5821,7 +5820,7 @@
       <c r="P54" s="92" t="s">
         <v>380</v>
       </c>
-      <c r="Q54" s="152" t="s">
+      <c r="Q54" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R54" s="67" t="s">
@@ -5855,7 +5854,7 @@
       <c r="P55" s="92" t="s">
         <v>381</v>
       </c>
-      <c r="Q55" s="152" t="s">
+      <c r="Q55" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R55" s="67" t="s">
@@ -5889,7 +5888,7 @@
       <c r="P56" s="92" t="s">
         <v>382</v>
       </c>
-      <c r="Q56" s="152" t="s">
+      <c r="Q56" s="151" t="s">
         <v>23</v>
       </c>
       <c r="R56" s="67" t="s">
@@ -5925,7 +5924,7 @@
       <c r="P57" s="92" t="s">
         <v>383</v>
       </c>
-      <c r="Q57" s="152" t="s">
+      <c r="Q57" s="151" t="s">
         <v>23</v>
       </c>
       <c r="R57" s="67" t="s">
@@ -5959,7 +5958,7 @@
       <c r="P58" s="92" t="s">
         <v>384</v>
       </c>
-      <c r="Q58" s="152" t="s">
+      <c r="Q58" s="151" t="s">
         <v>23</v>
       </c>
       <c r="R58" s="67" t="s">
@@ -5993,7 +5992,7 @@
       <c r="P59" s="92" t="s">
         <v>385</v>
       </c>
-      <c r="Q59" s="152" t="s">
+      <c r="Q59" s="151" t="s">
         <v>16</v>
       </c>
       <c r="R59" s="67" t="s">
@@ -6012,7 +6011,7 @@
       <c r="P60" s="92" t="s">
         <v>386</v>
       </c>
-      <c r="Q60" s="152" t="s">
+      <c r="Q60" s="151" t="s">
         <v>387</v>
       </c>
       <c r="R60" s="67" t="s">
@@ -6031,7 +6030,7 @@
       <c r="P61" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="Q61" s="152" t="s">
+      <c r="Q61" s="151" t="s">
         <v>53</v>
       </c>
       <c r="R61" s="67" t="s">
@@ -6050,7 +6049,7 @@
       <c r="P62" s="92" t="s">
         <v>389</v>
       </c>
-      <c r="Q62" s="152" t="s">
+      <c r="Q62" s="151" t="s">
         <v>390</v>
       </c>
       <c r="R62" s="67" t="s">
@@ -6069,7 +6068,7 @@
       <c r="P63" s="92" t="s">
         <v>391</v>
       </c>
-      <c r="Q63" s="152" t="s">
+      <c r="Q63" s="151" t="s">
         <v>23</v>
       </c>
       <c r="R63" s="67" t="s">
@@ -6088,7 +6087,7 @@
       <c r="P64" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="Q64" s="152" t="s">
+      <c r="Q64" s="151" t="s">
         <v>393</v>
       </c>
       <c r="R64" s="67" t="s">
@@ -6709,30 +6708,30 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="164" t="s">
+      <c r="D2" s="163" t="s">
         <v>174</v>
       </c>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="166"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="165"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="161" t="s">
+      <c r="I2" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="162"/>
-      <c r="K2" s="163"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="167" t="s">
+      <c r="D3" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="169"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="168"/>
       <c r="H3" s="8"/>
       <c r="I3" s="38"/>
       <c r="J3" s="22" t="s">
@@ -6745,12 +6744,12 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="170" t="s">
+      <c r="D4" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="172"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="6"/>
       <c r="I4" s="39"/>
       <c r="J4" s="22" t="s">
@@ -6763,12 +6762,12 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="170" t="s">
+      <c r="D5" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="6"/>
       <c r="I5" s="40"/>
       <c r="J5" s="25" t="s">
@@ -6786,30 +6785,30 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="156" t="s">
+      <c r="J7" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="157"/>
-      <c r="L7" s="158"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="157"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="173" t="s">
+      <c r="N7" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="174"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="174"/>
-      <c r="R7" s="174"/>
-      <c r="S7" s="174"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -8309,7 +8308,7 @@
       <c r="P43" s="92" t="s">
         <v>366</v>
       </c>
-      <c r="Q43" s="152" t="s">
+      <c r="Q43" s="151" t="s">
         <v>367</v>
       </c>
       <c r="R43" s="67" t="s">
@@ -8328,7 +8327,7 @@
       <c r="P44" s="92" t="s">
         <v>368</v>
       </c>
-      <c r="Q44" s="152" t="s">
+      <c r="Q44" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R44" s="67" t="s">
@@ -8347,7 +8346,7 @@
       <c r="P45" s="92" t="s">
         <v>370</v>
       </c>
-      <c r="Q45" s="152" t="s">
+      <c r="Q45" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R45" s="67" t="s">
@@ -8366,7 +8365,7 @@
       <c r="P46" s="92" t="s">
         <v>371</v>
       </c>
-      <c r="Q46" s="152" t="s">
+      <c r="Q46" s="151" t="s">
         <v>372</v>
       </c>
       <c r="R46" s="67" t="s">
@@ -8385,7 +8384,7 @@
       <c r="P47" s="92" t="s">
         <v>373</v>
       </c>
-      <c r="Q47" s="152" t="s">
+      <c r="Q47" s="151" t="s">
         <v>19</v>
       </c>
       <c r="R47" s="67" t="s">
@@ -8404,7 +8403,7 @@
       <c r="P48" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="Q48" s="152" t="s">
+      <c r="Q48" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R48" s="67" t="s">
@@ -8423,7 +8422,7 @@
       <c r="P49" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="Q49" s="152" t="s">
+      <c r="Q49" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R49" s="67" t="s">
@@ -8442,7 +8441,7 @@
       <c r="P50" s="92" t="s">
         <v>374</v>
       </c>
-      <c r="Q50" s="152" t="s">
+      <c r="Q50" s="151" t="s">
         <v>372</v>
       </c>
       <c r="R50" s="67" t="s">
@@ -8461,7 +8460,7 @@
       <c r="P51" s="92" t="s">
         <v>375</v>
       </c>
-      <c r="Q51" s="152" t="s">
+      <c r="Q51" s="151" t="s">
         <v>376</v>
       </c>
       <c r="R51" s="67" t="s">
@@ -8480,7 +8479,7 @@
       <c r="P52" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="Q52" s="152" t="s">
+      <c r="Q52" s="151" t="s">
         <v>184</v>
       </c>
       <c r="R52" s="67" t="s">
@@ -8499,7 +8498,7 @@
       <c r="P53" s="92" t="s">
         <v>378</v>
       </c>
-      <c r="Q53" s="152" t="s">
+      <c r="Q53" s="151" t="s">
         <v>376</v>
       </c>
       <c r="R53" s="67" t="s">
@@ -8518,7 +8517,7 @@
       <c r="P54" s="92" t="s">
         <v>379</v>
       </c>
-      <c r="Q54" s="152" t="s">
+      <c r="Q54" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R54" s="67" t="s">
@@ -8537,7 +8536,7 @@
       <c r="P55" s="92" t="s">
         <v>380</v>
       </c>
-      <c r="Q55" s="152" t="s">
+      <c r="Q55" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R55" s="67" t="s">
@@ -8556,7 +8555,7 @@
       <c r="P56" s="92" t="s">
         <v>381</v>
       </c>
-      <c r="Q56" s="152" t="s">
+      <c r="Q56" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R56" s="67" t="s">
@@ -8575,7 +8574,7 @@
       <c r="P57" s="92" t="s">
         <v>382</v>
       </c>
-      <c r="Q57" s="152" t="s">
+      <c r="Q57" s="151" t="s">
         <v>23</v>
       </c>
       <c r="R57" s="67" t="s">
@@ -8594,7 +8593,7 @@
       <c r="P58" s="92" t="s">
         <v>383</v>
       </c>
-      <c r="Q58" s="152" t="s">
+      <c r="Q58" s="151" t="s">
         <v>23</v>
       </c>
       <c r="R58" s="67" t="s">
@@ -8613,7 +8612,7 @@
       <c r="P59" s="92" t="s">
         <v>384</v>
       </c>
-      <c r="Q59" s="152" t="s">
+      <c r="Q59" s="151" t="s">
         <v>23</v>
       </c>
       <c r="R59" s="67" t="s">
@@ -8632,7 +8631,7 @@
       <c r="P60" s="92" t="s">
         <v>385</v>
       </c>
-      <c r="Q60" s="152" t="s">
+      <c r="Q60" s="151" t="s">
         <v>16</v>
       </c>
       <c r="R60" s="67" t="s">
@@ -8651,7 +8650,7 @@
       <c r="P61" s="92" t="s">
         <v>386</v>
       </c>
-      <c r="Q61" s="152" t="s">
+      <c r="Q61" s="151" t="s">
         <v>387</v>
       </c>
       <c r="R61" s="67" t="s">
@@ -8670,7 +8669,7 @@
       <c r="P62" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="Q62" s="152" t="s">
+      <c r="Q62" s="151" t="s">
         <v>53</v>
       </c>
       <c r="R62" s="67" t="s">
@@ -8689,7 +8688,7 @@
       <c r="P63" s="92" t="s">
         <v>389</v>
       </c>
-      <c r="Q63" s="152" t="s">
+      <c r="Q63" s="151" t="s">
         <v>390</v>
       </c>
       <c r="R63" s="67" t="s">
@@ -8708,7 +8707,7 @@
       <c r="P64" s="92" t="s">
         <v>391</v>
       </c>
-      <c r="Q64" s="152" t="s">
+      <c r="Q64" s="151" t="s">
         <v>23</v>
       </c>
       <c r="R64" s="67" t="s">
@@ -8727,7 +8726,7 @@
       <c r="P65" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="Q65" s="152" t="s">
+      <c r="Q65" s="151" t="s">
         <v>393</v>
       </c>
       <c r="R65" s="67" t="s">
@@ -10032,30 +10031,30 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="164" t="s">
+      <c r="D2" s="163" t="s">
         <v>200</v>
       </c>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="166"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="164"/>
+      <c r="G2" s="165"/>
       <c r="H2" s="8"/>
-      <c r="I2" s="161" t="s">
+      <c r="I2" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="162"/>
-      <c r="K2" s="163"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="162"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="167" t="s">
+      <c r="D3" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="169"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="168"/>
       <c r="H3" s="8"/>
       <c r="I3" s="38"/>
       <c r="J3" s="22" t="s">
@@ -10068,12 +10067,12 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="170" t="s">
+      <c r="D4" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="172"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="171"/>
       <c r="H4" s="6"/>
       <c r="I4" s="39"/>
       <c r="J4" s="22" t="s">
@@ -10086,12 +10085,12 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="170" t="s">
+      <c r="D5" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="172"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="170"/>
+      <c r="G5" s="171"/>
       <c r="H5" s="6"/>
       <c r="I5" s="40"/>
       <c r="J5" s="25" t="s">
@@ -10109,30 +10108,30 @@
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="156" t="s">
+      <c r="J7" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="157"/>
-      <c r="L7" s="158"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="157"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="153" t="s">
+      <c r="N7" s="152" t="s">
         <v>0</v>
       </c>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="154"/>
-      <c r="S7" s="155"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="153"/>
+      <c r="Q7" s="153"/>
+      <c r="R7" s="153"/>
+      <c r="S7" s="154"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -11436,7 +11435,7 @@
       <c r="P39" s="92" t="s">
         <v>366</v>
       </c>
-      <c r="Q39" s="152" t="s">
+      <c r="Q39" s="151" t="s">
         <v>367</v>
       </c>
       <c r="R39" s="67" t="s">
@@ -11470,7 +11469,7 @@
       <c r="P40" s="92" t="s">
         <v>368</v>
       </c>
-      <c r="Q40" s="152" t="s">
+      <c r="Q40" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R40" s="67" t="s">
@@ -11504,7 +11503,7 @@
       <c r="P41" s="92" t="s">
         <v>370</v>
       </c>
-      <c r="Q41" s="152" t="s">
+      <c r="Q41" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R41" s="67" t="s">
@@ -11538,7 +11537,7 @@
       <c r="P42" s="92" t="s">
         <v>371</v>
       </c>
-      <c r="Q42" s="152" t="s">
+      <c r="Q42" s="151" t="s">
         <v>372</v>
       </c>
       <c r="R42" s="67" t="s">
@@ -11572,7 +11571,7 @@
       <c r="P43" s="92" t="s">
         <v>373</v>
       </c>
-      <c r="Q43" s="152" t="s">
+      <c r="Q43" s="151" t="s">
         <v>19</v>
       </c>
       <c r="R43" s="67" t="s">
@@ -11591,7 +11590,7 @@
       <c r="P44" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="Q44" s="152" t="s">
+      <c r="Q44" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R44" s="67" t="s">
@@ -11610,7 +11609,7 @@
       <c r="P45" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="Q45" s="152" t="s">
+      <c r="Q45" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R45" s="67" t="s">
@@ -11629,7 +11628,7 @@
       <c r="P46" s="92" t="s">
         <v>374</v>
       </c>
-      <c r="Q46" s="152" t="s">
+      <c r="Q46" s="151" t="s">
         <v>372</v>
       </c>
       <c r="R46" s="67" t="s">
@@ -11648,7 +11647,7 @@
       <c r="P47" s="92" t="s">
         <v>375</v>
       </c>
-      <c r="Q47" s="152" t="s">
+      <c r="Q47" s="151" t="s">
         <v>376</v>
       </c>
       <c r="R47" s="67" t="s">
@@ -11667,7 +11666,7 @@
       <c r="P48" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="Q48" s="152" t="s">
+      <c r="Q48" s="151" t="s">
         <v>184</v>
       </c>
       <c r="R48" s="67" t="s">
@@ -11686,7 +11685,7 @@
       <c r="P49" s="92" t="s">
         <v>378</v>
       </c>
-      <c r="Q49" s="152" t="s">
+      <c r="Q49" s="151" t="s">
         <v>376</v>
       </c>
       <c r="R49" s="67" t="s">
@@ -11705,7 +11704,7 @@
       <c r="P50" s="92" t="s">
         <v>379</v>
       </c>
-      <c r="Q50" s="152" t="s">
+      <c r="Q50" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R50" s="67" t="s">
@@ -11724,7 +11723,7 @@
       <c r="P51" s="92" t="s">
         <v>380</v>
       </c>
-      <c r="Q51" s="152" t="s">
+      <c r="Q51" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R51" s="67" t="s">
@@ -11743,7 +11742,7 @@
       <c r="P52" s="92" t="s">
         <v>381</v>
       </c>
-      <c r="Q52" s="152" t="s">
+      <c r="Q52" s="151" t="s">
         <v>369</v>
       </c>
       <c r="R52" s="67" t="s">
@@ -11762,7 +11761,7 @@
       <c r="P53" s="92" t="s">
         <v>382</v>
       </c>
-      <c r="Q53" s="152" t="s">
+      <c r="Q53" s="151" t="s">
         <v>23</v>
       </c>
       <c r="R53" s="67" t="s">
@@ -11781,7 +11780,7 @@
       <c r="P54" s="92" t="s">
         <v>383</v>
       </c>
-      <c r="Q54" s="152" t="s">
+      <c r="Q54" s="151" t="s">
         <v>23</v>
       </c>
       <c r="R54" s="67" t="s">
@@ -11800,7 +11799,7 @@
       <c r="P55" s="92" t="s">
         <v>384</v>
       </c>
-      <c r="Q55" s="152" t="s">
+      <c r="Q55" s="151" t="s">
         <v>23</v>
       </c>
       <c r="R55" s="67" t="s">
@@ -11819,7 +11818,7 @@
       <c r="P56" s="92" t="s">
         <v>385</v>
       </c>
-      <c r="Q56" s="152" t="s">
+      <c r="Q56" s="151" t="s">
         <v>16</v>
       </c>
       <c r="R56" s="67" t="s">
@@ -11838,7 +11837,7 @@
       <c r="P57" s="92" t="s">
         <v>386</v>
       </c>
-      <c r="Q57" s="152" t="s">
+      <c r="Q57" s="151" t="s">
         <v>387</v>
       </c>
       <c r="R57" s="67" t="s">
@@ -11857,7 +11856,7 @@
       <c r="P58" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="Q58" s="152" t="s">
+      <c r="Q58" s="151" t="s">
         <v>53</v>
       </c>
       <c r="R58" s="67" t="s">
@@ -11876,7 +11875,7 @@
       <c r="P59" s="92" t="s">
         <v>389</v>
       </c>
-      <c r="Q59" s="152" t="s">
+      <c r="Q59" s="151" t="s">
         <v>390</v>
       </c>
       <c r="R59" s="67" t="s">
@@ -11895,7 +11894,7 @@
       <c r="P60" s="92" t="s">
         <v>391</v>
       </c>
-      <c r="Q60" s="152" t="s">
+      <c r="Q60" s="151" t="s">
         <v>23</v>
       </c>
       <c r="R60" s="67" t="s">
@@ -11914,7 +11913,7 @@
       <c r="P61" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="Q61" s="152" t="s">
+      <c r="Q61" s="151" t="s">
         <v>393</v>
       </c>
       <c r="R61" s="67" t="s">
@@ -12739,10 +12738,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R92"/>
+  <dimension ref="B1:R93"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+    <sheetView tabSelected="1" topLeftCell="K65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N89" sqref="N89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12779,28 +12778,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="164" t="s">
+      <c r="D2" s="163" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="165"/>
-      <c r="F2" s="166"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="161" t="s">
+      <c r="H2" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="162"/>
-      <c r="J2" s="163"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="162"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="167" t="s">
+      <c r="D3" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="168"/>
-      <c r="F3" s="169"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="168"/>
       <c r="G3" s="8"/>
       <c r="H3" s="38"/>
       <c r="I3" s="22"/>
@@ -12811,11 +12810,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="170" t="s">
+      <c r="D4" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="171"/>
-      <c r="F4" s="172"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="171"/>
       <c r="G4" s="6"/>
       <c r="H4" s="39"/>
       <c r="I4" s="22"/>
@@ -12826,11 +12825,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="170" t="s">
+      <c r="D5" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="171"/>
-      <c r="F5" s="172"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="171"/>
       <c r="G5" s="6"/>
       <c r="H5" s="40"/>
       <c r="I5" s="25"/>
@@ -12845,25 +12844,25 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="158"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="157"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="174"/>
-      <c r="O7" s="174"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="174"/>
-      <c r="R7" s="174"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="173"/>
+      <c r="Q7" s="173"/>
+      <c r="R7" s="173"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -13626,7 +13625,7 @@
       <c r="J25" s="22" t="s">
         <v>287</v>
       </c>
-      <c r="K25" s="150" t="s">
+      <c r="K25" s="68" t="s">
         <v>358</v>
       </c>
       <c r="L25" s="34"/>
@@ -14210,7 +14209,7 @@
       <c r="O42" s="92" t="s">
         <v>366</v>
       </c>
-      <c r="P42" s="152" t="s">
+      <c r="P42" s="151" t="s">
         <v>367</v>
       </c>
       <c r="Q42" s="67" t="s">
@@ -14243,7 +14242,7 @@
       <c r="O43" s="92" t="s">
         <v>368</v>
       </c>
-      <c r="P43" s="152" t="s">
+      <c r="P43" s="151" t="s">
         <v>369</v>
       </c>
       <c r="Q43" s="67" t="s">
@@ -14276,7 +14275,7 @@
       <c r="O44" s="92" t="s">
         <v>370</v>
       </c>
-      <c r="P44" s="152" t="s">
+      <c r="P44" s="151" t="s">
         <v>369</v>
       </c>
       <c r="Q44" s="67" t="s">
@@ -14309,7 +14308,7 @@
       <c r="O45" s="92" t="s">
         <v>371</v>
       </c>
-      <c r="P45" s="152" t="s">
+      <c r="P45" s="151" t="s">
         <v>372</v>
       </c>
       <c r="Q45" s="67" t="s">
@@ -14342,7 +14341,7 @@
       <c r="O46" s="92" t="s">
         <v>373</v>
       </c>
-      <c r="P46" s="152" t="s">
+      <c r="P46" s="151" t="s">
         <v>19</v>
       </c>
       <c r="Q46" s="67" t="s">
@@ -14375,7 +14374,7 @@
       <c r="O47" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="P47" s="152" t="s">
+      <c r="P47" s="151" t="s">
         <v>369</v>
       </c>
       <c r="Q47" s="67" t="s">
@@ -14408,7 +14407,7 @@
       <c r="O48" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="P48" s="152" t="s">
+      <c r="P48" s="151" t="s">
         <v>369</v>
       </c>
       <c r="Q48" s="67" t="s">
@@ -14441,7 +14440,7 @@
       <c r="O49" s="92" t="s">
         <v>374</v>
       </c>
-      <c r="P49" s="152" t="s">
+      <c r="P49" s="151" t="s">
         <v>372</v>
       </c>
       <c r="Q49" s="67" t="s">
@@ -14474,7 +14473,7 @@
       <c r="O50" s="92" t="s">
         <v>375</v>
       </c>
-      <c r="P50" s="152" t="s">
+      <c r="P50" s="151" t="s">
         <v>376</v>
       </c>
       <c r="Q50" s="67" t="s">
@@ -14493,7 +14492,7 @@
       <c r="O51" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="P51" s="152" t="s">
+      <c r="P51" s="151" t="s">
         <v>184</v>
       </c>
       <c r="Q51" s="67" t="s">
@@ -14512,7 +14511,7 @@
       <c r="O52" s="92" t="s">
         <v>378</v>
       </c>
-      <c r="P52" s="152" t="s">
+      <c r="P52" s="151" t="s">
         <v>376</v>
       </c>
       <c r="Q52" s="67" t="s">
@@ -14531,7 +14530,7 @@
       <c r="O53" s="92" t="s">
         <v>379</v>
       </c>
-      <c r="P53" s="152" t="s">
+      <c r="P53" s="151" t="s">
         <v>369</v>
       </c>
       <c r="Q53" s="67" t="s">
@@ -14550,7 +14549,7 @@
       <c r="O54" s="92" t="s">
         <v>380</v>
       </c>
-      <c r="P54" s="152" t="s">
+      <c r="P54" s="151" t="s">
         <v>369</v>
       </c>
       <c r="Q54" s="67" t="s">
@@ -14569,7 +14568,7 @@
       <c r="O55" s="92" t="s">
         <v>381</v>
       </c>
-      <c r="P55" s="152" t="s">
+      <c r="P55" s="151" t="s">
         <v>369</v>
       </c>
       <c r="Q55" s="67" t="s">
@@ -14588,7 +14587,7 @@
       <c r="O56" s="92" t="s">
         <v>382</v>
       </c>
-      <c r="P56" s="152" t="s">
+      <c r="P56" s="151" t="s">
         <v>23</v>
       </c>
       <c r="Q56" s="67" t="s">
@@ -14607,7 +14606,7 @@
       <c r="O57" s="92" t="s">
         <v>383</v>
       </c>
-      <c r="P57" s="152" t="s">
+      <c r="P57" s="151" t="s">
         <v>23</v>
       </c>
       <c r="Q57" s="67" t="s">
@@ -14626,7 +14625,7 @@
       <c r="O58" s="92" t="s">
         <v>384</v>
       </c>
-      <c r="P58" s="152" t="s">
+      <c r="P58" s="151" t="s">
         <v>23</v>
       </c>
       <c r="Q58" s="67" t="s">
@@ -14645,7 +14644,7 @@
       <c r="O59" s="92" t="s">
         <v>385</v>
       </c>
-      <c r="P59" s="152" t="s">
+      <c r="P59" s="151" t="s">
         <v>16</v>
       </c>
       <c r="Q59" s="67" t="s">
@@ -14664,7 +14663,7 @@
       <c r="O60" s="92" t="s">
         <v>386</v>
       </c>
-      <c r="P60" s="152" t="s">
+      <c r="P60" s="151" t="s">
         <v>387</v>
       </c>
       <c r="Q60" s="67" t="s">
@@ -14683,7 +14682,7 @@
       <c r="O61" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="P61" s="152" t="s">
+      <c r="P61" s="151" t="s">
         <v>53</v>
       </c>
       <c r="Q61" s="67" t="s">
@@ -14702,7 +14701,7 @@
       <c r="O62" s="92" t="s">
         <v>389</v>
       </c>
-      <c r="P62" s="152" t="s">
+      <c r="P62" s="151" t="s">
         <v>390</v>
       </c>
       <c r="Q62" s="67" t="s">
@@ -14721,7 +14720,7 @@
       <c r="O63" s="92" t="s">
         <v>391</v>
       </c>
-      <c r="P63" s="152" t="s">
+      <c r="P63" s="151" t="s">
         <v>23</v>
       </c>
       <c r="Q63" s="67" t="s">
@@ -14740,7 +14739,7 @@
       <c r="O64" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="P64" s="152" t="s">
+      <c r="P64" s="151" t="s">
         <v>393</v>
       </c>
       <c r="Q64" s="67" t="s">
@@ -15207,16 +15206,16 @@
     <row r="89" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L89" s="32"/>
       <c r="M89" s="27">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N89" s="90" t="s">
         <v>286</v>
       </c>
       <c r="O89" s="90" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="P89" s="90" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q89" s="90" t="s">
         <v>20</v>
@@ -15225,60 +15224,79 @@
     </row>
     <row r="90" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L90" s="32"/>
-      <c r="M90" s="107">
-        <v>48</v>
-      </c>
-      <c r="N90" s="99" t="s">
+      <c r="M90" s="27">
+        <v>45</v>
+      </c>
+      <c r="N90" s="90" t="s">
         <v>286</v>
       </c>
-      <c r="O90" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="P90" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q90" s="99" t="s">
-        <v>20</v>
-      </c>
-      <c r="R90" s="100"/>
+      <c r="O90" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="P90" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q90" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="R90" s="28"/>
     </row>
     <row r="91" spans="12:18" x14ac:dyDescent="0.2">
       <c r="L91" s="32"/>
-      <c r="M91" s="27">
+      <c r="M91" s="107">
+        <v>48</v>
+      </c>
+      <c r="N91" s="99" t="s">
+        <v>286</v>
+      </c>
+      <c r="O91" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="P91" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q91" s="99" t="s">
+        <v>20</v>
+      </c>
+      <c r="R91" s="100"/>
+    </row>
+    <row r="92" spans="12:18" x14ac:dyDescent="0.2">
+      <c r="L92" s="32"/>
+      <c r="M92" s="27">
         <v>60</v>
       </c>
-      <c r="N91" s="90" t="s">
+      <c r="N92" s="90" t="s">
         <v>286</v>
       </c>
-      <c r="O91" s="90" t="s">
+      <c r="O92" s="90" t="s">
         <v>285</v>
       </c>
-      <c r="P91" s="90" t="s">
+      <c r="P92" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="Q91" s="90" t="s">
-        <v>20</v>
-      </c>
-      <c r="R91" s="28"/>
-    </row>
-    <row r="92" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="L92" s="33"/>
-      <c r="M92" s="105">
+      <c r="Q92" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="R92" s="28"/>
+    </row>
+    <row r="93" spans="12:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L93" s="33"/>
+      <c r="M93" s="105">
         <v>49</v>
       </c>
-      <c r="N92" s="101" t="s">
+      <c r="N93" s="101" t="s">
         <v>286</v>
       </c>
-      <c r="O92" s="101" t="s">
+      <c r="O93" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="P92" s="101" t="s">
+      <c r="P93" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="Q92" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="R92" s="102"/>
+      <c r="Q93" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="R93" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -15339,28 +15357,28 @@
         <v>14</v>
       </c>
       <c r="C2" s="41"/>
-      <c r="D2" s="164" t="s">
+      <c r="D2" s="163" t="s">
         <v>219</v>
       </c>
-      <c r="E2" s="165"/>
-      <c r="F2" s="166"/>
+      <c r="E2" s="164"/>
+      <c r="F2" s="165"/>
       <c r="G2" s="8"/>
-      <c r="H2" s="161" t="s">
+      <c r="H2" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="162"/>
-      <c r="J2" s="163"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="162"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="26"/>
-      <c r="D3" s="167" t="s">
+      <c r="D3" s="166" t="s">
         <v>203</v>
       </c>
-      <c r="E3" s="168"/>
-      <c r="F3" s="169"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="168"/>
       <c r="G3" s="8"/>
       <c r="H3" s="38"/>
       <c r="I3" s="22"/>
@@ -15371,11 +15389,11 @@
         <v>9</v>
       </c>
       <c r="C4" s="42"/>
-      <c r="D4" s="170" t="s">
+      <c r="D4" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="171"/>
-      <c r="F4" s="172"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="171"/>
       <c r="G4" s="6"/>
       <c r="H4" s="39"/>
       <c r="I4" s="22"/>
@@ -15386,11 +15404,11 @@
         <v>5</v>
       </c>
       <c r="C5" s="42"/>
-      <c r="D5" s="170" t="s">
+      <c r="D5" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="171"/>
-      <c r="F5" s="172"/>
+      <c r="E5" s="170"/>
+      <c r="F5" s="171"/>
       <c r="G5" s="6"/>
       <c r="H5" s="40"/>
       <c r="I5" s="25"/>
@@ -15405,25 +15423,25 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="160"/>
-      <c r="D7" s="160"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="158"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="157"/>
       <c r="L7" s="9"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="154"/>
-      <c r="O7" s="154"/>
-      <c r="P7" s="154"/>
-      <c r="Q7" s="154"/>
-      <c r="R7" s="155"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="153"/>
+      <c r="O7" s="153"/>
+      <c r="P7" s="153"/>
+      <c r="Q7" s="153"/>
+      <c r="R7" s="154"/>
     </row>
     <row r="8" spans="2:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
@@ -15883,7 +15901,7 @@
       <c r="J18" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="151" t="s">
+      <c r="K18" s="150" t="s">
         <v>363</v>
       </c>
       <c r="L18" s="32"/>
@@ -16484,7 +16502,7 @@
       <c r="O42" s="92" t="s">
         <v>366</v>
       </c>
-      <c r="P42" s="152" t="s">
+      <c r="P42" s="151" t="s">
         <v>367</v>
       </c>
       <c r="Q42" s="67" t="s">
@@ -16503,7 +16521,7 @@
       <c r="O43" s="92" t="s">
         <v>368</v>
       </c>
-      <c r="P43" s="152" t="s">
+      <c r="P43" s="151" t="s">
         <v>369</v>
       </c>
       <c r="Q43" s="67" t="s">
@@ -16522,7 +16540,7 @@
       <c r="O44" s="92" t="s">
         <v>370</v>
       </c>
-      <c r="P44" s="152" t="s">
+      <c r="P44" s="151" t="s">
         <v>369</v>
       </c>
       <c r="Q44" s="67" t="s">
@@ -16541,7 +16559,7 @@
       <c r="O45" s="92" t="s">
         <v>371</v>
       </c>
-      <c r="P45" s="152" t="s">
+      <c r="P45" s="151" t="s">
         <v>372</v>
       </c>
       <c r="Q45" s="67" t="s">
@@ -16560,7 +16578,7 @@
       <c r="O46" s="92" t="s">
         <v>373</v>
       </c>
-      <c r="P46" s="152" t="s">
+      <c r="P46" s="151" t="s">
         <v>19</v>
       </c>
       <c r="Q46" s="67" t="s">
@@ -16579,7 +16597,7 @@
       <c r="O47" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="P47" s="152" t="s">
+      <c r="P47" s="151" t="s">
         <v>369</v>
       </c>
       <c r="Q47" s="67" t="s">
@@ -16598,7 +16616,7 @@
       <c r="O48" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="P48" s="152" t="s">
+      <c r="P48" s="151" t="s">
         <v>369</v>
       </c>
       <c r="Q48" s="67" t="s">
@@ -16617,7 +16635,7 @@
       <c r="O49" s="92" t="s">
         <v>374</v>
       </c>
-      <c r="P49" s="152" t="s">
+      <c r="P49" s="151" t="s">
         <v>372</v>
       </c>
       <c r="Q49" s="67" t="s">
@@ -16636,7 +16654,7 @@
       <c r="O50" s="92" t="s">
         <v>375</v>
       </c>
-      <c r="P50" s="152" t="s">
+      <c r="P50" s="151" t="s">
         <v>376</v>
       </c>
       <c r="Q50" s="67" t="s">
@@ -16655,7 +16673,7 @@
       <c r="O51" s="92" t="s">
         <v>377</v>
       </c>
-      <c r="P51" s="152" t="s">
+      <c r="P51" s="151" t="s">
         <v>184</v>
       </c>
       <c r="Q51" s="67" t="s">
@@ -16674,7 +16692,7 @@
       <c r="O52" s="92" t="s">
         <v>378</v>
       </c>
-      <c r="P52" s="152" t="s">
+      <c r="P52" s="151" t="s">
         <v>376</v>
       </c>
       <c r="Q52" s="67" t="s">
@@ -16693,7 +16711,7 @@
       <c r="O53" s="92" t="s">
         <v>379</v>
       </c>
-      <c r="P53" s="152" t="s">
+      <c r="P53" s="151" t="s">
         <v>369</v>
       </c>
       <c r="Q53" s="67" t="s">
@@ -16712,7 +16730,7 @@
       <c r="O54" s="92" t="s">
         <v>380</v>
       </c>
-      <c r="P54" s="152" t="s">
+      <c r="P54" s="151" t="s">
         <v>369</v>
       </c>
       <c r="Q54" s="67" t="s">
@@ -16731,7 +16749,7 @@
       <c r="O55" s="92" t="s">
         <v>381</v>
       </c>
-      <c r="P55" s="152" t="s">
+      <c r="P55" s="151" t="s">
         <v>369</v>
       </c>
       <c r="Q55" s="67" t="s">
@@ -16750,7 +16768,7 @@
       <c r="O56" s="92" t="s">
         <v>382</v>
       </c>
-      <c r="P56" s="152" t="s">
+      <c r="P56" s="151" t="s">
         <v>23</v>
       </c>
       <c r="Q56" s="67" t="s">
@@ -16769,7 +16787,7 @@
       <c r="O57" s="92" t="s">
         <v>383</v>
       </c>
-      <c r="P57" s="152" t="s">
+      <c r="P57" s="151" t="s">
         <v>23</v>
       </c>
       <c r="Q57" s="67" t="s">
@@ -16788,7 +16806,7 @@
       <c r="O58" s="92" t="s">
         <v>384</v>
       </c>
-      <c r="P58" s="152" t="s">
+      <c r="P58" s="151" t="s">
         <v>23</v>
       </c>
       <c r="Q58" s="67" t="s">
@@ -16807,7 +16825,7 @@
       <c r="O59" s="92" t="s">
         <v>385</v>
       </c>
-      <c r="P59" s="152" t="s">
+      <c r="P59" s="151" t="s">
         <v>16</v>
       </c>
       <c r="Q59" s="67" t="s">
@@ -16826,7 +16844,7 @@
       <c r="O60" s="92" t="s">
         <v>386</v>
       </c>
-      <c r="P60" s="152" t="s">
+      <c r="P60" s="151" t="s">
         <v>387</v>
       </c>
       <c r="Q60" s="67" t="s">
@@ -16845,7 +16863,7 @@
       <c r="O61" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="P61" s="152" t="s">
+      <c r="P61" s="151" t="s">
         <v>53</v>
       </c>
       <c r="Q61" s="67" t="s">
@@ -16864,7 +16882,7 @@
       <c r="O62" s="92" t="s">
         <v>389</v>
       </c>
-      <c r="P62" s="152" t="s">
+      <c r="P62" s="151" t="s">
         <v>390</v>
       </c>
       <c r="Q62" s="67" t="s">
@@ -16883,7 +16901,7 @@
       <c r="O63" s="92" t="s">
         <v>391</v>
       </c>
-      <c r="P63" s="152" t="s">
+      <c r="P63" s="151" t="s">
         <v>23</v>
       </c>
       <c r="Q63" s="67" t="s">
@@ -16902,7 +16920,7 @@
       <c r="O64" s="92" t="s">
         <v>392</v>
       </c>
-      <c r="P64" s="152" t="s">
+      <c r="P64" s="151" t="s">
         <v>393</v>
       </c>
       <c r="Q64" s="67" t="s">

--- a/Otorgamiento/Mapeos_SOL_Otorgamiento_V1.xlsx
+++ b/Otorgamiento/Mapeos_SOL_Otorgamiento_V1.xlsx
@@ -12740,7 +12740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N89" sqref="N89"/>
     </sheetView>
   </sheetViews>
